--- a/Sura/DataSource - Emision Motor.xlsx
+++ b/Sura/DataSource - Emision Motor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BC4F0D-2CB4-43DE-8E3F-2A752DB37700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A245DB-FE00-41B5-8E97-C47B09A62555}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="98">
   <si>
     <t>Usuario</t>
   </si>
@@ -107,6 +107,9 @@
     <t>silverarrow</t>
   </si>
   <si>
+    <t>Tarjeta de Crédito</t>
+  </si>
+  <si>
     <t>Sí</t>
   </si>
   <si>
@@ -173,9 +176,6 @@
     <t>0340010400044915199004</t>
   </si>
   <si>
-    <t>29/01/2021</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -285,6 +285,51 @@
   </si>
   <si>
     <t>A - Responsabilidad Civil Unicamente</t>
+  </si>
+  <si>
+    <t>CPremium - Resp. Civil-Robo/Incendio Total y Parcial Daños Totales por Accidente</t>
+  </si>
+  <si>
+    <t>03/02/2021</t>
+  </si>
+  <si>
+    <t>TR - Todo Riesgo Franquicia Fija</t>
+  </si>
+  <si>
+    <t>Débito Bancario</t>
+  </si>
+  <si>
+    <t>6 Cuotas - ARS</t>
+  </si>
+  <si>
+    <t>C Atp - Resp. Civil-Robo/Incendio Total y Parcial Daños Totales por Accidente</t>
+  </si>
+  <si>
+    <t>MOTORREGRE001</t>
+  </si>
+  <si>
+    <t>MOTORREGRE002</t>
+  </si>
+  <si>
+    <t>MOTORREGRE003</t>
+  </si>
+  <si>
+    <t>CHASISREGRE001</t>
+  </si>
+  <si>
+    <t>CHASISREGRE002</t>
+  </si>
+  <si>
+    <t>CHASISREGRE003</t>
+  </si>
+  <si>
+    <t>RPR001</t>
+  </si>
+  <si>
+    <t>RPR002</t>
+  </si>
+  <si>
+    <t>RPR003</t>
   </si>
 </sst>
 </file>
@@ -380,222 +425,222 @@
             <v>i-preproducciongestion.segurossura.com.ar</v>
           </cell>
           <cell r="R2" t="str">
-            <v>AON001</v>
+            <v>AON021</v>
           </cell>
           <cell r="S2" t="str">
-            <v>ABC12AON001</v>
+            <v>ABC12AON021</v>
           </cell>
           <cell r="T2" t="str">
-            <v>ZAZ12AON001</v>
+            <v>ZAZ12AAON021</v>
           </cell>
         </row>
         <row r="3">
           <cell r="R3" t="str">
-            <v>AON002</v>
+            <v>AON022</v>
           </cell>
           <cell r="S3" t="str">
-            <v>ABC12AON002</v>
+            <v>ABC12AON022</v>
           </cell>
           <cell r="T3" t="str">
-            <v>ZAZ12AON002</v>
+            <v>ZAZ12AAON022</v>
           </cell>
         </row>
         <row r="4">
           <cell r="R4" t="str">
-            <v>AON003</v>
+            <v>AON023</v>
           </cell>
           <cell r="S4" t="str">
-            <v>ABC12AON003</v>
+            <v>ABC12AON023</v>
           </cell>
           <cell r="T4" t="str">
-            <v>ZAZ12AON003</v>
+            <v>ZAZ12AAON023</v>
           </cell>
         </row>
         <row r="5">
           <cell r="R5" t="str">
-            <v>AON004</v>
+            <v>AON024</v>
           </cell>
           <cell r="S5" t="str">
-            <v>ABC12AON004</v>
+            <v>ABC12AON024</v>
           </cell>
           <cell r="T5" t="str">
-            <v>ZAZ12AON004</v>
+            <v>ZAZ12AAON024</v>
           </cell>
         </row>
         <row r="6">
           <cell r="R6" t="str">
-            <v>AON005</v>
+            <v>AON025</v>
           </cell>
           <cell r="S6" t="str">
-            <v>ABC12AON005</v>
+            <v>ABC12AON025</v>
           </cell>
           <cell r="T6" t="str">
-            <v>ZAZ12AON005</v>
+            <v>ZAZ12AAON025</v>
           </cell>
         </row>
         <row r="7">
           <cell r="R7" t="str">
-            <v>AON006</v>
+            <v>AON026</v>
           </cell>
           <cell r="S7" t="str">
-            <v>ABC12AON006</v>
+            <v>ABC12AON026</v>
           </cell>
           <cell r="T7" t="str">
-            <v>ZAZ12AON006</v>
+            <v>ZAZ12AAON026</v>
           </cell>
         </row>
         <row r="8">
           <cell r="R8" t="str">
-            <v>AON007</v>
+            <v>AON027</v>
           </cell>
           <cell r="S8" t="str">
-            <v>ABC12AON007</v>
+            <v>ABC12AON027</v>
           </cell>
           <cell r="T8" t="str">
-            <v>ZAZ12AON007</v>
+            <v>ZAZ12AAON027</v>
           </cell>
         </row>
         <row r="9">
           <cell r="R9" t="str">
-            <v>AON008</v>
+            <v>AON028</v>
           </cell>
           <cell r="S9" t="str">
-            <v>ABC12AON008</v>
+            <v>ABC12AON028</v>
           </cell>
           <cell r="T9" t="str">
-            <v>ZAZ12AON008</v>
+            <v>ZAZ12AAON028</v>
           </cell>
         </row>
         <row r="10">
           <cell r="R10" t="str">
-            <v>AON009</v>
+            <v>AON029</v>
           </cell>
           <cell r="S10" t="str">
-            <v>ABC12AON009</v>
+            <v>ABC12AON029</v>
           </cell>
           <cell r="T10" t="str">
-            <v>ZAZ12AON009</v>
+            <v>ZAZ12AAON029</v>
           </cell>
         </row>
         <row r="11">
           <cell r="R11" t="str">
-            <v>AON010</v>
+            <v>AON030</v>
           </cell>
           <cell r="S11" t="str">
-            <v>ABC12AON010</v>
+            <v>ABC12AON030</v>
           </cell>
           <cell r="T11" t="str">
-            <v>ZAZ12AON010</v>
+            <v>ZAZ12AAON030</v>
           </cell>
         </row>
         <row r="12">
           <cell r="R12" t="str">
-            <v>AON011</v>
+            <v>AON031</v>
           </cell>
           <cell r="S12" t="str">
-            <v>ABC12AON011</v>
+            <v>ABC12AON031</v>
           </cell>
           <cell r="T12" t="str">
-            <v>ZAZ12AON011</v>
+            <v>ZAZ12AAON031</v>
           </cell>
         </row>
         <row r="13">
           <cell r="R13" t="str">
-            <v>AON012</v>
+            <v>AON032</v>
           </cell>
           <cell r="S13" t="str">
-            <v>ABC12AON012</v>
+            <v>ABC12AON032</v>
           </cell>
           <cell r="T13" t="str">
-            <v>ZAZ12AON012</v>
+            <v>ZAZ12AAON032</v>
           </cell>
         </row>
         <row r="14">
           <cell r="R14" t="str">
-            <v>AON013</v>
+            <v>AON033</v>
           </cell>
           <cell r="S14" t="str">
-            <v>ABC12AON013</v>
+            <v>ABC12AON033</v>
           </cell>
           <cell r="T14" t="str">
-            <v>ZAZ12AON013</v>
+            <v>ZAZ12AAON033</v>
           </cell>
         </row>
         <row r="15">
           <cell r="R15" t="str">
-            <v>AON014</v>
+            <v>AON034</v>
           </cell>
           <cell r="S15" t="str">
-            <v>ABC12AON014</v>
+            <v>ABC12AON034</v>
           </cell>
           <cell r="T15" t="str">
-            <v>ZAZ12AON014</v>
+            <v>ZAZ12AAON034</v>
           </cell>
         </row>
         <row r="16">
           <cell r="R16" t="str">
-            <v>AON015</v>
+            <v>AON035</v>
           </cell>
           <cell r="S16" t="str">
-            <v>ABC12AON015</v>
+            <v>ABC12AON035</v>
           </cell>
           <cell r="T16" t="str">
-            <v>ZAZ12AON015</v>
+            <v>ZAZ12AAON035</v>
           </cell>
         </row>
         <row r="17">
           <cell r="R17" t="str">
-            <v>AON016</v>
+            <v>AON036</v>
           </cell>
           <cell r="S17" t="str">
-            <v>ABC12AON016</v>
+            <v>ABC12AON036</v>
           </cell>
           <cell r="T17" t="str">
-            <v>ZAZ12AON016</v>
+            <v>ZAZ12AAON036</v>
           </cell>
         </row>
         <row r="18">
           <cell r="R18" t="str">
-            <v>AON017</v>
+            <v>AON037</v>
           </cell>
           <cell r="S18" t="str">
-            <v>ABC12AON017</v>
+            <v>ABC12AON037</v>
           </cell>
           <cell r="T18" t="str">
-            <v>ZAZ12AON017</v>
+            <v>ZAZ12AAON037</v>
           </cell>
         </row>
         <row r="19">
           <cell r="R19" t="str">
-            <v>AON018</v>
+            <v>AON038</v>
           </cell>
           <cell r="S19" t="str">
-            <v>ABC12AON018</v>
+            <v>ABC12AON038</v>
           </cell>
           <cell r="T19" t="str">
-            <v>ZAZ12AON018</v>
+            <v>ZAZ12AAON038</v>
           </cell>
         </row>
         <row r="20">
           <cell r="R20" t="str">
-            <v>AON019</v>
+            <v>AON039</v>
           </cell>
           <cell r="S20" t="str">
-            <v>ABC12AON019</v>
+            <v>ABC12AON039</v>
           </cell>
           <cell r="T20" t="str">
-            <v>ZAZ12AON019</v>
+            <v>ZAZ12AAON039</v>
           </cell>
         </row>
         <row r="21">
           <cell r="R21" t="str">
-            <v>AON020</v>
+            <v>AON040</v>
           </cell>
           <cell r="S21" t="str">
-            <v>ABC12AON020</v>
+            <v>ABC12AON040</v>
           </cell>
           <cell r="T21" t="str">
-            <v>ZAZ12AON020</v>
+            <v>ZAZ12AAON040</v>
           </cell>
         </row>
       </sheetData>
@@ -870,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA37"/>
+  <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22:W32"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3:V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,7 +970,7 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
@@ -934,25 +979,25 @@
         <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S1" t="s">
         <v>7</v>
@@ -991,7 +1036,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -1009,46 +1054,46 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="S2">
         <v>2020</v>
       </c>
       <c r="T2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V2">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="W2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="X2" t="str">
         <f>[1]Emisión_Motor!$R2</f>
-        <v>AON001</v>
+        <v>AON021</v>
       </c>
       <c r="Y2" t="str">
         <f>[1]Emisión_Motor!$S2</f>
-        <v>ABC12AON001</v>
+        <v>ABC12AON021</v>
       </c>
       <c r="Z2" t="str">
         <f>[1]Emisión_Motor!$T2</f>
-        <v>ZAZ12AON001</v>
+        <v>ZAZ12AAON021</v>
       </c>
       <c r="AA2" t="s">
         <v>18</v>
@@ -1063,7 +1108,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -1081,46 +1126,46 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="S3">
         <v>2020</v>
       </c>
       <c r="T3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V3">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="W3" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="X3" t="str">
         <f>[1]Emisión_Motor!$R3</f>
-        <v>AON002</v>
+        <v>AON022</v>
       </c>
       <c r="Y3" t="str">
         <f>[1]Emisión_Motor!$S3</f>
-        <v>ABC12AON002</v>
+        <v>ABC12AON022</v>
       </c>
       <c r="Z3" t="str">
         <f>[1]Emisión_Motor!$T3</f>
-        <v>ZAZ12AON002</v>
+        <v>ZAZ12AAON022</v>
       </c>
       <c r="AA3" t="s">
         <v>18</v>
@@ -1135,7 +1180,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -1153,46 +1198,46 @@
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="S4">
         <v>2020</v>
       </c>
       <c r="T4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V4">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="W4" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="X4" t="str">
         <f>[1]Emisión_Motor!$R4</f>
-        <v>AON003</v>
+        <v>AON023</v>
       </c>
       <c r="Y4" t="str">
         <f>[1]Emisión_Motor!$S4</f>
-        <v>ABC12AON003</v>
+        <v>ABC12AON023</v>
       </c>
       <c r="Z4" t="str">
         <f>[1]Emisión_Motor!$T4</f>
-        <v>ZAZ12AON003</v>
+        <v>ZAZ12AAON023</v>
       </c>
       <c r="AA4" t="s">
         <v>18</v>
@@ -1207,7 +1252,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -1225,46 +1270,46 @@
         <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="S5">
         <v>2020</v>
       </c>
       <c r="T5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V5">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="W5" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="X5" t="str">
         <f>[1]Emisión_Motor!$R5</f>
-        <v>AON004</v>
+        <v>AON024</v>
       </c>
       <c r="Y5" t="str">
         <f>[1]Emisión_Motor!$S5</f>
-        <v>ABC12AON004</v>
+        <v>ABC12AON024</v>
       </c>
       <c r="Z5" t="str">
         <f>[1]Emisión_Motor!$T5</f>
-        <v>ZAZ12AON004</v>
+        <v>ZAZ12AAON024</v>
       </c>
       <c r="AA5" t="s">
         <v>18</v>
@@ -1279,7 +1324,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -1297,46 +1342,46 @@
         <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="S6">
         <v>2020</v>
       </c>
       <c r="T6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V6">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="W6" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="X6" t="str">
         <f>[1]Emisión_Motor!$R6</f>
-        <v>AON005</v>
+        <v>AON025</v>
       </c>
       <c r="Y6" t="str">
         <f>[1]Emisión_Motor!$S6</f>
-        <v>ABC12AON005</v>
+        <v>ABC12AON025</v>
       </c>
       <c r="Z6" t="str">
         <f>[1]Emisión_Motor!$T6</f>
-        <v>ZAZ12AON005</v>
+        <v>ZAZ12AAON025</v>
       </c>
       <c r="AA6" t="s">
         <v>18</v>
@@ -1351,7 +1396,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -1369,46 +1414,46 @@
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
         <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="S7">
         <v>2020</v>
       </c>
       <c r="T7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V7">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="W7" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="X7" t="str">
         <f>[1]Emisión_Motor!$R7</f>
-        <v>AON006</v>
+        <v>AON026</v>
       </c>
       <c r="Y7" t="str">
         <f>[1]Emisión_Motor!$S7</f>
-        <v>ABC12AON006</v>
+        <v>ABC12AON026</v>
       </c>
       <c r="Z7" t="str">
         <f>[1]Emisión_Motor!$T7</f>
-        <v>ZAZ12AON006</v>
+        <v>ZAZ12AAON026</v>
       </c>
       <c r="AA7" t="s">
         <v>18</v>
@@ -1423,7 +1468,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -1441,46 +1486,46 @@
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s">
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="S8">
         <v>2020</v>
       </c>
       <c r="T8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V8">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="W8" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="X8" t="str">
         <f>[1]Emisión_Motor!$R8</f>
-        <v>AON007</v>
+        <v>AON027</v>
       </c>
       <c r="Y8" t="str">
         <f>[1]Emisión_Motor!$S8</f>
-        <v>ABC12AON007</v>
+        <v>ABC12AON027</v>
       </c>
       <c r="Z8" t="str">
         <f>[1]Emisión_Motor!$T8</f>
-        <v>ZAZ12AON007</v>
+        <v>ZAZ12AAON027</v>
       </c>
       <c r="AA8" t="s">
         <v>18</v>
@@ -1495,7 +1540,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -1513,46 +1558,46 @@
         <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s">
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="S9">
         <v>2020</v>
       </c>
       <c r="T9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V9">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="W9" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="X9" t="str">
         <f>[1]Emisión_Motor!$R9</f>
-        <v>AON008</v>
+        <v>AON028</v>
       </c>
       <c r="Y9" t="str">
         <f>[1]Emisión_Motor!$S9</f>
-        <v>ABC12AON008</v>
+        <v>ABC12AON028</v>
       </c>
       <c r="Z9" t="str">
         <f>[1]Emisión_Motor!$T9</f>
-        <v>ZAZ12AON008</v>
+        <v>ZAZ12AAON028</v>
       </c>
       <c r="AA9" t="s">
         <v>18</v>
@@ -1567,7 +1612,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
@@ -1585,46 +1630,46 @@
         <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="S10">
         <v>2020</v>
       </c>
       <c r="T10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V10">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="W10" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="X10" t="str">
         <f>[1]Emisión_Motor!$R10</f>
-        <v>AON009</v>
+        <v>AON029</v>
       </c>
       <c r="Y10" t="str">
         <f>[1]Emisión_Motor!$S10</f>
-        <v>ABC12AON009</v>
+        <v>ABC12AON029</v>
       </c>
       <c r="Z10" t="str">
         <f>[1]Emisión_Motor!$T10</f>
-        <v>ZAZ12AON009</v>
+        <v>ZAZ12AAON029</v>
       </c>
       <c r="AA10" t="s">
         <v>18</v>
@@ -1639,7 +1684,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
@@ -1657,46 +1702,46 @@
         <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="S11">
         <v>2020</v>
       </c>
       <c r="T11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V11">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="W11" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="X11" t="str">
         <f>[1]Emisión_Motor!$R11</f>
-        <v>AON010</v>
+        <v>AON030</v>
       </c>
       <c r="Y11" t="str">
         <f>[1]Emisión_Motor!$S11</f>
-        <v>ABC12AON010</v>
+        <v>ABC12AON030</v>
       </c>
       <c r="Z11" t="str">
         <f>[1]Emisión_Motor!$T11</f>
-        <v>ZAZ12AON010</v>
+        <v>ZAZ12AAON030</v>
       </c>
       <c r="AA11" t="s">
         <v>18</v>
@@ -1711,7 +1756,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
@@ -1729,46 +1774,46 @@
         <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s">
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="S12">
         <v>2020</v>
       </c>
       <c r="T12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V12">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="W12" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="X12" t="str">
         <f>[1]Emisión_Motor!$R12</f>
-        <v>AON011</v>
+        <v>AON031</v>
       </c>
       <c r="Y12" t="str">
         <f>[1]Emisión_Motor!$S12</f>
-        <v>ABC12AON011</v>
+        <v>ABC12AON031</v>
       </c>
       <c r="Z12" t="str">
         <f>[1]Emisión_Motor!$T12</f>
-        <v>ZAZ12AON011</v>
+        <v>ZAZ12AAON031</v>
       </c>
       <c r="AA12" t="s">
         <v>18</v>
@@ -1783,7 +1828,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -1801,46 +1846,46 @@
         <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J13" t="s">
         <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="S13">
         <v>2020</v>
       </c>
       <c r="T13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V13">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="W13" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="X13" t="str">
         <f>[1]Emisión_Motor!$R13</f>
-        <v>AON012</v>
+        <v>AON032</v>
       </c>
       <c r="Y13" t="str">
         <f>[1]Emisión_Motor!$S13</f>
-        <v>ABC12AON012</v>
+        <v>ABC12AON032</v>
       </c>
       <c r="Z13" t="str">
         <f>[1]Emisión_Motor!$T13</f>
-        <v>ZAZ12AON012</v>
+        <v>ZAZ12AAON032</v>
       </c>
       <c r="AA13" t="s">
         <v>18</v>
@@ -1855,7 +1900,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -1873,46 +1918,46 @@
         <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="S14">
         <v>2020</v>
       </c>
       <c r="T14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V14">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="W14" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="X14" t="str">
         <f>[1]Emisión_Motor!$R14</f>
-        <v>AON013</v>
+        <v>AON033</v>
       </c>
       <c r="Y14" t="str">
         <f>[1]Emisión_Motor!$S14</f>
-        <v>ABC12AON013</v>
+        <v>ABC12AON033</v>
       </c>
       <c r="Z14" t="str">
         <f>[1]Emisión_Motor!$T14</f>
-        <v>ZAZ12AON013</v>
+        <v>ZAZ12AAON033</v>
       </c>
       <c r="AA14" t="s">
         <v>18</v>
@@ -1927,7 +1972,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
@@ -1945,46 +1990,46 @@
         <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J15" t="s">
         <v>17</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="S15">
         <v>2020</v>
       </c>
       <c r="T15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V15">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="W15" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="X15" t="str">
         <f>[1]Emisión_Motor!$R15</f>
-        <v>AON014</v>
+        <v>AON034</v>
       </c>
       <c r="Y15" t="str">
         <f>[1]Emisión_Motor!$S15</f>
-        <v>ABC12AON014</v>
+        <v>ABC12AON034</v>
       </c>
       <c r="Z15" t="str">
         <f>[1]Emisión_Motor!$T15</f>
-        <v>ZAZ12AON014</v>
+        <v>ZAZ12AAON034</v>
       </c>
       <c r="AA15" t="s">
         <v>18</v>
@@ -1999,7 +2044,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>
@@ -2017,46 +2062,46 @@
         <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J16" t="s">
         <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="S16">
         <v>2020</v>
       </c>
       <c r="T16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V16">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="W16" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="X16" t="str">
         <f>[1]Emisión_Motor!$R16</f>
-        <v>AON015</v>
+        <v>AON035</v>
       </c>
       <c r="Y16" t="str">
         <f>[1]Emisión_Motor!$S16</f>
-        <v>ABC12AON015</v>
+        <v>ABC12AON035</v>
       </c>
       <c r="Z16" t="str">
         <f>[1]Emisión_Motor!$T16</f>
-        <v>ZAZ12AON015</v>
+        <v>ZAZ12AAON035</v>
       </c>
       <c r="AA16" t="s">
         <v>18</v>
@@ -2071,7 +2116,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
@@ -2089,46 +2134,46 @@
         <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s">
         <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="S17">
         <v>2020</v>
       </c>
       <c r="T17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V17">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="W17" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="X17" t="str">
         <f>[1]Emisión_Motor!$R17</f>
-        <v>AON016</v>
+        <v>AON036</v>
       </c>
       <c r="Y17" t="str">
         <f>[1]Emisión_Motor!$S17</f>
-        <v>ABC12AON016</v>
+        <v>ABC12AON036</v>
       </c>
       <c r="Z17" t="str">
         <f>[1]Emisión_Motor!$T17</f>
-        <v>ZAZ12AON016</v>
+        <v>ZAZ12AAON036</v>
       </c>
       <c r="AA17" t="s">
         <v>18</v>
@@ -2143,7 +2188,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
@@ -2161,46 +2206,46 @@
         <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J18" t="s">
         <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="S18">
         <v>2020</v>
       </c>
       <c r="T18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V18">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="W18" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="X18" t="str">
         <f>[1]Emisión_Motor!$R18</f>
-        <v>AON017</v>
+        <v>AON037</v>
       </c>
       <c r="Y18" t="str">
         <f>[1]Emisión_Motor!$S18</f>
-        <v>ABC12AON017</v>
+        <v>ABC12AON037</v>
       </c>
       <c r="Z18" t="str">
         <f>[1]Emisión_Motor!$T18</f>
-        <v>ZAZ12AON017</v>
+        <v>ZAZ12AAON037</v>
       </c>
       <c r="AA18" t="s">
         <v>18</v>
@@ -2215,7 +2260,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
         <v>19</v>
@@ -2233,46 +2278,46 @@
         <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J19" t="s">
         <v>17</v>
       </c>
       <c r="K19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="S19">
         <v>2020</v>
       </c>
       <c r="T19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V19">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="W19" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="X19" t="str">
         <f>[1]Emisión_Motor!$R19</f>
-        <v>AON018</v>
+        <v>AON038</v>
       </c>
       <c r="Y19" t="str">
         <f>[1]Emisión_Motor!$S19</f>
-        <v>ABC12AON018</v>
+        <v>ABC12AON038</v>
       </c>
       <c r="Z19" t="str">
         <f>[1]Emisión_Motor!$T19</f>
-        <v>ZAZ12AON018</v>
+        <v>ZAZ12AAON038</v>
       </c>
       <c r="AA19" t="s">
         <v>18</v>
@@ -2287,7 +2332,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
         <v>19</v>
@@ -2305,46 +2350,46 @@
         <v>16</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s">
         <v>17</v>
       </c>
       <c r="K20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="S20">
         <v>2020</v>
       </c>
       <c r="T20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V20">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="W20" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="X20" t="str">
         <f>[1]Emisión_Motor!$R20</f>
-        <v>AON019</v>
+        <v>AON039</v>
       </c>
       <c r="Y20" t="str">
         <f>[1]Emisión_Motor!$S20</f>
-        <v>ABC12AON019</v>
+        <v>ABC12AON039</v>
       </c>
       <c r="Z20" t="str">
         <f>[1]Emisión_Motor!$T20</f>
-        <v>ZAZ12AON019</v>
+        <v>ZAZ12AAON039</v>
       </c>
       <c r="AA20" t="s">
         <v>18</v>
@@ -2359,7 +2404,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
         <v>19</v>
@@ -2377,46 +2422,46 @@
         <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J21" t="s">
         <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="S21">
         <v>2020</v>
       </c>
       <c r="T21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V21">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="W21" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="X21" t="str">
         <f>[1]Emisión_Motor!$R21</f>
-        <v>AON020</v>
+        <v>AON040</v>
       </c>
       <c r="Y21" t="str">
         <f>[1]Emisión_Motor!$S21</f>
-        <v>ABC12AON020</v>
+        <v>ABC12AON040</v>
       </c>
       <c r="Z21" t="str">
         <f>[1]Emisión_Motor!$T21</f>
-        <v>ZAZ12AON020</v>
+        <v>ZAZ12AAON040</v>
       </c>
       <c r="AA21" t="s">
         <v>18</v>
@@ -2426,20 +2471,21 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>35</v>
+      <c r="B22" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F22">
-        <v>7557632631</v>
+        <v>1785991583</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
@@ -2448,43 +2494,52 @@
         <v>16</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J22" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L22" t="s">
-        <v>25</v>
+        <v>87</v>
+      </c>
+      <c r="M22" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="S22">
         <v>2020</v>
       </c>
       <c r="T22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V22">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="W22" t="s">
         <v>82</v>
       </c>
       <c r="X22" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="Y22" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="Z22" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="AA22" t="s">
         <v>18</v>
@@ -2494,20 +2549,21 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>35</v>
+      <c r="B23" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
         <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F23">
-        <v>7557632631</v>
+        <v>1251282873</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
@@ -2516,52 +2572,49 @@
         <v>16</v>
       </c>
       <c r="I23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J23" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L23" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" t="s">
-        <v>40</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
+      </c>
+      <c r="P23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="S23">
         <v>2020</v>
       </c>
       <c r="T23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V23">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="W23" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="X23" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="Y23" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="Z23" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AA23" t="s">
         <v>18</v>
@@ -2571,20 +2624,21 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>35</v>
+      <c r="B24" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
         <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F24">
-        <v>7557632631</v>
+        <v>7749954078</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
@@ -2593,49 +2647,49 @@
         <v>16</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J24" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L24" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="P24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="S24">
         <v>2020</v>
       </c>
       <c r="T24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V24">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="W24" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="X24" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="Y24" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="Z24" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AA24" t="s">
         <v>18</v>
@@ -2643,19 +2697,19 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F25">
         <v>7557632631</v>
@@ -2667,16 +2721,16 @@
         <v>16</v>
       </c>
       <c r="I25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J25" t="s">
         <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>81</v>
@@ -2685,10 +2739,10 @@
         <v>2020</v>
       </c>
       <c r="T25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V25">
         <v>1000000</v>
@@ -2697,13 +2751,13 @@
         <v>82</v>
       </c>
       <c r="X25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Y25" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="Z25" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AA25" t="s">
         <v>18</v>
@@ -2711,19 +2765,19 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D26" t="s">
         <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F26">
         <v>7557632631</v>
@@ -2735,16 +2789,25 @@
         <v>16</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J26" t="s">
         <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L26" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="M26" t="s">
+        <v>41</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>81</v>
@@ -2753,10 +2816,10 @@
         <v>2020</v>
       </c>
       <c r="T26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V26">
         <v>1000000</v>
@@ -2765,13 +2828,13 @@
         <v>82</v>
       </c>
       <c r="X26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Y26" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="Z26" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s">
         <v>18</v>
@@ -2779,19 +2842,19 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F27">
         <v>7557632631</v>
@@ -2803,16 +2866,22 @@
         <v>16</v>
       </c>
       <c r="I27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J27" t="s">
         <v>17</v>
       </c>
       <c r="K27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L27" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="P27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>81</v>
@@ -2821,10 +2890,10 @@
         <v>2020</v>
       </c>
       <c r="T27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V27">
         <v>1000000</v>
@@ -2833,13 +2902,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Y27" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="AA27" t="s">
         <v>18</v>
@@ -2847,19 +2916,19 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D28" t="s">
         <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F28">
         <v>7557632631</v>
@@ -2871,16 +2940,16 @@
         <v>16</v>
       </c>
       <c r="I28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J28" t="s">
         <v>17</v>
       </c>
       <c r="K28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>81</v>
@@ -2889,10 +2958,10 @@
         <v>2020</v>
       </c>
       <c r="T28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V28">
         <v>1000000</v>
@@ -2901,13 +2970,13 @@
         <v>82</v>
       </c>
       <c r="X28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Y28" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="s">
         <v>18</v>
@@ -2915,19 +2984,19 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D29" t="s">
         <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F29">
         <v>7557632631</v>
@@ -2939,16 +3008,16 @@
         <v>16</v>
       </c>
       <c r="I29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J29" t="s">
         <v>17</v>
       </c>
       <c r="K29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>81</v>
@@ -2957,10 +3026,10 @@
         <v>2020</v>
       </c>
       <c r="T29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V29">
         <v>1000000</v>
@@ -2969,13 +3038,13 @@
         <v>82</v>
       </c>
       <c r="X29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Y29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Z29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AA29" t="s">
         <v>18</v>
@@ -2983,19 +3052,19 @@
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D30" t="s">
         <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F30">
         <v>7557632631</v>
@@ -3007,16 +3076,16 @@
         <v>16</v>
       </c>
       <c r="I30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s">
         <v>17</v>
       </c>
       <c r="K30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R30" s="1" t="s">
         <v>81</v>
@@ -3025,10 +3094,10 @@
         <v>2020</v>
       </c>
       <c r="T30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V30">
         <v>1000000</v>
@@ -3037,13 +3106,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Z30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AA30" t="s">
         <v>18</v>
@@ -3051,19 +3120,19 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F31">
         <v>7557632631</v>
@@ -3075,16 +3144,16 @@
         <v>16</v>
       </c>
       <c r="I31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J31" t="s">
         <v>17</v>
       </c>
       <c r="K31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>81</v>
@@ -3093,10 +3162,10 @@
         <v>2020</v>
       </c>
       <c r="T31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V31">
         <v>1000000</v>
@@ -3105,13 +3174,13 @@
         <v>82</v>
       </c>
       <c r="X31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Y31" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AA31" t="s">
         <v>18</v>
@@ -3119,19 +3188,19 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F32">
         <v>7557632631</v>
@@ -3143,16 +3212,16 @@
         <v>16</v>
       </c>
       <c r="I32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J32" t="s">
         <v>17</v>
       </c>
       <c r="K32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>81</v>
@@ -3161,10 +3230,10 @@
         <v>2020</v>
       </c>
       <c r="T32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V32">
         <v>1000000</v>
@@ -3173,51 +3242,255 @@
         <v>82</v>
       </c>
       <c r="X32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Y32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Z32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AA32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="R33" s="1"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="R34" s="1"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
-      <c r="R35" s="1"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33">
+        <v>7557632631</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" t="s">
+        <v>26</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S33">
+        <v>2020</v>
+      </c>
+      <c r="T33" t="s">
+        <v>38</v>
+      </c>
+      <c r="U33" t="s">
+        <v>39</v>
+      </c>
+      <c r="V33">
+        <v>1000000</v>
+      </c>
+      <c r="W33" t="s">
+        <v>82</v>
+      </c>
+      <c r="X33" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34">
+        <v>7557632631</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" t="s">
+        <v>26</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S34">
+        <v>2020</v>
+      </c>
+      <c r="T34" t="s">
+        <v>38</v>
+      </c>
+      <c r="U34" t="s">
+        <v>39</v>
+      </c>
+      <c r="V34">
+        <v>1000000</v>
+      </c>
+      <c r="W34" t="s">
+        <v>82</v>
+      </c>
+      <c r="X34" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35">
+        <v>7557632631</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" t="s">
+        <v>40</v>
+      </c>
+      <c r="J35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" t="s">
+        <v>26</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S35">
+        <v>2020</v>
+      </c>
+      <c r="T35" t="s">
+        <v>38</v>
+      </c>
+      <c r="U35" t="s">
+        <v>39</v>
+      </c>
+      <c r="V35">
+        <v>1000000</v>
+      </c>
+      <c r="W35" t="s">
+        <v>82</v>
+      </c>
+      <c r="X35" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
       <c r="R37" s="1"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" s="2"/>
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="C39" s="2"/>
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="C40" s="2"/>
+      <c r="R40" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{C73021F9-7358-4A0E-80BE-BDAB1CCB9072}"/>
-    <hyperlink ref="C22" r:id="rId2" xr:uid="{0C8E5FD6-078E-4F26-8574-C24C75780411}"/>
-    <hyperlink ref="C23" r:id="rId3" xr:uid="{235B6DBA-EC42-4794-B876-39E9626BB09E}"/>
-    <hyperlink ref="C24" r:id="rId4" xr:uid="{144CCD30-2AFD-4ADA-8FBA-09D23EF3CC51}"/>
-    <hyperlink ref="C25" r:id="rId5" xr:uid="{38C4BF4C-A4BD-4F7A-A52B-2035BB7F24B8}"/>
+    <hyperlink ref="C25" r:id="rId2" xr:uid="{0C8E5FD6-078E-4F26-8574-C24C75780411}"/>
+    <hyperlink ref="C26" r:id="rId3" xr:uid="{235B6DBA-EC42-4794-B876-39E9626BB09E}"/>
+    <hyperlink ref="C27" r:id="rId4" xr:uid="{144CCD30-2AFD-4ADA-8FBA-09D23EF3CC51}"/>
+    <hyperlink ref="C28" r:id="rId5" xr:uid="{38C4BF4C-A4BD-4F7A-A52B-2035BB7F24B8}"/>
     <hyperlink ref="C3" r:id="rId6" xr:uid="{2B981653-69B8-4E65-8F61-F23171023C69}"/>
     <hyperlink ref="C4" r:id="rId7" xr:uid="{12EB8465-664D-4F53-ACBE-C3B822ACA4C2}"/>
     <hyperlink ref="C5" r:id="rId8" xr:uid="{9C791242-DB13-4101-A9E7-5F0D3D279F1E}"/>
@@ -3237,15 +3510,18 @@
     <hyperlink ref="C19" r:id="rId22" xr:uid="{AA467CDD-0454-4540-98DA-CF1A938CC6CC}"/>
     <hyperlink ref="C20" r:id="rId23" xr:uid="{A2287B7E-7CE7-48C3-AED1-E5C0FBA927A4}"/>
     <hyperlink ref="C21" r:id="rId24" xr:uid="{EFCAB529-D1F7-41AA-9798-B6E8DF0C22D5}"/>
-    <hyperlink ref="C26" r:id="rId25" xr:uid="{9D5969C1-13A4-485A-ACD7-FD0CB525B2A1}"/>
-    <hyperlink ref="C27" r:id="rId26" xr:uid="{A3EEFF11-2223-4835-8752-B6F9C551B641}"/>
-    <hyperlink ref="C28" r:id="rId27" xr:uid="{87F032C5-A205-4C55-B41A-3C0E29A03757}"/>
-    <hyperlink ref="C29" r:id="rId28" xr:uid="{CA9EB07A-76A9-454E-81C7-021ACE195553}"/>
-    <hyperlink ref="C30" r:id="rId29" xr:uid="{22A4EB02-1241-4A6F-AD9D-FDB71C64CAB0}"/>
-    <hyperlink ref="C31" r:id="rId30" xr:uid="{DE2D0F78-D67F-4EF8-A5C0-DDA6F31A0EE4}"/>
-    <hyperlink ref="C32" r:id="rId31" xr:uid="{A3282EFA-FC64-4C22-A3FC-361890D1556F}"/>
+    <hyperlink ref="C29" r:id="rId25" xr:uid="{9D5969C1-13A4-485A-ACD7-FD0CB525B2A1}"/>
+    <hyperlink ref="C30" r:id="rId26" xr:uid="{A3EEFF11-2223-4835-8752-B6F9C551B641}"/>
+    <hyperlink ref="C31" r:id="rId27" xr:uid="{87F032C5-A205-4C55-B41A-3C0E29A03757}"/>
+    <hyperlink ref="C32" r:id="rId28" xr:uid="{CA9EB07A-76A9-454E-81C7-021ACE195553}"/>
+    <hyperlink ref="C33" r:id="rId29" xr:uid="{22A4EB02-1241-4A6F-AD9D-FDB71C64CAB0}"/>
+    <hyperlink ref="C34" r:id="rId30" xr:uid="{DE2D0F78-D67F-4EF8-A5C0-DDA6F31A0EE4}"/>
+    <hyperlink ref="C35" r:id="rId31" xr:uid="{A3282EFA-FC64-4C22-A3FC-361890D1556F}"/>
+    <hyperlink ref="C22" r:id="rId32" xr:uid="{7E671510-FB0D-46EC-872C-3094B648DD96}"/>
+    <hyperlink ref="C23" r:id="rId33" xr:uid="{36C741D7-6E51-4239-8B0A-348CBF1DCC9B}"/>
+    <hyperlink ref="C24" r:id="rId34" xr:uid="{1B63EC53-291D-4B05-AC07-24E55BD69F51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId32"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId35"/>
 </worksheet>
 </file>
--- a/Sura/DataSource - Emision Motor.xlsx
+++ b/Sura/DataSource - Emision Motor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A245DB-FE00-41B5-8E97-C47B09A62555}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE21B70D-364D-4FCC-A3B8-2266F12C13DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="103">
   <si>
     <t>Usuario</t>
   </si>
@@ -182,21 +182,6 @@
     <t>B - Resp. Civil-Robo/Incendio Total Daños Totales por Accidente</t>
   </si>
   <si>
-    <t>CJP001</t>
-  </si>
-  <si>
-    <t>CJP002</t>
-  </si>
-  <si>
-    <t>CJP003</t>
-  </si>
-  <si>
-    <t>CJP004</t>
-  </si>
-  <si>
-    <t>CJP005</t>
-  </si>
-  <si>
     <t>CJP006</t>
   </si>
   <si>
@@ -215,9 +200,6 @@
     <t>CJP011</t>
   </si>
   <si>
-    <t>MOTORCJP001</t>
-  </si>
-  <si>
     <t>MOTORCJP005</t>
   </si>
   <si>
@@ -239,9 +221,6 @@
     <t>MOTORCJP011</t>
   </si>
   <si>
-    <t>CHASISCJP001</t>
-  </si>
-  <si>
     <t>CHASISCJP005</t>
   </si>
   <si>
@@ -263,24 +242,6 @@
     <t>CHASISCJP011</t>
   </si>
   <si>
-    <t>MOTORCJP002</t>
-  </si>
-  <si>
-    <t>MOTORCJP003</t>
-  </si>
-  <si>
-    <t>MOTORCJP004</t>
-  </si>
-  <si>
-    <t>CHASISCJP002</t>
-  </si>
-  <si>
-    <t>CHASISCJP003</t>
-  </si>
-  <si>
-    <t>CHASISCJP004</t>
-  </si>
-  <si>
     <t>17/09/2020</t>
   </si>
   <si>
@@ -330,6 +291,60 @@
   </si>
   <si>
     <t>RPR003</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>SinAsistenciaMecanica</t>
+  </si>
+  <si>
+    <t>05/02/2021</t>
+  </si>
+  <si>
+    <t>Es0km</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>PRU006</t>
+  </si>
+  <si>
+    <t>PRU007</t>
+  </si>
+  <si>
+    <t>MOTORPRU006</t>
+  </si>
+  <si>
+    <t>CHASISPRU006</t>
+  </si>
+  <si>
+    <t>MOTORPRU007</t>
+  </si>
+  <si>
+    <t>CHASISPRU007</t>
+  </si>
+  <si>
+    <t>PRU008</t>
+  </si>
+  <si>
+    <t>PRU009</t>
+  </si>
+  <si>
+    <t>MOTORPRU008</t>
+  </si>
+  <si>
+    <t>MOTORPRU009</t>
+  </si>
+  <si>
+    <t>CHASISPRU008</t>
+  </si>
+  <si>
+    <t>CHASISPRU009</t>
   </si>
 </sst>
 </file>
@@ -915,10 +930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA40"/>
+  <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3:V24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,17 +949,19 @@
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
     <col min="11" max="18" width="21.28515625" customWidth="1"/>
     <col min="19" max="19" width="5.140625" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" customWidth="1"/>
-    <col min="21" max="21" width="18" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" customWidth="1"/>
-    <col min="23" max="23" width="22.42578125" customWidth="1"/>
-    <col min="24" max="24" width="21.85546875" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" customWidth="1"/>
-    <col min="26" max="26" width="17.7109375" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" customWidth="1"/>
+    <col min="20" max="20" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" customWidth="1"/>
+    <col min="24" max="24" width="22.42578125" customWidth="1"/>
+    <col min="25" max="25" width="21.85546875" customWidth="1"/>
+    <col min="26" max="26" width="17.140625" customWidth="1"/>
+    <col min="27" max="27" width="17.7109375" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" customWidth="1"/>
+    <col min="29" max="29" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -1003,31 +1020,37 @@
         <v>7</v>
       </c>
       <c r="T1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" t="s">
         <v>8</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>9</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>10</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>11</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1066,40 +1089,46 @@
         <v>26</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="S2">
         <v>2020</v>
       </c>
       <c r="T2" t="s">
+        <v>89</v>
+      </c>
+      <c r="U2" t="s">
         <v>38</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>39</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1200000</v>
       </c>
-      <c r="W2" t="s">
-        <v>83</v>
-      </c>
-      <c r="X2" t="str">
+      <c r="X2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" t="str">
         <f>[1]Emisión_Motor!$R2</f>
         <v>AON021</v>
       </c>
-      <c r="Y2" t="str">
+      <c r="Z2" t="str">
         <f>[1]Emisión_Motor!$S2</f>
         <v>ABC12AON021</v>
       </c>
-      <c r="Z2" t="str">
+      <c r="AA2" t="str">
         <f>[1]Emisión_Motor!$T2</f>
         <v>ZAZ12AAON021</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1138,40 +1167,46 @@
         <v>26</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="S3">
         <v>2020</v>
       </c>
       <c r="T3" t="s">
+        <v>90</v>
+      </c>
+      <c r="U3" t="s">
         <v>38</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>39</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>1200000</v>
       </c>
-      <c r="W3" t="s">
-        <v>83</v>
-      </c>
-      <c r="X3" t="str">
+      <c r="X3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y3" t="str">
         <f>[1]Emisión_Motor!$R3</f>
         <v>AON022</v>
       </c>
-      <c r="Y3" t="str">
+      <c r="Z3" t="str">
         <f>[1]Emisión_Motor!$S3</f>
         <v>ABC12AON022</v>
       </c>
-      <c r="Z3" t="str">
+      <c r="AA3" t="str">
         <f>[1]Emisión_Motor!$T3</f>
         <v>ZAZ12AAON022</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1210,40 +1245,40 @@
         <v>26</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="S4">
         <v>2020</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>38</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>39</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>1200000</v>
       </c>
-      <c r="W4" t="s">
-        <v>83</v>
-      </c>
-      <c r="X4" t="str">
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="str">
         <f>[1]Emisión_Motor!$R4</f>
         <v>AON023</v>
       </c>
-      <c r="Y4" t="str">
+      <c r="Z4" t="str">
         <f>[1]Emisión_Motor!$S4</f>
         <v>ABC12AON023</v>
       </c>
-      <c r="Z4" t="str">
+      <c r="AA4" t="str">
         <f>[1]Emisión_Motor!$T4</f>
         <v>ZAZ12AAON023</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1282,40 +1317,40 @@
         <v>26</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="S5">
         <v>2020</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>38</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>39</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>1200000</v>
       </c>
-      <c r="W5" t="s">
-        <v>83</v>
-      </c>
-      <c r="X5" t="str">
+      <c r="X5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y5" t="str">
         <f>[1]Emisión_Motor!$R5</f>
         <v>AON024</v>
       </c>
-      <c r="Y5" t="str">
+      <c r="Z5" t="str">
         <f>[1]Emisión_Motor!$S5</f>
         <v>ABC12AON024</v>
       </c>
-      <c r="Z5" t="str">
+      <c r="AA5" t="str">
         <f>[1]Emisión_Motor!$T5</f>
         <v>ZAZ12AAON024</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1354,40 +1389,40 @@
         <v>26</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="S6">
         <v>2020</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>38</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>39</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>1200000</v>
       </c>
-      <c r="W6" t="s">
-        <v>83</v>
-      </c>
-      <c r="X6" t="str">
+      <c r="X6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y6" t="str">
         <f>[1]Emisión_Motor!$R6</f>
         <v>AON025</v>
       </c>
-      <c r="Y6" t="str">
+      <c r="Z6" t="str">
         <f>[1]Emisión_Motor!$S6</f>
         <v>ABC12AON025</v>
       </c>
-      <c r="Z6" t="str">
+      <c r="AA6" t="str">
         <f>[1]Emisión_Motor!$T6</f>
         <v>ZAZ12AAON025</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1426,40 +1461,40 @@
         <v>26</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="S7">
         <v>2020</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>38</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>39</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>1200000</v>
       </c>
-      <c r="W7" t="s">
-        <v>83</v>
-      </c>
-      <c r="X7" t="str">
+      <c r="X7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y7" t="str">
         <f>[1]Emisión_Motor!$R7</f>
         <v>AON026</v>
       </c>
-      <c r="Y7" t="str">
+      <c r="Z7" t="str">
         <f>[1]Emisión_Motor!$S7</f>
         <v>ABC12AON026</v>
       </c>
-      <c r="Z7" t="str">
+      <c r="AA7" t="str">
         <f>[1]Emisión_Motor!$T7</f>
         <v>ZAZ12AAON026</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1498,40 +1533,40 @@
         <v>26</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="S8">
         <v>2020</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>38</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>39</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>1200000</v>
       </c>
-      <c r="W8" t="s">
-        <v>83</v>
-      </c>
-      <c r="X8" t="str">
+      <c r="X8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y8" t="str">
         <f>[1]Emisión_Motor!$R8</f>
         <v>AON027</v>
       </c>
-      <c r="Y8" t="str">
+      <c r="Z8" t="str">
         <f>[1]Emisión_Motor!$S8</f>
         <v>ABC12AON027</v>
       </c>
-      <c r="Z8" t="str">
+      <c r="AA8" t="str">
         <f>[1]Emisión_Motor!$T8</f>
         <v>ZAZ12AAON027</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1570,40 +1605,40 @@
         <v>26</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="S9">
         <v>2020</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>38</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>39</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>1200000</v>
       </c>
-      <c r="W9" t="s">
-        <v>83</v>
-      </c>
-      <c r="X9" t="str">
+      <c r="X9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y9" t="str">
         <f>[1]Emisión_Motor!$R9</f>
         <v>AON028</v>
       </c>
-      <c r="Y9" t="str">
+      <c r="Z9" t="str">
         <f>[1]Emisión_Motor!$S9</f>
         <v>ABC12AON028</v>
       </c>
-      <c r="Z9" t="str">
+      <c r="AA9" t="str">
         <f>[1]Emisión_Motor!$T9</f>
         <v>ZAZ12AAON028</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1642,40 +1677,40 @@
         <v>26</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="S10">
         <v>2020</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>38</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>39</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>1200000</v>
       </c>
-      <c r="W10" t="s">
-        <v>83</v>
-      </c>
-      <c r="X10" t="str">
+      <c r="X10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y10" t="str">
         <f>[1]Emisión_Motor!$R10</f>
         <v>AON029</v>
       </c>
-      <c r="Y10" t="str">
+      <c r="Z10" t="str">
         <f>[1]Emisión_Motor!$S10</f>
         <v>ABC12AON029</v>
       </c>
-      <c r="Z10" t="str">
+      <c r="AA10" t="str">
         <f>[1]Emisión_Motor!$T10</f>
         <v>ZAZ12AAON029</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1714,40 +1749,40 @@
         <v>26</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="S11">
         <v>2020</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>38</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>39</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>1200000</v>
       </c>
-      <c r="W11" t="s">
-        <v>85</v>
-      </c>
-      <c r="X11" t="str">
+      <c r="X11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y11" t="str">
         <f>[1]Emisión_Motor!$R11</f>
         <v>AON030</v>
       </c>
-      <c r="Y11" t="str">
+      <c r="Z11" t="str">
         <f>[1]Emisión_Motor!$S11</f>
         <v>ABC12AON030</v>
       </c>
-      <c r="Z11" t="str">
+      <c r="AA11" t="str">
         <f>[1]Emisión_Motor!$T11</f>
         <v>ZAZ12AAON030</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1786,40 +1821,40 @@
         <v>26</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="S12">
         <v>2020</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>38</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>39</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>1200000</v>
       </c>
-      <c r="W12" t="s">
-        <v>85</v>
-      </c>
-      <c r="X12" t="str">
+      <c r="X12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y12" t="str">
         <f>[1]Emisión_Motor!$R12</f>
         <v>AON031</v>
       </c>
-      <c r="Y12" t="str">
+      <c r="Z12" t="str">
         <f>[1]Emisión_Motor!$S12</f>
         <v>ABC12AON031</v>
       </c>
-      <c r="Z12" t="str">
+      <c r="AA12" t="str">
         <f>[1]Emisión_Motor!$T12</f>
         <v>ZAZ12AAON031</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1858,40 +1893,40 @@
         <v>26</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="S13">
         <v>2020</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>38</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>39</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>1200000</v>
       </c>
-      <c r="W13" t="s">
-        <v>85</v>
-      </c>
-      <c r="X13" t="str">
+      <c r="X13" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y13" t="str">
         <f>[1]Emisión_Motor!$R13</f>
         <v>AON032</v>
       </c>
-      <c r="Y13" t="str">
+      <c r="Z13" t="str">
         <f>[1]Emisión_Motor!$S13</f>
         <v>ABC12AON032</v>
       </c>
-      <c r="Z13" t="str">
+      <c r="AA13" t="str">
         <f>[1]Emisión_Motor!$T13</f>
         <v>ZAZ12AAON032</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1930,40 +1965,40 @@
         <v>26</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="S14">
         <v>2020</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>38</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>39</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>1200000</v>
       </c>
-      <c r="W14" t="s">
-        <v>85</v>
-      </c>
-      <c r="X14" t="str">
+      <c r="X14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y14" t="str">
         <f>[1]Emisión_Motor!$R14</f>
         <v>AON033</v>
       </c>
-      <c r="Y14" t="str">
+      <c r="Z14" t="str">
         <f>[1]Emisión_Motor!$S14</f>
         <v>ABC12AON033</v>
       </c>
-      <c r="Z14" t="str">
+      <c r="AA14" t="str">
         <f>[1]Emisión_Motor!$T14</f>
         <v>ZAZ12AAON033</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2002,40 +2037,40 @@
         <v>26</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="S15">
         <v>2020</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>38</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>39</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>1200000</v>
       </c>
-      <c r="W15" t="s">
-        <v>85</v>
-      </c>
-      <c r="X15" t="str">
+      <c r="X15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y15" t="str">
         <f>[1]Emisión_Motor!$R15</f>
         <v>AON034</v>
       </c>
-      <c r="Y15" t="str">
+      <c r="Z15" t="str">
         <f>[1]Emisión_Motor!$S15</f>
         <v>ABC12AON034</v>
       </c>
-      <c r="Z15" t="str">
+      <c r="AA15" t="str">
         <f>[1]Emisión_Motor!$T15</f>
         <v>ZAZ12AAON034</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2074,40 +2109,40 @@
         <v>26</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="S16">
         <v>2020</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>38</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>39</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>1200000</v>
       </c>
-      <c r="W16" t="s">
-        <v>85</v>
-      </c>
-      <c r="X16" t="str">
+      <c r="X16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y16" t="str">
         <f>[1]Emisión_Motor!$R16</f>
         <v>AON035</v>
       </c>
-      <c r="Y16" t="str">
+      <c r="Z16" t="str">
         <f>[1]Emisión_Motor!$S16</f>
         <v>ABC12AON035</v>
       </c>
-      <c r="Z16" t="str">
+      <c r="AA16" t="str">
         <f>[1]Emisión_Motor!$T16</f>
         <v>ZAZ12AAON035</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2146,40 +2181,40 @@
         <v>26</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="S17">
         <v>2020</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>38</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>39</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>1200000</v>
       </c>
-      <c r="W17" t="s">
-        <v>85</v>
-      </c>
-      <c r="X17" t="str">
+      <c r="X17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y17" t="str">
         <f>[1]Emisión_Motor!$R17</f>
         <v>AON036</v>
       </c>
-      <c r="Y17" t="str">
+      <c r="Z17" t="str">
         <f>[1]Emisión_Motor!$S17</f>
         <v>ABC12AON036</v>
       </c>
-      <c r="Z17" t="str">
+      <c r="AA17" t="str">
         <f>[1]Emisión_Motor!$T17</f>
         <v>ZAZ12AAON036</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2218,40 +2253,40 @@
         <v>26</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="S18">
         <v>2020</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>38</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>39</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>1200000</v>
       </c>
-      <c r="W18" t="s">
-        <v>85</v>
-      </c>
-      <c r="X18" t="str">
+      <c r="X18" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y18" t="str">
         <f>[1]Emisión_Motor!$R18</f>
         <v>AON037</v>
       </c>
-      <c r="Y18" t="str">
+      <c r="Z18" t="str">
         <f>[1]Emisión_Motor!$S18</f>
         <v>ABC12AON037</v>
       </c>
-      <c r="Z18" t="str">
+      <c r="AA18" t="str">
         <f>[1]Emisión_Motor!$T18</f>
         <v>ZAZ12AAON037</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2290,40 +2325,40 @@
         <v>26</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="S19">
         <v>2020</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>38</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>39</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>1200000</v>
       </c>
-      <c r="W19" t="s">
-        <v>85</v>
-      </c>
-      <c r="X19" t="str">
+      <c r="X19" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y19" t="str">
         <f>[1]Emisión_Motor!$R19</f>
         <v>AON038</v>
       </c>
-      <c r="Y19" t="str">
+      <c r="Z19" t="str">
         <f>[1]Emisión_Motor!$S19</f>
         <v>ABC12AON038</v>
       </c>
-      <c r="Z19" t="str">
+      <c r="AA19" t="str">
         <f>[1]Emisión_Motor!$T19</f>
         <v>ZAZ12AAON038</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2362,40 +2397,40 @@
         <v>26</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="S20">
         <v>2020</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>38</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>39</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>1200000</v>
       </c>
-      <c r="W20" t="s">
-        <v>85</v>
-      </c>
-      <c r="X20" t="str">
+      <c r="X20" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y20" t="str">
         <f>[1]Emisión_Motor!$R20</f>
         <v>AON039</v>
       </c>
-      <c r="Y20" t="str">
+      <c r="Z20" t="str">
         <f>[1]Emisión_Motor!$S20</f>
         <v>ABC12AON039</v>
       </c>
-      <c r="Z20" t="str">
+      <c r="AA20" t="str">
         <f>[1]Emisión_Motor!$T20</f>
         <v>ZAZ12AAON039</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2434,40 +2469,40 @@
         <v>26</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="S21">
         <v>2020</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>38</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>39</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>1200000</v>
       </c>
-      <c r="W21" t="s">
-        <v>85</v>
-      </c>
-      <c r="X21" t="str">
+      <c r="X21" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y21" t="str">
         <f>[1]Emisión_Motor!$R21</f>
         <v>AON040</v>
       </c>
-      <c r="Y21" t="str">
+      <c r="Z21" t="str">
         <f>[1]Emisión_Motor!$S21</f>
         <v>ABC12AON040</v>
       </c>
-      <c r="Z21" t="str">
+      <c r="AA21" t="str">
         <f>[1]Emisión_Motor!$T21</f>
         <v>ZAZ12AAON040</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2503,7 +2538,7 @@
         <v>24</v>
       </c>
       <c r="L22" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="M22" t="s">
         <v>41</v>
@@ -2515,37 +2550,37 @@
         <v>43</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="S22">
         <v>2020</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>38</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>39</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>1200000</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y22" t="s">
         <v>82</v>
       </c>
-      <c r="X22" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>89</v>
-      </c>
       <c r="Z22" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2575,13 +2610,13 @@
         <v>40</v>
       </c>
       <c r="J23" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="K23" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="P23" t="s">
         <v>44</v>
@@ -2590,37 +2625,37 @@
         <v>45</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="S23">
         <v>2020</v>
       </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>38</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>39</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>1200000</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>47</v>
       </c>
-      <c r="X23" t="s">
-        <v>96</v>
-      </c>
       <c r="Y23" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="Z23" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2650,13 +2685,13 @@
         <v>40</v>
       </c>
       <c r="J24" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="K24" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="P24" t="s">
         <v>44</v>
@@ -2665,39 +2700,39 @@
         <v>45</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="S24">
         <v>2020</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>38</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>39</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>1200000</v>
       </c>
-      <c r="W24" t="s">
-        <v>88</v>
-      </c>
       <c r="X24" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="Y24" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="Z24" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>36</v>
@@ -2733,39 +2768,45 @@
         <v>26</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="S25">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="T25" t="s">
+        <v>89</v>
+      </c>
+      <c r="U25" t="s">
         <v>38</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>39</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>1000000</v>
       </c>
-      <c r="W25" t="s">
-        <v>82</v>
-      </c>
       <c r="X25" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="Y25" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="Z25" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="AA25" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB25" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>36</v>
@@ -2810,39 +2851,45 @@
         <v>43</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="S26">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="T26" t="s">
+        <v>89</v>
+      </c>
+      <c r="U26" t="s">
         <v>38</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
         <v>39</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>1000000</v>
       </c>
-      <c r="W26" t="s">
-        <v>82</v>
-      </c>
       <c r="X26" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="Y26" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="Z26" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="AA26" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>36</v>
@@ -2884,39 +2931,45 @@
         <v>45</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="S27">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="T27" t="s">
+        <v>90</v>
+      </c>
+      <c r="U27" t="s">
         <v>38</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>39</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>1000000</v>
       </c>
-      <c r="W27" t="s">
-        <v>82</v>
-      </c>
       <c r="X27" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="Y27" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="Z27" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AA27" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB27" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AC27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>36</v>
@@ -2952,39 +3005,42 @@
         <v>26</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="S28">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="T28" t="s">
+        <v>90</v>
+      </c>
+      <c r="U28" t="s">
         <v>38</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>39</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>1000000</v>
       </c>
-      <c r="W28" t="s">
-        <v>82</v>
-      </c>
       <c r="X28" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="Y28" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="Z28" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AA28" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>36</v>
@@ -3020,39 +3076,39 @@
         <v>26</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="S29">
         <v>2020</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>38</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>39</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>1000000</v>
       </c>
-      <c r="W29" t="s">
-        <v>82</v>
-      </c>
       <c r="X29" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="Y29" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="Z29" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="AA29" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>36</v>
@@ -3088,39 +3144,39 @@
         <v>26</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="S30">
         <v>2020</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
         <v>38</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>39</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>1000000</v>
       </c>
-      <c r="W30" t="s">
-        <v>82</v>
-      </c>
       <c r="X30" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="Y30" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="Z30" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="AA30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>36</v>
@@ -3156,39 +3212,39 @@
         <v>26</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="S31">
         <v>2020</v>
       </c>
-      <c r="T31" t="s">
+      <c r="U31" t="s">
         <v>38</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>39</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>1000000</v>
       </c>
-      <c r="W31" t="s">
-        <v>82</v>
-      </c>
       <c r="X31" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="Y31" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="Z31" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="AA31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>36</v>
@@ -3224,39 +3280,39 @@
         <v>26</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="S32">
         <v>2020</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
         <v>38</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>39</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>1000000</v>
       </c>
-      <c r="W32" t="s">
-        <v>82</v>
-      </c>
       <c r="X32" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="Y32" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="Z32" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="AA32" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>36</v>
@@ -3292,39 +3348,39 @@
         <v>26</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="S33">
         <v>2020</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>38</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>39</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>1000000</v>
       </c>
-      <c r="W33" t="s">
-        <v>82</v>
-      </c>
       <c r="X33" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="Y33" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="Z33" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="AA33" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>36</v>
@@ -3360,39 +3416,39 @@
         <v>26</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="S34">
         <v>2020</v>
       </c>
-      <c r="T34" t="s">
+      <c r="U34" t="s">
         <v>38</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>39</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>1000000</v>
       </c>
-      <c r="W34" t="s">
-        <v>82</v>
-      </c>
       <c r="X34" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="Y34" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="Z34" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AA34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>36</v>
@@ -3428,57 +3484,57 @@
         <v>26</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="S35">
         <v>2020</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
         <v>38</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>39</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>1000000</v>
       </c>
-      <c r="W35" t="s">
-        <v>82</v>
-      </c>
       <c r="X35" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Y35" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="Z35" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="AA35" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
       <c r="R40" s="1"/>

--- a/Sura/DataSource - Emision Motor.xlsx
+++ b/Sura/DataSource - Emision Motor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE21B70D-364D-4FCC-A3B8-2266F12C13DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0719CED8-E40C-4C7D-AE85-25739BE2AEAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="373">
   <si>
     <t>Usuario</t>
   </si>
@@ -107,18 +107,9 @@
     <t>silverarrow</t>
   </si>
   <si>
-    <t>Tarjeta de Crédito</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>CantCuotas</t>
   </si>
   <si>
-    <t>3 Cuotas - ARS</t>
-  </si>
-  <si>
     <t>TipoPlazo</t>
   </si>
   <si>
@@ -143,24 +134,12 @@
     <t>NumCBU</t>
   </si>
   <si>
-    <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
-  </si>
-  <si>
-    <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
-  </si>
-  <si>
-    <t>gw</t>
-  </si>
-  <si>
     <t>CHEVROLET</t>
   </si>
   <si>
     <t>ONIX 1.2 L/19</t>
   </si>
   <si>
-    <t>Anual</t>
-  </si>
-  <si>
     <t>Naranja</t>
   </si>
   <si>
@@ -179,172 +158,1003 @@
     <t>ID</t>
   </si>
   <si>
-    <t>B - Resp. Civil-Robo/Incendio Total Daños Totales por Accidente</t>
-  </si>
-  <si>
-    <t>CJP006</t>
-  </si>
-  <si>
-    <t>CJP007</t>
-  </si>
-  <si>
-    <t>CJP008</t>
-  </si>
-  <si>
-    <t>CJP009</t>
-  </si>
-  <si>
-    <t>CJP010</t>
-  </si>
-  <si>
-    <t>CJP011</t>
-  </si>
-  <si>
-    <t>MOTORCJP005</t>
-  </si>
-  <si>
-    <t>MOTORCJP006</t>
-  </si>
-  <si>
-    <t>MOTORCJP007</t>
-  </si>
-  <si>
-    <t>MOTORCJP008</t>
-  </si>
-  <si>
-    <t>MOTORCJP009</t>
-  </si>
-  <si>
-    <t>MOTORCJP010</t>
-  </si>
-  <si>
-    <t>MOTORCJP011</t>
-  </si>
-  <si>
-    <t>CHASISCJP005</t>
-  </si>
-  <si>
-    <t>CHASISCJP006</t>
-  </si>
-  <si>
-    <t>CHASISCJP007</t>
-  </si>
-  <si>
-    <t>CHASISCJP008</t>
-  </si>
-  <si>
-    <t>CHASISCJP009</t>
-  </si>
-  <si>
-    <t>CHASISCJP010</t>
-  </si>
-  <si>
-    <t>CHASISCJP011</t>
-  </si>
-  <si>
-    <t>17/09/2020</t>
-  </si>
-  <si>
-    <t>A - Responsabilidad Civil Unicamente</t>
-  </si>
-  <si>
     <t>CPremium - Resp. Civil-Robo/Incendio Total y Parcial Daños Totales por Accidente</t>
   </si>
   <si>
-    <t>03/02/2021</t>
-  </si>
-  <si>
-    <t>TR - Todo Riesgo Franquicia Fija</t>
-  </si>
-  <si>
-    <t>Débito Bancario</t>
-  </si>
-  <si>
-    <t>6 Cuotas - ARS</t>
-  </si>
-  <si>
-    <t>C Atp - Resp. Civil-Robo/Incendio Total y Parcial Daños Totales por Accidente</t>
-  </si>
-  <si>
-    <t>MOTORREGRE001</t>
-  </si>
-  <si>
-    <t>MOTORREGRE002</t>
-  </si>
-  <si>
-    <t>MOTORREGRE003</t>
-  </si>
-  <si>
-    <t>CHASISREGRE001</t>
-  </si>
-  <si>
-    <t>CHASISREGRE002</t>
-  </si>
-  <si>
-    <t>CHASISREGRE003</t>
-  </si>
-  <si>
-    <t>RPR001</t>
-  </si>
-  <si>
-    <t>RPR002</t>
-  </si>
-  <si>
-    <t>RPR003</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>SinAsistenciaMecanica</t>
   </si>
   <si>
-    <t>05/02/2021</t>
-  </si>
-  <si>
     <t>Es0km</t>
   </si>
   <si>
     <t>si</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>PRU006</t>
-  </si>
-  <si>
-    <t>PRU007</t>
-  </si>
-  <si>
-    <t>MOTORPRU006</t>
-  </si>
-  <si>
-    <t>CHASISPRU006</t>
-  </si>
-  <si>
-    <t>MOTORPRU007</t>
-  </si>
-  <si>
-    <t>CHASISPRU007</t>
-  </si>
-  <si>
-    <t>PRU008</t>
-  </si>
-  <si>
-    <t>PRU009</t>
-  </si>
-  <si>
-    <t>MOTORPRU008</t>
-  </si>
-  <si>
-    <t>MOTORPRU009</t>
-  </si>
-  <si>
-    <t>CHASISPRU008</t>
-  </si>
-  <si>
-    <t>CHASISPRU009</t>
+    <t>3 meses</t>
+  </si>
+  <si>
+    <t>1 Mes</t>
+  </si>
+  <si>
+    <t>02/12/2020</t>
+  </si>
+  <si>
+    <t>03/12/2020</t>
+  </si>
+  <si>
+    <t>04/12/2020</t>
+  </si>
+  <si>
+    <t>27/01/2021</t>
+  </si>
+  <si>
+    <t>28/01/2021</t>
+  </si>
+  <si>
+    <t>01/02/2021</t>
+  </si>
+  <si>
+    <t>02/02/2021</t>
+  </si>
+  <si>
+    <t>4 Meses</t>
+  </si>
+  <si>
+    <t>05/11/2020</t>
+  </si>
+  <si>
+    <t>06/11/2020</t>
+  </si>
+  <si>
+    <t>07/11/2020</t>
+  </si>
+  <si>
+    <t>6 Messes</t>
+  </si>
+  <si>
+    <t>07/09/2020</t>
+  </si>
+  <si>
+    <t>08/09/2020</t>
+  </si>
+  <si>
+    <t>09/09/2020</t>
+  </si>
+  <si>
+    <t>3 Meses</t>
+  </si>
+  <si>
+    <t>17/01/2021</t>
+  </si>
+  <si>
+    <t>18/12/2020</t>
+  </si>
+  <si>
+    <t>18/11/2020</t>
+  </si>
+  <si>
+    <t>18/09/2020</t>
+  </si>
+  <si>
+    <t>RFA035</t>
+  </si>
+  <si>
+    <t>ABC12SRFA035</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA035</t>
+  </si>
+  <si>
+    <t>RFA036</t>
+  </si>
+  <si>
+    <t>RFA037</t>
+  </si>
+  <si>
+    <t>RFA038</t>
+  </si>
+  <si>
+    <t>RFA039</t>
+  </si>
+  <si>
+    <t>RFA040</t>
+  </si>
+  <si>
+    <t>RFA041</t>
+  </si>
+  <si>
+    <t>RFA042</t>
+  </si>
+  <si>
+    <t>RFA043</t>
+  </si>
+  <si>
+    <t>RFA044</t>
+  </si>
+  <si>
+    <t>RFA045</t>
+  </si>
+  <si>
+    <t>RFA046</t>
+  </si>
+  <si>
+    <t>RFA047</t>
+  </si>
+  <si>
+    <t>RFA048</t>
+  </si>
+  <si>
+    <t>RFA049</t>
+  </si>
+  <si>
+    <t>RFA050</t>
+  </si>
+  <si>
+    <t>RFA051</t>
+  </si>
+  <si>
+    <t>RFA052</t>
+  </si>
+  <si>
+    <t>RFA053</t>
+  </si>
+  <si>
+    <t>RFA054</t>
+  </si>
+  <si>
+    <t>RFA055</t>
+  </si>
+  <si>
+    <t>RFA056</t>
+  </si>
+  <si>
+    <t>RFA057</t>
+  </si>
+  <si>
+    <t>RFA058</t>
+  </si>
+  <si>
+    <t>RFA059</t>
+  </si>
+  <si>
+    <t>RFA060</t>
+  </si>
+  <si>
+    <t>RFA061</t>
+  </si>
+  <si>
+    <t>RFA062</t>
+  </si>
+  <si>
+    <t>RFA063</t>
+  </si>
+  <si>
+    <t>RFA064</t>
+  </si>
+  <si>
+    <t>RFA065</t>
+  </si>
+  <si>
+    <t>RFA066</t>
+  </si>
+  <si>
+    <t>RFA067</t>
+  </si>
+  <si>
+    <t>RFA068</t>
+  </si>
+  <si>
+    <t>ABC12SRFA036</t>
+  </si>
+  <si>
+    <t>ABC12SRFA037</t>
+  </si>
+  <si>
+    <t>ABC12SRFA038</t>
+  </si>
+  <si>
+    <t>ABC12SRFA039</t>
+  </si>
+  <si>
+    <t>ABC12SRFA040</t>
+  </si>
+  <si>
+    <t>ABC12SRFA041</t>
+  </si>
+  <si>
+    <t>ABC12SRFA042</t>
+  </si>
+  <si>
+    <t>ABC12SRFA043</t>
+  </si>
+  <si>
+    <t>ABC12SRFA044</t>
+  </si>
+  <si>
+    <t>ABC12SRFA045</t>
+  </si>
+  <si>
+    <t>ABC12SRFA046</t>
+  </si>
+  <si>
+    <t>ABC12SRFA047</t>
+  </si>
+  <si>
+    <t>ABC12SRFA048</t>
+  </si>
+  <si>
+    <t>ABC12SRFA049</t>
+  </si>
+  <si>
+    <t>ABC12SRFA050</t>
+  </si>
+  <si>
+    <t>ABC12SRFA051</t>
+  </si>
+  <si>
+    <t>ABC12SRFA052</t>
+  </si>
+  <si>
+    <t>ABC12SRFA053</t>
+  </si>
+  <si>
+    <t>ABC12SRFA054</t>
+  </si>
+  <si>
+    <t>ABC12SRFA055</t>
+  </si>
+  <si>
+    <t>ABC12SRFA056</t>
+  </si>
+  <si>
+    <t>ABC12SRFA057</t>
+  </si>
+  <si>
+    <t>ABC12SRFA058</t>
+  </si>
+  <si>
+    <t>ABC12SRFA059</t>
+  </si>
+  <si>
+    <t>ABC12SRFA060</t>
+  </si>
+  <si>
+    <t>ABC12SRFA061</t>
+  </si>
+  <si>
+    <t>ABC12SRFA062</t>
+  </si>
+  <si>
+    <t>ABC12SRFA063</t>
+  </si>
+  <si>
+    <t>ABC12SRFA064</t>
+  </si>
+  <si>
+    <t>ABC12SRFA065</t>
+  </si>
+  <si>
+    <t>ABC12SRFA066</t>
+  </si>
+  <si>
+    <t>ABC12SRFA067</t>
+  </si>
+  <si>
+    <t>ABC12SRFA068</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA036</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA037</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA038</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA039</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA040</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA041</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA042</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA043</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA044</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA045</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA046</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA047</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA048</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA049</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA050</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA051</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA052</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA053</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA054</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA055</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA056</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA057</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA058</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA059</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA060</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA061</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA062</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA063</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA064</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA065</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA066</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA067</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA068</t>
+  </si>
+  <si>
+    <t>RFA069</t>
+  </si>
+  <si>
+    <t>RFA070</t>
+  </si>
+  <si>
+    <t>RFA071</t>
+  </si>
+  <si>
+    <t>RFA072</t>
+  </si>
+  <si>
+    <t>RFA073</t>
+  </si>
+  <si>
+    <t>RFA074</t>
+  </si>
+  <si>
+    <t>RFA075</t>
+  </si>
+  <si>
+    <t>RFA076</t>
+  </si>
+  <si>
+    <t>RFA077</t>
+  </si>
+  <si>
+    <t>RFA078</t>
+  </si>
+  <si>
+    <t>RFA079</t>
+  </si>
+  <si>
+    <t>RFA080</t>
+  </si>
+  <si>
+    <t>RFA081</t>
+  </si>
+  <si>
+    <t>RFA082</t>
+  </si>
+  <si>
+    <t>RFA083</t>
+  </si>
+  <si>
+    <t>RFA084</t>
+  </si>
+  <si>
+    <t>RFA085</t>
+  </si>
+  <si>
+    <t>RFA086</t>
+  </si>
+  <si>
+    <t>RFA087</t>
+  </si>
+  <si>
+    <t>RFA088</t>
+  </si>
+  <si>
+    <t>RFA089</t>
+  </si>
+  <si>
+    <t>RFA090</t>
+  </si>
+  <si>
+    <t>RFA091</t>
+  </si>
+  <si>
+    <t>RFA092</t>
+  </si>
+  <si>
+    <t>RFA093</t>
+  </si>
+  <si>
+    <t>RFA094</t>
+  </si>
+  <si>
+    <t>RFA095</t>
+  </si>
+  <si>
+    <t>RFA096</t>
+  </si>
+  <si>
+    <t>RFA097</t>
+  </si>
+  <si>
+    <t>RFA098</t>
+  </si>
+  <si>
+    <t>RFA099</t>
+  </si>
+  <si>
+    <t>RFA100</t>
+  </si>
+  <si>
+    <t>RFA101</t>
+  </si>
+  <si>
+    <t>RFA102</t>
+  </si>
+  <si>
+    <t>ABC12SRFA069</t>
+  </si>
+  <si>
+    <t>ABC12SRFA070</t>
+  </si>
+  <si>
+    <t>ABC12SRFA071</t>
+  </si>
+  <si>
+    <t>ABC12SRFA072</t>
+  </si>
+  <si>
+    <t>ABC12SRFA073</t>
+  </si>
+  <si>
+    <t>ABC12SRFA074</t>
+  </si>
+  <si>
+    <t>ABC12SRFA075</t>
+  </si>
+  <si>
+    <t>ABC12SRFA076</t>
+  </si>
+  <si>
+    <t>ABC12SRFA077</t>
+  </si>
+  <si>
+    <t>ABC12SRFA078</t>
+  </si>
+  <si>
+    <t>ABC12SRFA079</t>
+  </si>
+  <si>
+    <t>ABC12SRFA080</t>
+  </si>
+  <si>
+    <t>ABC12SRFA081</t>
+  </si>
+  <si>
+    <t>ABC12SRFA082</t>
+  </si>
+  <si>
+    <t>ABC12SRFA083</t>
+  </si>
+  <si>
+    <t>ABC12SRFA084</t>
+  </si>
+  <si>
+    <t>ABC12SRFA085</t>
+  </si>
+  <si>
+    <t>ABC12SRFA086</t>
+  </si>
+  <si>
+    <t>ABC12SRFA087</t>
+  </si>
+  <si>
+    <t>ABC12SRFA088</t>
+  </si>
+  <si>
+    <t>ABC12SRFA089</t>
+  </si>
+  <si>
+    <t>ABC12SRFA090</t>
+  </si>
+  <si>
+    <t>ABC12SRFA091</t>
+  </si>
+  <si>
+    <t>ABC12SRFA092</t>
+  </si>
+  <si>
+    <t>ABC12SRFA093</t>
+  </si>
+  <si>
+    <t>ABC12SRFA094</t>
+  </si>
+  <si>
+    <t>ABC12SRFA095</t>
+  </si>
+  <si>
+    <t>ABC12SRFA096</t>
+  </si>
+  <si>
+    <t>ABC12SRFA097</t>
+  </si>
+  <si>
+    <t>ABC12SRFA098</t>
+  </si>
+  <si>
+    <t>ABC12SRFA099</t>
+  </si>
+  <si>
+    <t>ABC12SRFA100</t>
+  </si>
+  <si>
+    <t>ABC12SRFA101</t>
+  </si>
+  <si>
+    <t>ABC12SRFA102</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA069</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA070</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA071</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA072</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA073</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA074</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA075</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA076</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA077</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA078</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA079</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA080</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA081</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA082</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA083</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA084</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA085</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA086</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA087</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA088</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA089</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA090</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA091</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA092</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA093</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA094</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA095</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA096</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA097</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA098</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA099</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA100</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA101</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA102</t>
+  </si>
+  <si>
+    <t>RFA103</t>
+  </si>
+  <si>
+    <t>RFA104</t>
+  </si>
+  <si>
+    <t>RFA105</t>
+  </si>
+  <si>
+    <t>RFA106</t>
+  </si>
+  <si>
+    <t>RFA107</t>
+  </si>
+  <si>
+    <t>RFA108</t>
+  </si>
+  <si>
+    <t>RFA109</t>
+  </si>
+  <si>
+    <t>RFA110</t>
+  </si>
+  <si>
+    <t>RFA111</t>
+  </si>
+  <si>
+    <t>RFA112</t>
+  </si>
+  <si>
+    <t>RFA113</t>
+  </si>
+  <si>
+    <t>RFA114</t>
+  </si>
+  <si>
+    <t>RFA115</t>
+  </si>
+  <si>
+    <t>RFA116</t>
+  </si>
+  <si>
+    <t>RFA117</t>
+  </si>
+  <si>
+    <t>RFA118</t>
+  </si>
+  <si>
+    <t>RFA119</t>
+  </si>
+  <si>
+    <t>RFA120</t>
+  </si>
+  <si>
+    <t>RFA121</t>
+  </si>
+  <si>
+    <t>RFA122</t>
+  </si>
+  <si>
+    <t>RFA123</t>
+  </si>
+  <si>
+    <t>RFA124</t>
+  </si>
+  <si>
+    <t>RFA125</t>
+  </si>
+  <si>
+    <t>RFA126</t>
+  </si>
+  <si>
+    <t>RFA127</t>
+  </si>
+  <si>
+    <t>RFA128</t>
+  </si>
+  <si>
+    <t>RFA129</t>
+  </si>
+  <si>
+    <t>RFA130</t>
+  </si>
+  <si>
+    <t>RFA131</t>
+  </si>
+  <si>
+    <t>RFA132</t>
+  </si>
+  <si>
+    <t>RFA133</t>
+  </si>
+  <si>
+    <t>RFA134</t>
+  </si>
+  <si>
+    <t>RFA135</t>
+  </si>
+  <si>
+    <t>RFA136</t>
+  </si>
+  <si>
+    <t>ABC12SRFA103</t>
+  </si>
+  <si>
+    <t>ABC12SRFA104</t>
+  </si>
+  <si>
+    <t>ABC12SRFA105</t>
+  </si>
+  <si>
+    <t>ABC12SRFA106</t>
+  </si>
+  <si>
+    <t>ABC12SRFA107</t>
+  </si>
+  <si>
+    <t>ABC12SRFA108</t>
+  </si>
+  <si>
+    <t>ABC12SRFA109</t>
+  </si>
+  <si>
+    <t>ABC12SRFA110</t>
+  </si>
+  <si>
+    <t>ABC12SRFA111</t>
+  </si>
+  <si>
+    <t>ABC12SRFA112</t>
+  </si>
+  <si>
+    <t>ABC12SRFA113</t>
+  </si>
+  <si>
+    <t>ABC12SRFA114</t>
+  </si>
+  <si>
+    <t>ABC12SRFA115</t>
+  </si>
+  <si>
+    <t>ABC12SRFA116</t>
+  </si>
+  <si>
+    <t>ABC12SRFA117</t>
+  </si>
+  <si>
+    <t>ABC12SRFA118</t>
+  </si>
+  <si>
+    <t>ABC12SRFA119</t>
+  </si>
+  <si>
+    <t>ABC12SRFA120</t>
+  </si>
+  <si>
+    <t>ABC12SRFA121</t>
+  </si>
+  <si>
+    <t>ABC12SRFA122</t>
+  </si>
+  <si>
+    <t>ABC12SRFA123</t>
+  </si>
+  <si>
+    <t>ABC12SRFA124</t>
+  </si>
+  <si>
+    <t>ABC12SRFA125</t>
+  </si>
+  <si>
+    <t>ABC12SRFA126</t>
+  </si>
+  <si>
+    <t>ABC12SRFA127</t>
+  </si>
+  <si>
+    <t>ABC12SRFA128</t>
+  </si>
+  <si>
+    <t>ABC12SRFA129</t>
+  </si>
+  <si>
+    <t>ABC12SRFA130</t>
+  </si>
+  <si>
+    <t>ABC12SRFA131</t>
+  </si>
+  <si>
+    <t>ABC12SRFA132</t>
+  </si>
+  <si>
+    <t>ABC12SRFA133</t>
+  </si>
+  <si>
+    <t>ABC12SRFA134</t>
+  </si>
+  <si>
+    <t>ABC12SRFA135</t>
+  </si>
+  <si>
+    <t>ABC12SRFA136</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA103</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA104</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA105</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA106</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA107</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA108</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA109</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA110</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA111</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA112</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA113</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA114</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA115</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA116</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA117</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA118</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA119</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA120</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA121</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA122</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA123</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA124</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA125</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA126</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA127</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA128</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA129</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA130</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA131</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA132</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA133</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA134</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA135</t>
+  </si>
+  <si>
+    <t>ZAZ123SRFA136</t>
   </si>
 </sst>
 </file>
@@ -401,11 +1211,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -438,224 +1249,6 @@
         <row r="2">
           <cell r="A2" t="str">
             <v>i-preproducciongestion.segurossura.com.ar</v>
-          </cell>
-          <cell r="R2" t="str">
-            <v>AON021</v>
-          </cell>
-          <cell r="S2" t="str">
-            <v>ABC12AON021</v>
-          </cell>
-          <cell r="T2" t="str">
-            <v>ZAZ12AAON021</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="R3" t="str">
-            <v>AON022</v>
-          </cell>
-          <cell r="S3" t="str">
-            <v>ABC12AON022</v>
-          </cell>
-          <cell r="T3" t="str">
-            <v>ZAZ12AAON022</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="R4" t="str">
-            <v>AON023</v>
-          </cell>
-          <cell r="S4" t="str">
-            <v>ABC12AON023</v>
-          </cell>
-          <cell r="T4" t="str">
-            <v>ZAZ12AAON023</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="R5" t="str">
-            <v>AON024</v>
-          </cell>
-          <cell r="S5" t="str">
-            <v>ABC12AON024</v>
-          </cell>
-          <cell r="T5" t="str">
-            <v>ZAZ12AAON024</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="R6" t="str">
-            <v>AON025</v>
-          </cell>
-          <cell r="S6" t="str">
-            <v>ABC12AON025</v>
-          </cell>
-          <cell r="T6" t="str">
-            <v>ZAZ12AAON025</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="R7" t="str">
-            <v>AON026</v>
-          </cell>
-          <cell r="S7" t="str">
-            <v>ABC12AON026</v>
-          </cell>
-          <cell r="T7" t="str">
-            <v>ZAZ12AAON026</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="R8" t="str">
-            <v>AON027</v>
-          </cell>
-          <cell r="S8" t="str">
-            <v>ABC12AON027</v>
-          </cell>
-          <cell r="T8" t="str">
-            <v>ZAZ12AAON027</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="R9" t="str">
-            <v>AON028</v>
-          </cell>
-          <cell r="S9" t="str">
-            <v>ABC12AON028</v>
-          </cell>
-          <cell r="T9" t="str">
-            <v>ZAZ12AAON028</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="R10" t="str">
-            <v>AON029</v>
-          </cell>
-          <cell r="S10" t="str">
-            <v>ABC12AON029</v>
-          </cell>
-          <cell r="T10" t="str">
-            <v>ZAZ12AAON029</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="R11" t="str">
-            <v>AON030</v>
-          </cell>
-          <cell r="S11" t="str">
-            <v>ABC12AON030</v>
-          </cell>
-          <cell r="T11" t="str">
-            <v>ZAZ12AAON030</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="R12" t="str">
-            <v>AON031</v>
-          </cell>
-          <cell r="S12" t="str">
-            <v>ABC12AON031</v>
-          </cell>
-          <cell r="T12" t="str">
-            <v>ZAZ12AAON031</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="R13" t="str">
-            <v>AON032</v>
-          </cell>
-          <cell r="S13" t="str">
-            <v>ABC12AON032</v>
-          </cell>
-          <cell r="T13" t="str">
-            <v>ZAZ12AAON032</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="R14" t="str">
-            <v>AON033</v>
-          </cell>
-          <cell r="S14" t="str">
-            <v>ABC12AON033</v>
-          </cell>
-          <cell r="T14" t="str">
-            <v>ZAZ12AAON033</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="R15" t="str">
-            <v>AON034</v>
-          </cell>
-          <cell r="S15" t="str">
-            <v>ABC12AON034</v>
-          </cell>
-          <cell r="T15" t="str">
-            <v>ZAZ12AAON034</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="R16" t="str">
-            <v>AON035</v>
-          </cell>
-          <cell r="S16" t="str">
-            <v>ABC12AON035</v>
-          </cell>
-          <cell r="T16" t="str">
-            <v>ZAZ12AAON035</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="R17" t="str">
-            <v>AON036</v>
-          </cell>
-          <cell r="S17" t="str">
-            <v>ABC12AON036</v>
-          </cell>
-          <cell r="T17" t="str">
-            <v>ZAZ12AAON036</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="R18" t="str">
-            <v>AON037</v>
-          </cell>
-          <cell r="S18" t="str">
-            <v>ABC12AON037</v>
-          </cell>
-          <cell r="T18" t="str">
-            <v>ZAZ12AAON037</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="R19" t="str">
-            <v>AON038</v>
-          </cell>
-          <cell r="S19" t="str">
-            <v>ABC12AON038</v>
-          </cell>
-          <cell r="T19" t="str">
-            <v>ZAZ12AAON038</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="R20" t="str">
-            <v>AON039</v>
-          </cell>
-          <cell r="S20" t="str">
-            <v>ABC12AON039</v>
-          </cell>
-          <cell r="T20" t="str">
-            <v>ZAZ12AAON039</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="R21" t="str">
-            <v>AON040</v>
-          </cell>
-          <cell r="S21" t="str">
-            <v>ABC12AON040</v>
-          </cell>
-          <cell r="T21" t="str">
-            <v>ZAZ12AAON040</v>
           </cell>
         </row>
       </sheetData>
@@ -930,15 +1523,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC40"/>
+  <dimension ref="A1:AC103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3:W103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" customWidth="1"/>
@@ -946,8 +1539,9 @@
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="9" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="18" width="21.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="18" width="21.28515625" customWidth="1"/>
     <col min="19" max="19" width="5.140625" customWidth="1"/>
     <col min="20" max="20" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.140625" customWidth="1"/>
@@ -963,7 +1557,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>21</v>
@@ -987,40 +1581,40 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>31</v>
-      </c>
-      <c r="O1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" t="s">
-        <v>28</v>
       </c>
       <c r="S1" t="s">
         <v>7</v>
       </c>
       <c r="T1" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="U1" t="s">
         <v>8</v>
@@ -1047,7 +1641,7 @@
         <v>15</v>
       </c>
       <c r="AC1" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -1059,7 +1653,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -1068,7 +1662,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="3">
-        <v>7906612002</v>
+        <v>5712176326</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -1077,55 +1671,49 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="S2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="T2" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="U2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W2">
-        <v>1200000</v>
+        <v>1250000</v>
       </c>
       <c r="X2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y2" t="str">
-        <f>[1]Emisión_Motor!$R2</f>
-        <v>AON021</v>
-      </c>
-      <c r="Z2" t="str">
-        <f>[1]Emisión_Motor!$S2</f>
-        <v>ABC12AON021</v>
-      </c>
-      <c r="AA2" t="str">
-        <f>[1]Emisión_Motor!$T2</f>
-        <v>ZAZ12AAON021</v>
+        <v>40</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>69</v>
       </c>
       <c r="AB2" t="s">
         <v>18</v>
       </c>
       <c r="AC2" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -1137,7 +1725,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -1146,7 +1734,7 @@
         <v>22</v>
       </c>
       <c r="F3" s="3">
-        <v>7906612002</v>
+        <v>5712176326</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -1155,55 +1743,49 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="S3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="T3" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="U3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W3">
-        <v>1200000</v>
+        <v>1250000</v>
       </c>
       <c r="X3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" t="s">
         <v>70</v>
       </c>
-      <c r="Y3" t="str">
-        <f>[1]Emisión_Motor!$R3</f>
-        <v>AON022</v>
-      </c>
-      <c r="Z3" t="str">
-        <f>[1]Emisión_Motor!$S3</f>
-        <v>ABC12AON022</v>
-      </c>
-      <c r="AA3" t="str">
-        <f>[1]Emisión_Motor!$T3</f>
-        <v>ZAZ12AAON022</v>
+      <c r="Z3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>136</v>
       </c>
       <c r="AB3" t="s">
         <v>18</v>
       </c>
       <c r="AC3" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -1215,7 +1797,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -1224,7 +1806,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="3">
-        <v>7906612002</v>
+        <v>5712176326</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -1233,49 +1815,49 @@
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4">
+        <v>2021</v>
+      </c>
+      <c r="T4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4">
+        <v>1250000</v>
+      </c>
+      <c r="X4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" t="s">
         <v>71</v>
       </c>
-      <c r="S4">
-        <v>2020</v>
-      </c>
-      <c r="U4" t="s">
-        <v>38</v>
-      </c>
-      <c r="V4" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4">
-        <v>1200000</v>
-      </c>
-      <c r="X4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y4" t="str">
-        <f>[1]Emisión_Motor!$R4</f>
-        <v>AON023</v>
-      </c>
-      <c r="Z4" t="str">
-        <f>[1]Emisión_Motor!$S4</f>
-        <v>ABC12AON023</v>
-      </c>
-      <c r="AA4" t="str">
-        <f>[1]Emisión_Motor!$T4</f>
-        <v>ZAZ12AAON023</v>
+      <c r="Z4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>137</v>
       </c>
       <c r="AB4" t="s">
         <v>18</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -1287,7 +1869,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -1296,7 +1878,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="3">
-        <v>7906612002</v>
+        <v>5712176326</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -1305,49 +1887,49 @@
         <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="S5">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="T5" t="s">
+        <v>44</v>
       </c>
       <c r="U5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W5">
-        <v>1200000</v>
+        <v>1250000</v>
       </c>
       <c r="X5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y5" t="str">
-        <f>[1]Emisión_Motor!$R5</f>
-        <v>AON024</v>
-      </c>
-      <c r="Z5" t="str">
-        <f>[1]Emisión_Motor!$S5</f>
-        <v>ABC12AON024</v>
-      </c>
-      <c r="AA5" t="str">
-        <f>[1]Emisión_Motor!$T5</f>
-        <v>ZAZ12AAON024</v>
+        <v>40</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>138</v>
       </c>
       <c r="AB5" t="s">
         <v>18</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -1359,7 +1941,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -1368,7 +1950,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="3">
-        <v>7906612002</v>
+        <v>5712176326</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -1377,49 +1959,49 @@
         <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="S6">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="T6" t="s">
+        <v>44</v>
       </c>
       <c r="U6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W6">
-        <v>1200000</v>
+        <v>1250000</v>
       </c>
       <c r="X6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y6" t="str">
-        <f>[1]Emisión_Motor!$R6</f>
-        <v>AON025</v>
-      </c>
-      <c r="Z6" t="str">
-        <f>[1]Emisión_Motor!$S6</f>
-        <v>ABC12AON025</v>
-      </c>
-      <c r="AA6" t="str">
-        <f>[1]Emisión_Motor!$T6</f>
-        <v>ZAZ12AAON025</v>
+        <v>40</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>139</v>
       </c>
       <c r="AB6" t="s">
         <v>18</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -1431,7 +2013,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -1440,7 +2022,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="3">
-        <v>7906612002</v>
+        <v>5712176326</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -1449,49 +2031,49 @@
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="S7">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="T7" t="s">
+        <v>44</v>
       </c>
       <c r="U7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W7">
-        <v>1200000</v>
+        <v>1250000</v>
       </c>
       <c r="X7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y7" t="str">
-        <f>[1]Emisión_Motor!$R7</f>
-        <v>AON026</v>
-      </c>
-      <c r="Z7" t="str">
-        <f>[1]Emisión_Motor!$S7</f>
-        <v>ABC12AON026</v>
-      </c>
-      <c r="AA7" t="str">
-        <f>[1]Emisión_Motor!$T7</f>
-        <v>ZAZ12AAON026</v>
+        <v>40</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>140</v>
       </c>
       <c r="AB7" t="s">
         <v>18</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -1503,7 +2085,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -1512,7 +2094,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="3">
-        <v>7906612002</v>
+        <v>5712176326</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -1521,49 +2103,49 @@
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="S8">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="T8" t="s">
+        <v>44</v>
       </c>
       <c r="U8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W8">
-        <v>1200000</v>
+        <v>1250000</v>
       </c>
       <c r="X8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y8" t="str">
-        <f>[1]Emisión_Motor!$R8</f>
-        <v>AON027</v>
-      </c>
-      <c r="Z8" t="str">
-        <f>[1]Emisión_Motor!$S8</f>
-        <v>ABC12AON027</v>
-      </c>
-      <c r="AA8" t="str">
-        <f>[1]Emisión_Motor!$T8</f>
-        <v>ZAZ12AAON027</v>
+        <v>40</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>141</v>
       </c>
       <c r="AB8" t="s">
         <v>18</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -1575,7 +2157,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -1584,7 +2166,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="3">
-        <v>7906612002</v>
+        <v>5712176326</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -1593,49 +2175,49 @@
         <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s">
-        <v>26</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="S9">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="T9" t="s">
+        <v>44</v>
       </c>
       <c r="U9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W9">
-        <v>1200000</v>
+        <v>1250000</v>
       </c>
       <c r="X9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y9" t="str">
-        <f>[1]Emisión_Motor!$R9</f>
-        <v>AON028</v>
-      </c>
-      <c r="Z9" t="str">
-        <f>[1]Emisión_Motor!$S9</f>
-        <v>ABC12AON028</v>
-      </c>
-      <c r="AA9" t="str">
-        <f>[1]Emisión_Motor!$T9</f>
-        <v>ZAZ12AAON028</v>
+        <v>40</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>142</v>
       </c>
       <c r="AB9" t="s">
         <v>18</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -1647,7 +2229,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
@@ -1656,7 +2238,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="3">
-        <v>7906612002</v>
+        <v>5712176326</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -1665,49 +2247,49 @@
         <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>26</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="S10">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="T10" t="s">
+        <v>44</v>
       </c>
       <c r="U10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W10">
-        <v>1200000</v>
+        <v>1250000</v>
       </c>
       <c r="X10" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y10" t="str">
-        <f>[1]Emisión_Motor!$R10</f>
-        <v>AON029</v>
-      </c>
-      <c r="Z10" t="str">
-        <f>[1]Emisión_Motor!$S10</f>
-        <v>ABC12AON029</v>
-      </c>
-      <c r="AA10" t="str">
-        <f>[1]Emisión_Motor!$T10</f>
-        <v>ZAZ12AAON029</v>
+        <v>40</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>143</v>
       </c>
       <c r="AB10" t="s">
         <v>18</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -1719,7 +2301,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
@@ -1728,7 +2310,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="3">
-        <v>7906612002</v>
+        <v>5712176326</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -1737,49 +2319,49 @@
         <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" t="s">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>26</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="S11">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="T11" t="s">
+        <v>44</v>
       </c>
       <c r="U11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W11">
-        <v>1200000</v>
+        <v>1250000</v>
       </c>
       <c r="X11" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y11" t="str">
-        <f>[1]Emisión_Motor!$R11</f>
-        <v>AON030</v>
-      </c>
-      <c r="Z11" t="str">
-        <f>[1]Emisión_Motor!$S11</f>
-        <v>ABC12AON030</v>
-      </c>
-      <c r="AA11" t="str">
-        <f>[1]Emisión_Motor!$T11</f>
-        <v>ZAZ12AAON030</v>
+        <v>40</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>144</v>
       </c>
       <c r="AB11" t="s">
         <v>18</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -1791,7 +2373,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
@@ -1799,8 +2381,8 @@
       <c r="E12" t="s">
         <v>22</v>
       </c>
-      <c r="F12">
-        <v>6742785186</v>
+      <c r="F12" s="3">
+        <v>5712176326</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -1809,49 +2391,49 @@
         <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" t="s">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L12" t="s">
-        <v>26</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="S12">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="T12" t="s">
+        <v>44</v>
       </c>
       <c r="U12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W12">
-        <v>1200000</v>
+        <v>1250000</v>
       </c>
       <c r="X12" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y12" t="str">
-        <f>[1]Emisión_Motor!$R12</f>
-        <v>AON031</v>
-      </c>
-      <c r="Z12" t="str">
-        <f>[1]Emisión_Motor!$S12</f>
-        <v>ABC12AON031</v>
-      </c>
-      <c r="AA12" t="str">
-        <f>[1]Emisión_Motor!$T12</f>
-        <v>ZAZ12AAON031</v>
+        <v>40</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>145</v>
       </c>
       <c r="AB12" t="s">
         <v>18</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -1863,7 +2445,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
@@ -1871,8 +2453,8 @@
       <c r="E13" t="s">
         <v>22</v>
       </c>
-      <c r="F13">
-        <v>6742785186</v>
+      <c r="F13" s="3">
+        <v>5712176326</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -1881,49 +2463,49 @@
         <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" t="s">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>26</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="S13">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="T13" t="s">
+        <v>44</v>
       </c>
       <c r="U13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W13">
-        <v>1200000</v>
+        <v>1250000</v>
       </c>
       <c r="X13" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y13" t="str">
-        <f>[1]Emisión_Motor!$R13</f>
-        <v>AON032</v>
-      </c>
-      <c r="Z13" t="str">
-        <f>[1]Emisión_Motor!$S13</f>
-        <v>ABC12AON032</v>
-      </c>
-      <c r="AA13" t="str">
-        <f>[1]Emisión_Motor!$T13</f>
-        <v>ZAZ12AAON032</v>
+        <v>40</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>146</v>
       </c>
       <c r="AB13" t="s">
         <v>18</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -1935,7 +2517,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -1943,8 +2525,8 @@
       <c r="E14" t="s">
         <v>22</v>
       </c>
-      <c r="F14">
-        <v>6742785186</v>
+      <c r="F14" s="3">
+        <v>5712176326</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -1953,49 +2535,49 @@
         <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" t="s">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="K14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L14" t="s">
-        <v>26</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="S14">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="T14" t="s">
+        <v>44</v>
       </c>
       <c r="U14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W14">
-        <v>1200000</v>
+        <v>1250000</v>
       </c>
       <c r="X14" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y14" t="str">
-        <f>[1]Emisión_Motor!$R14</f>
-        <v>AON033</v>
-      </c>
-      <c r="Z14" t="str">
-        <f>[1]Emisión_Motor!$S14</f>
-        <v>ABC12AON033</v>
-      </c>
-      <c r="AA14" t="str">
-        <f>[1]Emisión_Motor!$T14</f>
-        <v>ZAZ12AAON033</v>
+        <v>40</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>147</v>
       </c>
       <c r="AB14" t="s">
         <v>18</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -2007,7 +2589,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
@@ -2015,8 +2597,8 @@
       <c r="E15" t="s">
         <v>22</v>
       </c>
-      <c r="F15">
-        <v>6742785186</v>
+      <c r="F15" s="3">
+        <v>5712176326</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -2025,49 +2607,49 @@
         <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" t="s">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L15" t="s">
-        <v>26</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="S15">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="T15" t="s">
+        <v>44</v>
       </c>
       <c r="U15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W15">
-        <v>1200000</v>
+        <v>1250000</v>
       </c>
       <c r="X15" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y15" t="str">
-        <f>[1]Emisión_Motor!$R15</f>
-        <v>AON034</v>
-      </c>
-      <c r="Z15" t="str">
-        <f>[1]Emisión_Motor!$S15</f>
-        <v>ABC12AON034</v>
-      </c>
-      <c r="AA15" t="str">
-        <f>[1]Emisión_Motor!$T15</f>
-        <v>ZAZ12AAON034</v>
+        <v>40</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>148</v>
       </c>
       <c r="AB15" t="s">
         <v>18</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -2079,7 +2661,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>
@@ -2087,8 +2669,8 @@
       <c r="E16" t="s">
         <v>22</v>
       </c>
-      <c r="F16">
-        <v>6742785186</v>
+      <c r="F16" s="3">
+        <v>5712176326</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -2097,49 +2679,49 @@
         <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" t="s">
-        <v>17</v>
+        <v>54</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="K16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L16" t="s">
-        <v>26</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="S16">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="T16" t="s">
+        <v>44</v>
       </c>
       <c r="U16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W16">
-        <v>1200000</v>
+        <v>1250000</v>
       </c>
       <c r="X16" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y16" t="str">
-        <f>[1]Emisión_Motor!$R16</f>
-        <v>AON035</v>
-      </c>
-      <c r="Z16" t="str">
-        <f>[1]Emisión_Motor!$S16</f>
-        <v>ABC12AON035</v>
-      </c>
-      <c r="AA16" t="str">
-        <f>[1]Emisión_Motor!$T16</f>
-        <v>ZAZ12AAON035</v>
+        <v>40</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>149</v>
       </c>
       <c r="AB16" t="s">
         <v>18</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -2151,7 +2733,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
@@ -2159,8 +2741,8 @@
       <c r="E17" t="s">
         <v>22</v>
       </c>
-      <c r="F17">
-        <v>6742785186</v>
+      <c r="F17" s="3">
+        <v>5712176326</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -2169,49 +2751,49 @@
         <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" t="s">
-        <v>17</v>
+        <v>54</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="K17" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L17" t="s">
-        <v>26</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="S17">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="T17" t="s">
+        <v>44</v>
       </c>
       <c r="U17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W17">
-        <v>1200000</v>
+        <v>1250000</v>
       </c>
       <c r="X17" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y17" t="str">
-        <f>[1]Emisión_Motor!$R17</f>
-        <v>AON036</v>
-      </c>
-      <c r="Z17" t="str">
-        <f>[1]Emisión_Motor!$S17</f>
-        <v>ABC12AON036</v>
-      </c>
-      <c r="AA17" t="str">
-        <f>[1]Emisión_Motor!$T17</f>
-        <v>ZAZ12AAON036</v>
+        <v>40</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>150</v>
       </c>
       <c r="AB17" t="s">
         <v>18</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
@@ -2223,7 +2805,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
@@ -2231,8 +2813,8 @@
       <c r="E18" t="s">
         <v>22</v>
       </c>
-      <c r="F18">
-        <v>6742785186</v>
+      <c r="F18" s="3">
+        <v>5712176326</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
@@ -2241,49 +2823,49 @@
         <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" t="s">
-        <v>17</v>
+        <v>54</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="K18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>26</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="S18">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="T18" t="s">
+        <v>44</v>
       </c>
       <c r="U18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W18">
-        <v>1200000</v>
+        <v>1250000</v>
       </c>
       <c r="X18" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y18" t="str">
-        <f>[1]Emisión_Motor!$R18</f>
-        <v>AON037</v>
-      </c>
-      <c r="Z18" t="str">
-        <f>[1]Emisión_Motor!$S18</f>
-        <v>ABC12AON037</v>
-      </c>
-      <c r="AA18" t="str">
-        <f>[1]Emisión_Motor!$T18</f>
-        <v>ZAZ12AAON037</v>
+        <v>40</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>151</v>
       </c>
       <c r="AB18" t="s">
         <v>18</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
@@ -2295,7 +2877,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>19</v>
@@ -2303,8 +2885,8 @@
       <c r="E19" t="s">
         <v>22</v>
       </c>
-      <c r="F19">
-        <v>6742785186</v>
+      <c r="F19" s="3">
+        <v>5712176326</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -2313,49 +2895,49 @@
         <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" t="s">
-        <v>17</v>
+        <v>54</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="K19" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L19" t="s">
-        <v>26</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="S19">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="T19" t="s">
+        <v>44</v>
       </c>
       <c r="U19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W19">
-        <v>1200000</v>
+        <v>1250000</v>
       </c>
       <c r="X19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y19" t="str">
-        <f>[1]Emisión_Motor!$R19</f>
-        <v>AON038</v>
-      </c>
-      <c r="Z19" t="str">
-        <f>[1]Emisión_Motor!$S19</f>
-        <v>ABC12AON038</v>
-      </c>
-      <c r="AA19" t="str">
-        <f>[1]Emisión_Motor!$T19</f>
-        <v>ZAZ12AAON038</v>
+        <v>40</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>152</v>
       </c>
       <c r="AB19" t="s">
         <v>18</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
@@ -2367,7 +2949,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>19</v>
@@ -2375,8 +2957,8 @@
       <c r="E20" t="s">
         <v>22</v>
       </c>
-      <c r="F20">
-        <v>6742785186</v>
+      <c r="F20" s="3">
+        <v>5712176326</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
@@ -2385,49 +2967,49 @@
         <v>16</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" t="s">
-        <v>17</v>
+        <v>54</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="K20" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L20" t="s">
-        <v>26</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="S20">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="T20" t="s">
+        <v>44</v>
       </c>
       <c r="U20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W20">
-        <v>1200000</v>
+        <v>1250000</v>
       </c>
       <c r="X20" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y20" t="str">
-        <f>[1]Emisión_Motor!$R20</f>
-        <v>AON039</v>
-      </c>
-      <c r="Z20" t="str">
-        <f>[1]Emisión_Motor!$S20</f>
-        <v>ABC12AON039</v>
-      </c>
-      <c r="AA20" t="str">
-        <f>[1]Emisión_Motor!$T20</f>
-        <v>ZAZ12AAON039</v>
+        <v>40</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>153</v>
       </c>
       <c r="AB20" t="s">
         <v>18</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
@@ -2439,7 +3021,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>19</v>
@@ -2447,8 +3029,8 @@
       <c r="E21" t="s">
         <v>22</v>
       </c>
-      <c r="F21">
-        <v>6742785186</v>
+      <c r="F21" s="3">
+        <v>5712176326</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
@@ -2457,49 +3039,49 @@
         <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" t="s">
-        <v>17</v>
+        <v>54</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="K21" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L21" t="s">
-        <v>26</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="S21">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="T21" t="s">
+        <v>44</v>
       </c>
       <c r="U21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W21">
-        <v>1200000</v>
+        <v>1250000</v>
       </c>
       <c r="X21" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y21" t="str">
-        <f>[1]Emisión_Motor!$R21</f>
-        <v>AON040</v>
-      </c>
-      <c r="Z21" t="str">
-        <f>[1]Emisión_Motor!$S21</f>
-        <v>ABC12AON040</v>
-      </c>
-      <c r="AA21" t="str">
-        <f>[1]Emisión_Motor!$T21</f>
-        <v>ZAZ12AAON040</v>
+        <v>40</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>154</v>
       </c>
       <c r="AB21" t="s">
         <v>18</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
@@ -2511,7 +3093,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>19</v>
@@ -2519,8 +3101,8 @@
       <c r="E22" t="s">
         <v>22</v>
       </c>
-      <c r="F22">
-        <v>1785991583</v>
+      <c r="F22" s="3">
+        <v>5712176326</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
@@ -2529,55 +3111,58 @@
         <v>16</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" t="s">
-        <v>23</v>
+        <v>58</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="K22" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L22" t="s">
-        <v>74</v>
-      </c>
-      <c r="M22" t="s">
-        <v>41</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="N22" t="s">
+        <v>34</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>71</v>
+        <v>35</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="S22">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="T22" t="s">
+        <v>44</v>
       </c>
       <c r="U22" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V22" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W22">
-        <v>1200000</v>
+        <v>1250000</v>
       </c>
       <c r="X22" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="Y22" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="Z22" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="AA22" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="AB22" t="s">
         <v>18</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
@@ -2589,7 +3174,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>19</v>
@@ -2597,8 +3182,8 @@
       <c r="E23" t="s">
         <v>22</v>
       </c>
-      <c r="F23">
-        <v>1251282873</v>
+      <c r="F23" s="3">
+        <v>5712176326</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
@@ -2607,52 +3192,55 @@
         <v>16</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
-      </c>
-      <c r="J23" t="s">
-        <v>73</v>
+        <v>58</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="K23" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L23" t="s">
-        <v>74</v>
-      </c>
-      <c r="P23" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>37</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="S23">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="T23" t="s">
+        <v>44</v>
       </c>
       <c r="U23" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V23" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W23">
-        <v>1200000</v>
+        <v>1250000</v>
       </c>
       <c r="X23" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="Y23" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="Z23" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="AA23" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="AB23" t="s">
         <v>18</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
@@ -2664,7 +3252,7 @@
         <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>19</v>
@@ -2672,8 +3260,8 @@
       <c r="E24" t="s">
         <v>22</v>
       </c>
-      <c r="F24">
-        <v>7749954078</v>
+      <c r="F24" s="3">
+        <v>5712176326</v>
       </c>
       <c r="G24" t="s">
         <v>13</v>
@@ -2682,72 +3270,76 @@
         <v>16</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" t="s">
-        <v>73</v>
+        <v>58</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="K24" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L24" t="s">
-        <v>74</v>
-      </c>
-      <c r="P24" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>37</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="S24">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="T24" t="s">
+        <v>44</v>
       </c>
       <c r="U24" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V24" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W24">
-        <v>1200000</v>
+        <v>1250000</v>
       </c>
       <c r="X24" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="Y24" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Z24" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="AA24" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="AB24" t="s">
         <v>18</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>36</v>
+      <c r="B25" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25">
-        <v>7557632631</v>
+        <v>22</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5712176326</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
@@ -2756,72 +3348,70 @@
         <v>16</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
-      </c>
-      <c r="J25" t="s">
-        <v>17</v>
+        <v>58</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="K25" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L25" t="s">
-        <v>26</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="S25">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="T25" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="U25" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V25" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W25">
-        <v>1000000</v>
+        <v>1250000</v>
       </c>
       <c r="X25" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="Y25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z25" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="AA25" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="AB25" t="s">
         <v>18</v>
       </c>
       <c r="AC25" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>36</v>
+      <c r="B26" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26">
-        <v>7557632631</v>
+        <v>22</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5712176326</v>
       </c>
       <c r="G26" t="s">
         <v>13</v>
@@ -2830,81 +3420,72 @@
         <v>16</v>
       </c>
       <c r="I26" t="s">
-        <v>40</v>
-      </c>
-      <c r="J26" t="s">
-        <v>17</v>
+        <v>58</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="K26" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L26" t="s">
-        <v>26</v>
-      </c>
-      <c r="M26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
       <c r="S26">
         <v>2021</v>
       </c>
       <c r="T26" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="U26" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V26" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W26">
-        <v>1000000</v>
+        <v>1250000</v>
       </c>
       <c r="X26" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="Y26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Z26" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="AA26" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="AB26" t="s">
         <v>18</v>
       </c>
       <c r="AC26" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>36</v>
+      <c r="B27" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27">
-        <v>7557632631</v>
+        <v>22</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5712176326</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
@@ -2913,78 +3494,71 @@
         <v>16</v>
       </c>
       <c r="I27" t="s">
-        <v>40</v>
-      </c>
-      <c r="J27" t="s">
-        <v>17</v>
+        <v>58</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="K27" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L27" t="s">
-        <v>26</v>
-      </c>
-      <c r="P27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="R27" s="1"/>
       <c r="S27">
         <v>2021</v>
       </c>
       <c r="T27" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="U27" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V27" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W27">
-        <v>1000000</v>
+        <v>1250000</v>
       </c>
       <c r="X27" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="Y27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z27" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="AA27" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="AB27" t="s">
         <v>18</v>
       </c>
       <c r="AC27" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>36</v>
+      <c r="B28" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28">
-        <v>7557632631</v>
+        <v>22</v>
+      </c>
+      <c r="F28" s="3">
+        <v>5712176326</v>
       </c>
       <c r="G28" t="s">
         <v>13</v>
@@ -2993,69 +3567,70 @@
         <v>16</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
-      </c>
-      <c r="J28" t="s">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="K28" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L28" t="s">
-        <v>26</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="S28">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="T28" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="U28" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V28" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W28">
-        <v>1000000</v>
+        <v>1250000</v>
       </c>
       <c r="X28" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="Y28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Z28" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="AA28" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="AB28" t="s">
         <v>18</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>36</v>
+      <c r="B29" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29">
-        <v>7557632631</v>
+        <v>22</v>
+      </c>
+      <c r="F29" s="3">
+        <v>5712176326</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
@@ -3064,66 +3639,70 @@
         <v>16</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
-      </c>
-      <c r="J29" t="s">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="K29" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L29" t="s">
-        <v>26</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="S29">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="T29" t="s">
+        <v>44</v>
       </c>
       <c r="U29" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V29" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W29">
-        <v>1000000</v>
+        <v>1250000</v>
       </c>
       <c r="X29" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="Y29" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Z29" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="AA29" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="AB29" t="s">
         <v>18</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>36</v>
+      <c r="B30" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30">
-        <v>7557632631</v>
+        <v>22</v>
+      </c>
+      <c r="F30" s="3">
+        <v>5712176326</v>
       </c>
       <c r="G30" t="s">
         <v>13</v>
@@ -3132,66 +3711,70 @@
         <v>16</v>
       </c>
       <c r="I30" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" t="s">
-        <v>17</v>
+        <v>62</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="K30" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L30" t="s">
-        <v>26</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="S30">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="T30" t="s">
+        <v>44</v>
       </c>
       <c r="U30" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V30" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W30">
-        <v>1000000</v>
+        <v>1250000</v>
       </c>
       <c r="X30" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="Y30" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="Z30" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AA30" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="AB30" t="s">
         <v>18</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>36</v>
+      <c r="B31" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
-      </c>
-      <c r="F31">
-        <v>7557632631</v>
+        <v>22</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5712176326</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
@@ -3200,66 +3783,70 @@
         <v>16</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
-      </c>
-      <c r="J31" t="s">
-        <v>17</v>
+        <v>62</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="K31" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L31" t="s">
-        <v>26</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="S31">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="T31" t="s">
+        <v>44</v>
       </c>
       <c r="U31" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V31" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W31">
-        <v>1000000</v>
+        <v>1250000</v>
       </c>
       <c r="X31" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="Y31" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="Z31" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="AA31" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c r="AB31" t="s">
         <v>18</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>36</v>
+      <c r="B32" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32">
-        <v>7557632631</v>
+        <v>22</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5712176326</v>
       </c>
       <c r="G32" t="s">
         <v>13</v>
@@ -3268,66 +3855,70 @@
         <v>16</v>
       </c>
       <c r="I32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J32" t="s">
-        <v>17</v>
+        <v>54</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="K32" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L32" t="s">
-        <v>26</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="S32">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="T32" t="s">
+        <v>44</v>
       </c>
       <c r="U32" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V32" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W32">
-        <v>1000000</v>
+        <v>1250000</v>
       </c>
       <c r="X32" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="Y32" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="Z32" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="AA32" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="AB32" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>36</v>
+      <c r="B33" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
         <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33">
-        <v>7557632631</v>
+        <v>22</v>
+      </c>
+      <c r="F33" s="3">
+        <v>5712176326</v>
       </c>
       <c r="G33" t="s">
         <v>13</v>
@@ -3336,248 +3927,5198 @@
         <v>16</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
-      </c>
-      <c r="J33" t="s">
-        <v>17</v>
+        <v>54</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="K33" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L33" t="s">
-        <v>26</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="S33">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="T33" t="s">
+        <v>44</v>
       </c>
       <c r="U33" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V33" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W33">
-        <v>1000000</v>
+        <v>1250000</v>
       </c>
       <c r="X33" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="Y33" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="Z33" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="3">
+        <v>5712176326</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s">
         <v>58</v>
       </c>
-      <c r="AA33" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34">
-        <v>7557632631</v>
-      </c>
-      <c r="G34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" t="s">
-        <v>40</v>
-      </c>
-      <c r="J34" t="s">
-        <v>17</v>
+      <c r="J34" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="K34" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L34" t="s">
-        <v>26</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="S34">
-        <v>2020</v>
+        <v>2021</v>
+      </c>
+      <c r="T34" t="s">
+        <v>44</v>
       </c>
       <c r="U34" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="V34" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="W34">
-        <v>1000000</v>
+        <v>1250000</v>
       </c>
       <c r="X34" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="Y34" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="Z34" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="AA34" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="AB34" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="3">
+        <v>5712176326</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" t="s">
+        <v>41</v>
+      </c>
+      <c r="S35">
+        <v>2021</v>
+      </c>
+      <c r="T35" t="s">
+        <v>44</v>
+      </c>
+      <c r="U35" t="s">
+        <v>32</v>
+      </c>
+      <c r="V35" t="s">
+        <v>33</v>
+      </c>
+      <c r="W35">
+        <v>1250000</v>
+      </c>
+      <c r="X35" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36">
+        <v>6805355158</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" t="s">
+        <v>41</v>
+      </c>
+      <c r="S36">
+        <v>2021</v>
+      </c>
+      <c r="T36" t="s">
+        <v>44</v>
+      </c>
+      <c r="U36" t="s">
+        <v>32</v>
+      </c>
+      <c r="V36" t="s">
+        <v>33</v>
+      </c>
+      <c r="W36">
+        <v>1250000</v>
+      </c>
+      <c r="X36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="B37" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37">
+        <v>6805355158</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" t="s">
+        <v>41</v>
+      </c>
+      <c r="S37">
+        <v>2021</v>
+      </c>
+      <c r="T37" t="s">
+        <v>44</v>
+      </c>
+      <c r="U37" t="s">
+        <v>32</v>
+      </c>
+      <c r="V37" t="s">
+        <v>33</v>
+      </c>
+      <c r="W37">
+        <v>1250000</v>
+      </c>
+      <c r="X37" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="F35">
-        <v>7557632631</v>
-      </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" t="s">
-        <v>40</v>
-      </c>
-      <c r="J35" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" t="s">
-        <v>24</v>
-      </c>
-      <c r="L35" t="s">
-        <v>26</v>
-      </c>
-      <c r="R35" s="1" t="s">
+      <c r="B38" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38">
+        <v>6805355158</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" t="s">
+        <v>45</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" t="s">
+        <v>41</v>
+      </c>
+      <c r="S38">
+        <v>2021</v>
+      </c>
+      <c r="T38" t="s">
+        <v>44</v>
+      </c>
+      <c r="U38" t="s">
+        <v>32</v>
+      </c>
+      <c r="V38" t="s">
+        <v>33</v>
+      </c>
+      <c r="W38">
+        <v>1250000</v>
+      </c>
+      <c r="X38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>239</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39">
+        <v>6805355158</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K39" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" t="s">
+        <v>41</v>
+      </c>
+      <c r="S39">
+        <v>2021</v>
+      </c>
+      <c r="T39" t="s">
+        <v>44</v>
+      </c>
+      <c r="U39" t="s">
+        <v>32</v>
+      </c>
+      <c r="V39" t="s">
+        <v>33</v>
+      </c>
+      <c r="W39">
+        <v>1250000</v>
+      </c>
+      <c r="X39" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40">
+        <v>6805355158</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" t="s">
+        <v>41</v>
+      </c>
+      <c r="S40">
+        <v>2021</v>
+      </c>
+      <c r="T40" t="s">
+        <v>44</v>
+      </c>
+      <c r="U40" t="s">
+        <v>32</v>
+      </c>
+      <c r="V40" t="s">
+        <v>33</v>
+      </c>
+      <c r="W40">
+        <v>1250000</v>
+      </c>
+      <c r="X40" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41">
+        <v>6805355158</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K41" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" t="s">
+        <v>41</v>
+      </c>
+      <c r="S41">
+        <v>2021</v>
+      </c>
+      <c r="T41" t="s">
+        <v>44</v>
+      </c>
+      <c r="U41" t="s">
+        <v>32</v>
+      </c>
+      <c r="V41" t="s">
+        <v>33</v>
+      </c>
+      <c r="W41">
+        <v>1250000</v>
+      </c>
+      <c r="X41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42">
+        <v>6805355158</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K42" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" t="s">
+        <v>41</v>
+      </c>
+      <c r="S42">
+        <v>2021</v>
+      </c>
+      <c r="T42" t="s">
+        <v>44</v>
+      </c>
+      <c r="U42" t="s">
+        <v>32</v>
+      </c>
+      <c r="V42" t="s">
+        <v>33</v>
+      </c>
+      <c r="W42">
+        <v>1250000</v>
+      </c>
+      <c r="X42" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43">
+        <v>6805355158</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" t="s">
+        <v>41</v>
+      </c>
+      <c r="S43">
+        <v>2021</v>
+      </c>
+      <c r="T43" t="s">
+        <v>44</v>
+      </c>
+      <c r="U43" t="s">
+        <v>32</v>
+      </c>
+      <c r="V43" t="s">
+        <v>33</v>
+      </c>
+      <c r="W43">
+        <v>1250000</v>
+      </c>
+      <c r="X43" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44">
+        <v>6805355158</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" t="s">
+        <v>46</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K44" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" t="s">
+        <v>41</v>
+      </c>
+      <c r="S44">
+        <v>2021</v>
+      </c>
+      <c r="T44" t="s">
+        <v>44</v>
+      </c>
+      <c r="U44" t="s">
+        <v>32</v>
+      </c>
+      <c r="V44" t="s">
+        <v>33</v>
+      </c>
+      <c r="W44">
+        <v>1250000</v>
+      </c>
+      <c r="X44" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45">
+        <v>6805355158</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" t="s">
+        <v>46</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K45" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" t="s">
+        <v>41</v>
+      </c>
+      <c r="S45">
+        <v>2021</v>
+      </c>
+      <c r="T45" t="s">
+        <v>44</v>
+      </c>
+      <c r="U45" t="s">
+        <v>32</v>
+      </c>
+      <c r="V45" t="s">
+        <v>33</v>
+      </c>
+      <c r="W45">
+        <v>1250000</v>
+      </c>
+      <c r="X45" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46">
+        <v>6805355158</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" t="s">
+        <v>46</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K46" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" t="s">
+        <v>41</v>
+      </c>
+      <c r="S46">
+        <v>2021</v>
+      </c>
+      <c r="T46" t="s">
+        <v>44</v>
+      </c>
+      <c r="U46" t="s">
+        <v>32</v>
+      </c>
+      <c r="V46" t="s">
+        <v>33</v>
+      </c>
+      <c r="W46">
+        <v>1250000</v>
+      </c>
+      <c r="X46" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47">
+        <v>6805355158</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" t="s">
+        <v>46</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K47" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" t="s">
+        <v>41</v>
+      </c>
+      <c r="S47">
+        <v>2021</v>
+      </c>
+      <c r="T47" t="s">
+        <v>44</v>
+      </c>
+      <c r="U47" t="s">
+        <v>32</v>
+      </c>
+      <c r="V47" t="s">
+        <v>33</v>
+      </c>
+      <c r="W47">
+        <v>1250000</v>
+      </c>
+      <c r="X47" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>248</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48">
+        <v>6805355158</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" t="s">
+        <v>46</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K48" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" t="s">
+        <v>41</v>
+      </c>
+      <c r="S48">
+        <v>2021</v>
+      </c>
+      <c r="T48" t="s">
+        <v>44</v>
+      </c>
+      <c r="U48" t="s">
+        <v>32</v>
+      </c>
+      <c r="V48" t="s">
+        <v>33</v>
+      </c>
+      <c r="W48">
+        <v>1250000</v>
+      </c>
+      <c r="X48" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49">
+        <v>6805355158</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" t="s">
+        <v>46</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K49" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" t="s">
+        <v>41</v>
+      </c>
+      <c r="S49">
+        <v>2021</v>
+      </c>
+      <c r="T49" t="s">
+        <v>44</v>
+      </c>
+      <c r="U49" t="s">
+        <v>32</v>
+      </c>
+      <c r="V49" t="s">
+        <v>33</v>
+      </c>
+      <c r="W49">
+        <v>1250000</v>
+      </c>
+      <c r="X49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50">
+        <v>6805355158</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" t="s">
+        <v>54</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K50" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" t="s">
+        <v>41</v>
+      </c>
+      <c r="S50">
+        <v>2021</v>
+      </c>
+      <c r="T50" t="s">
+        <v>44</v>
+      </c>
+      <c r="U50" t="s">
+        <v>32</v>
+      </c>
+      <c r="V50" t="s">
+        <v>33</v>
+      </c>
+      <c r="W50">
+        <v>1250000</v>
+      </c>
+      <c r="X50" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51">
+        <v>6805355158</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" t="s">
+        <v>54</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K51" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" t="s">
+        <v>41</v>
+      </c>
+      <c r="S51">
+        <v>2021</v>
+      </c>
+      <c r="T51" t="s">
+        <v>44</v>
+      </c>
+      <c r="U51" t="s">
+        <v>32</v>
+      </c>
+      <c r="V51" t="s">
+        <v>33</v>
+      </c>
+      <c r="W51">
+        <v>1250000</v>
+      </c>
+      <c r="X51" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>252</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52">
+        <v>6805355158</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" t="s">
+        <v>54</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K52" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" t="s">
+        <v>41</v>
+      </c>
+      <c r="S52">
+        <v>2021</v>
+      </c>
+      <c r="T52" t="s">
+        <v>44</v>
+      </c>
+      <c r="U52" t="s">
+        <v>32</v>
+      </c>
+      <c r="V52" t="s">
+        <v>33</v>
+      </c>
+      <c r="W52">
+        <v>1250000</v>
+      </c>
+      <c r="X52" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53">
+        <v>6805355158</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" t="s">
+        <v>54</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K53" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" t="s">
+        <v>41</v>
+      </c>
+      <c r="S53">
+        <v>2021</v>
+      </c>
+      <c r="T53" t="s">
+        <v>44</v>
+      </c>
+      <c r="U53" t="s">
+        <v>32</v>
+      </c>
+      <c r="V53" t="s">
+        <v>33</v>
+      </c>
+      <c r="W53">
+        <v>1250000</v>
+      </c>
+      <c r="X53" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54">
+        <v>6805355158</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" t="s">
+        <v>54</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K54" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" t="s">
+        <v>41</v>
+      </c>
+      <c r="S54">
+        <v>2021</v>
+      </c>
+      <c r="T54" t="s">
+        <v>44</v>
+      </c>
+      <c r="U54" t="s">
+        <v>32</v>
+      </c>
+      <c r="V54" t="s">
+        <v>33</v>
+      </c>
+      <c r="W54">
+        <v>1250000</v>
+      </c>
+      <c r="X54" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>255</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55">
+        <v>6805355158</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" t="s">
+        <v>54</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" t="s">
+        <v>41</v>
+      </c>
+      <c r="S55">
+        <v>2021</v>
+      </c>
+      <c r="T55" t="s">
+        <v>44</v>
+      </c>
+      <c r="U55" t="s">
+        <v>32</v>
+      </c>
+      <c r="V55" t="s">
+        <v>33</v>
+      </c>
+      <c r="W55">
+        <v>1250000</v>
+      </c>
+      <c r="X55" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56">
+        <v>6805355158</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" t="s">
+        <v>58</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" t="s">
+        <v>41</v>
+      </c>
+      <c r="S56">
+        <v>2021</v>
+      </c>
+      <c r="T56" t="s">
+        <v>44</v>
+      </c>
+      <c r="U56" t="s">
+        <v>32</v>
+      </c>
+      <c r="V56" t="s">
+        <v>33</v>
+      </c>
+      <c r="W56">
+        <v>1250000</v>
+      </c>
+      <c r="X56" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>257</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57">
+        <v>6805355158</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" t="s">
+        <v>58</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K57" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57" t="s">
+        <v>41</v>
+      </c>
+      <c r="S57">
+        <v>2021</v>
+      </c>
+      <c r="T57" t="s">
+        <v>44</v>
+      </c>
+      <c r="U57" t="s">
+        <v>32</v>
+      </c>
+      <c r="V57" t="s">
+        <v>33</v>
+      </c>
+      <c r="W57">
+        <v>1250000</v>
+      </c>
+      <c r="X57" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58">
+        <v>6805355158</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" t="s">
+        <v>58</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K58" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" t="s">
+        <v>41</v>
+      </c>
+      <c r="S58">
+        <v>2021</v>
+      </c>
+      <c r="T58" t="s">
+        <v>44</v>
+      </c>
+      <c r="U58" t="s">
+        <v>32</v>
+      </c>
+      <c r="V58" t="s">
+        <v>33</v>
+      </c>
+      <c r="W58">
+        <v>1250000</v>
+      </c>
+      <c r="X58" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59">
+        <v>6805355158</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" t="s">
+        <v>58</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K59" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59" t="s">
+        <v>41</v>
+      </c>
+      <c r="S59">
+        <v>2021</v>
+      </c>
+      <c r="T59" t="s">
+        <v>44</v>
+      </c>
+      <c r="U59" t="s">
+        <v>32</v>
+      </c>
+      <c r="V59" t="s">
+        <v>33</v>
+      </c>
+      <c r="W59">
+        <v>1250000</v>
+      </c>
+      <c r="X59" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60">
+        <v>6805355158</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" t="s">
+        <v>58</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K60" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" t="s">
+        <v>41</v>
+      </c>
+      <c r="S60">
+        <v>2021</v>
+      </c>
+      <c r="T60" t="s">
+        <v>44</v>
+      </c>
+      <c r="U60" t="s">
+        <v>32</v>
+      </c>
+      <c r="V60" t="s">
+        <v>33</v>
+      </c>
+      <c r="W60">
+        <v>1250000</v>
+      </c>
+      <c r="X60" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61">
+        <v>6805355158</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" t="s">
+        <v>58</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K61" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" t="s">
+        <v>41</v>
+      </c>
+      <c r="S61">
+        <v>2021</v>
+      </c>
+      <c r="T61" t="s">
+        <v>44</v>
+      </c>
+      <c r="U61" t="s">
+        <v>32</v>
+      </c>
+      <c r="V61" t="s">
+        <v>33</v>
+      </c>
+      <c r="W61">
+        <v>1250000</v>
+      </c>
+      <c r="X61" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62">
+        <v>6805355158</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" t="s">
+        <v>46</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K62" t="s">
+        <v>17</v>
+      </c>
+      <c r="L62" t="s">
+        <v>41</v>
+      </c>
+      <c r="S62">
+        <v>2021</v>
+      </c>
+      <c r="T62" t="s">
+        <v>44</v>
+      </c>
+      <c r="U62" t="s">
+        <v>32</v>
+      </c>
+      <c r="V62" t="s">
+        <v>33</v>
+      </c>
+      <c r="W62">
+        <v>1250000</v>
+      </c>
+      <c r="X62" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63">
+        <v>6805355158</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" t="s">
+        <v>46</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K63" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63" t="s">
+        <v>41</v>
+      </c>
+      <c r="S63">
+        <v>2021</v>
+      </c>
+      <c r="T63" t="s">
+        <v>44</v>
+      </c>
+      <c r="U63" t="s">
+        <v>32</v>
+      </c>
+      <c r="V63" t="s">
+        <v>33</v>
+      </c>
+      <c r="W63">
+        <v>1250000</v>
+      </c>
+      <c r="X63" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64">
+        <v>6805355158</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" t="s">
+        <v>62</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K64" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64" t="s">
+        <v>41</v>
+      </c>
+      <c r="S64">
+        <v>2021</v>
+      </c>
+      <c r="T64" t="s">
+        <v>44</v>
+      </c>
+      <c r="U64" t="s">
+        <v>32</v>
+      </c>
+      <c r="V64" t="s">
+        <v>33</v>
+      </c>
+      <c r="W64">
+        <v>1250000</v>
+      </c>
+      <c r="X64" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65">
+        <v>6805355158</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" t="s">
+        <v>62</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K65" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" t="s">
+        <v>41</v>
+      </c>
+      <c r="S65">
+        <v>2021</v>
+      </c>
+      <c r="T65" t="s">
+        <v>44</v>
+      </c>
+      <c r="U65" t="s">
+        <v>32</v>
+      </c>
+      <c r="V65" t="s">
+        <v>33</v>
+      </c>
+      <c r="W65">
+        <v>1250000</v>
+      </c>
+      <c r="X65" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66">
+        <v>6805355158</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" t="s">
+        <v>54</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K66" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66" t="s">
+        <v>41</v>
+      </c>
+      <c r="S66">
+        <v>2021</v>
+      </c>
+      <c r="T66" t="s">
+        <v>44</v>
+      </c>
+      <c r="U66" t="s">
+        <v>32</v>
+      </c>
+      <c r="V66" t="s">
+        <v>33</v>
+      </c>
+      <c r="W66">
+        <v>1250000</v>
+      </c>
+      <c r="X66" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+      <c r="E67" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67">
+        <v>6805355158</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" t="s">
+        <v>54</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K67" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" t="s">
+        <v>41</v>
+      </c>
+      <c r="S67">
+        <v>2021</v>
+      </c>
+      <c r="T67" t="s">
+        <v>44</v>
+      </c>
+      <c r="U67" t="s">
+        <v>32</v>
+      </c>
+      <c r="V67" t="s">
+        <v>33</v>
+      </c>
+      <c r="W67">
+        <v>1250000</v>
+      </c>
+      <c r="X67" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68">
+        <v>6805355158</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" t="s">
+        <v>58</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K68" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68" t="s">
+        <v>41</v>
+      </c>
+      <c r="S68">
+        <v>2021</v>
+      </c>
+      <c r="T68" t="s">
+        <v>44</v>
+      </c>
+      <c r="U68" t="s">
+        <v>32</v>
+      </c>
+      <c r="V68" t="s">
+        <v>33</v>
+      </c>
+      <c r="W68">
+        <v>1250000</v>
+      </c>
+      <c r="X68" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="S35">
-        <v>2020</v>
-      </c>
-      <c r="U35" t="s">
-        <v>38</v>
-      </c>
-      <c r="V35" t="s">
-        <v>39</v>
-      </c>
-      <c r="W35">
-        <v>1000000</v>
-      </c>
-      <c r="X35" t="s">
+      <c r="B69" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69">
+        <v>6805355158</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" t="s">
+        <v>58</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K69" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69" t="s">
+        <v>41</v>
+      </c>
+      <c r="S69">
+        <v>2021</v>
+      </c>
+      <c r="T69" t="s">
+        <v>44</v>
+      </c>
+      <c r="U69" t="s">
+        <v>32</v>
+      </c>
+      <c r="V69" t="s">
+        <v>33</v>
+      </c>
+      <c r="W69">
+        <v>1250000</v>
+      </c>
+      <c r="X69" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="B70" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70">
+        <v>9289313681</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" t="s">
+        <v>45</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K70" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" t="s">
+        <v>41</v>
+      </c>
+      <c r="S70">
+        <v>2021</v>
+      </c>
+      <c r="T70" t="s">
+        <v>44</v>
+      </c>
+      <c r="U70" t="s">
+        <v>32</v>
+      </c>
+      <c r="V70" t="s">
+        <v>33</v>
+      </c>
+      <c r="W70">
+        <v>1250000</v>
+      </c>
+      <c r="X70" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71">
+        <v>9289313681</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" t="s">
+        <v>45</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K71" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71" t="s">
+        <v>41</v>
+      </c>
+      <c r="S71">
+        <v>2021</v>
+      </c>
+      <c r="T71" t="s">
+        <v>44</v>
+      </c>
+      <c r="U71" t="s">
+        <v>32</v>
+      </c>
+      <c r="V71" t="s">
+        <v>33</v>
+      </c>
+      <c r="W71">
+        <v>1250000</v>
+      </c>
+      <c r="X71" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>306</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72">
+        <v>9289313681</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" t="s">
+        <v>45</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K72" t="s">
+        <v>17</v>
+      </c>
+      <c r="L72" t="s">
+        <v>41</v>
+      </c>
+      <c r="S72">
+        <v>2021</v>
+      </c>
+      <c r="T72" t="s">
+        <v>44</v>
+      </c>
+      <c r="U72" t="s">
+        <v>32</v>
+      </c>
+      <c r="V72" t="s">
+        <v>33</v>
+      </c>
+      <c r="W72">
+        <v>1250000</v>
+      </c>
+      <c r="X72" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73">
+        <v>9289313681</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" t="s">
+        <v>45</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K73" t="s">
+        <v>17</v>
+      </c>
+      <c r="L73" t="s">
+        <v>41</v>
+      </c>
+      <c r="S73">
+        <v>2021</v>
+      </c>
+      <c r="T73" t="s">
+        <v>44</v>
+      </c>
+      <c r="U73" t="s">
+        <v>32</v>
+      </c>
+      <c r="V73" t="s">
+        <v>33</v>
+      </c>
+      <c r="W73">
+        <v>1250000</v>
+      </c>
+      <c r="X73" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74">
+        <v>9289313681</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" t="s">
+        <v>45</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K74" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74" t="s">
+        <v>41</v>
+      </c>
+      <c r="S74">
+        <v>2021</v>
+      </c>
+      <c r="T74" t="s">
+        <v>44</v>
+      </c>
+      <c r="U74" t="s">
+        <v>32</v>
+      </c>
+      <c r="V74" t="s">
+        <v>33</v>
+      </c>
+      <c r="W74">
+        <v>1250000</v>
+      </c>
+      <c r="X74" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>343</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75">
+        <v>9289313681</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" t="s">
+        <v>45</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K75" t="s">
+        <v>17</v>
+      </c>
+      <c r="L75" t="s">
+        <v>41</v>
+      </c>
+      <c r="S75">
+        <v>2021</v>
+      </c>
+      <c r="T75" t="s">
+        <v>44</v>
+      </c>
+      <c r="U75" t="s">
+        <v>32</v>
+      </c>
+      <c r="V75" t="s">
+        <v>33</v>
+      </c>
+      <c r="W75">
+        <v>1250000</v>
+      </c>
+      <c r="X75" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>344</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76">
+        <v>9289313681</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" t="s">
+        <v>46</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K76" t="s">
+        <v>17</v>
+      </c>
+      <c r="L76" t="s">
+        <v>41</v>
+      </c>
+      <c r="S76">
+        <v>2021</v>
+      </c>
+      <c r="T76" t="s">
+        <v>44</v>
+      </c>
+      <c r="U76" t="s">
+        <v>32</v>
+      </c>
+      <c r="V76" t="s">
+        <v>33</v>
+      </c>
+      <c r="W76">
+        <v>1250000</v>
+      </c>
+      <c r="X76" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77">
+        <v>9289313681</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" t="s">
+        <v>46</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K77" t="s">
+        <v>17</v>
+      </c>
+      <c r="L77" t="s">
+        <v>41</v>
+      </c>
+      <c r="S77">
+        <v>2021</v>
+      </c>
+      <c r="T77" t="s">
+        <v>44</v>
+      </c>
+      <c r="U77" t="s">
+        <v>32</v>
+      </c>
+      <c r="V77" t="s">
+        <v>33</v>
+      </c>
+      <c r="W77">
+        <v>1250000</v>
+      </c>
+      <c r="X77" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78">
+        <v>9289313681</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" t="s">
+        <v>46</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K78" t="s">
+        <v>17</v>
+      </c>
+      <c r="L78" t="s">
+        <v>41</v>
+      </c>
+      <c r="S78">
+        <v>2021</v>
+      </c>
+      <c r="T78" t="s">
+        <v>44</v>
+      </c>
+      <c r="U78" t="s">
+        <v>32</v>
+      </c>
+      <c r="V78" t="s">
+        <v>33</v>
+      </c>
+      <c r="W78">
+        <v>1250000</v>
+      </c>
+      <c r="X78" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>313</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79">
+        <v>9289313681</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" t="s">
+        <v>46</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K79" t="s">
+        <v>17</v>
+      </c>
+      <c r="L79" t="s">
+        <v>41</v>
+      </c>
+      <c r="S79">
+        <v>2021</v>
+      </c>
+      <c r="T79" t="s">
+        <v>44</v>
+      </c>
+      <c r="U79" t="s">
+        <v>32</v>
+      </c>
+      <c r="V79" t="s">
+        <v>33</v>
+      </c>
+      <c r="W79">
+        <v>1250000</v>
+      </c>
+      <c r="X79" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>314</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>348</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80">
+        <v>9289313681</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" t="s">
+        <v>46</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K80" t="s">
+        <v>17</v>
+      </c>
+      <c r="L80" t="s">
+        <v>41</v>
+      </c>
+      <c r="S80">
+        <v>2021</v>
+      </c>
+      <c r="T80" t="s">
+        <v>44</v>
+      </c>
+      <c r="U80" t="s">
+        <v>32</v>
+      </c>
+      <c r="V80" t="s">
+        <v>33</v>
+      </c>
+      <c r="W80">
+        <v>1250000</v>
+      </c>
+      <c r="X80" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81">
+        <v>9289313681</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81" t="s">
+        <v>46</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K81" t="s">
+        <v>17</v>
+      </c>
+      <c r="L81" t="s">
+        <v>41</v>
+      </c>
+      <c r="S81">
+        <v>2021</v>
+      </c>
+      <c r="T81" t="s">
+        <v>44</v>
+      </c>
+      <c r="U81" t="s">
+        <v>32</v>
+      </c>
+      <c r="V81" t="s">
+        <v>33</v>
+      </c>
+      <c r="W81">
+        <v>1250000</v>
+      </c>
+      <c r="X81" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82">
+        <v>9289313681</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" t="s">
+        <v>46</v>
+      </c>
+      <c r="J82" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="K82" t="s">
+        <v>17</v>
+      </c>
+      <c r="L82" t="s">
+        <v>41</v>
+      </c>
+      <c r="S82">
+        <v>2021</v>
+      </c>
+      <c r="T82" t="s">
+        <v>44</v>
+      </c>
+      <c r="U82" t="s">
+        <v>32</v>
+      </c>
+      <c r="V82" t="s">
+        <v>33</v>
+      </c>
+      <c r="W82">
+        <v>1250000</v>
+      </c>
+      <c r="X82" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83">
+        <v>9289313681</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" t="s">
+        <v>46</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K83" t="s">
+        <v>17</v>
+      </c>
+      <c r="L83" t="s">
+        <v>41</v>
+      </c>
+      <c r="S83">
+        <v>2021</v>
+      </c>
+      <c r="T83" t="s">
+        <v>44</v>
+      </c>
+      <c r="U83" t="s">
+        <v>32</v>
+      </c>
+      <c r="V83" t="s">
+        <v>33</v>
+      </c>
+      <c r="W83">
+        <v>1250000</v>
+      </c>
+      <c r="X83" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>318</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84">
+        <v>9289313681</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" t="s">
+        <v>54</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K84" t="s">
+        <v>17</v>
+      </c>
+      <c r="L84" t="s">
+        <v>41</v>
+      </c>
+      <c r="S84">
+        <v>2021</v>
+      </c>
+      <c r="T84" t="s">
+        <v>44</v>
+      </c>
+      <c r="U84" t="s">
+        <v>32</v>
+      </c>
+      <c r="V84" t="s">
+        <v>33</v>
+      </c>
+      <c r="W84">
+        <v>1250000</v>
+      </c>
+      <c r="X84" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>353</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85">
+        <v>9289313681</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" t="s">
+        <v>54</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K85" t="s">
+        <v>17</v>
+      </c>
+      <c r="L85" t="s">
+        <v>41</v>
+      </c>
+      <c r="S85">
+        <v>2021</v>
+      </c>
+      <c r="T85" t="s">
+        <v>44</v>
+      </c>
+      <c r="U85" t="s">
+        <v>32</v>
+      </c>
+      <c r="V85" t="s">
+        <v>33</v>
+      </c>
+      <c r="W85">
+        <v>1250000</v>
+      </c>
+      <c r="X85" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86">
+        <v>9289313681</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" t="s">
+        <v>54</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K86" t="s">
+        <v>17</v>
+      </c>
+      <c r="L86" t="s">
+        <v>41</v>
+      </c>
+      <c r="S86">
+        <v>2021</v>
+      </c>
+      <c r="T86" t="s">
+        <v>44</v>
+      </c>
+      <c r="U86" t="s">
+        <v>32</v>
+      </c>
+      <c r="V86" t="s">
+        <v>33</v>
+      </c>
+      <c r="W86">
+        <v>1250000</v>
+      </c>
+      <c r="X86" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" t="s">
+        <v>22</v>
+      </c>
+      <c r="F87">
+        <v>9289313681</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" t="s">
+        <v>54</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K87" t="s">
+        <v>17</v>
+      </c>
+      <c r="L87" t="s">
+        <v>41</v>
+      </c>
+      <c r="S87">
+        <v>2021</v>
+      </c>
+      <c r="T87" t="s">
+        <v>44</v>
+      </c>
+      <c r="U87" t="s">
+        <v>32</v>
+      </c>
+      <c r="V87" t="s">
+        <v>33</v>
+      </c>
+      <c r="W87">
+        <v>1250000</v>
+      </c>
+      <c r="X87" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" t="s">
+        <v>22</v>
+      </c>
+      <c r="F88">
+        <v>9289313681</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" t="s">
+        <v>54</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K88" t="s">
+        <v>17</v>
+      </c>
+      <c r="L88" t="s">
+        <v>41</v>
+      </c>
+      <c r="S88">
+        <v>2021</v>
+      </c>
+      <c r="T88" t="s">
+        <v>44</v>
+      </c>
+      <c r="U88" t="s">
+        <v>32</v>
+      </c>
+      <c r="V88" t="s">
+        <v>33</v>
+      </c>
+      <c r="W88">
+        <v>1250000</v>
+      </c>
+      <c r="X88" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>357</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89">
+        <v>9289313681</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" t="s">
+        <v>54</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K89" t="s">
+        <v>17</v>
+      </c>
+      <c r="L89" t="s">
+        <v>41</v>
+      </c>
+      <c r="S89">
+        <v>2021</v>
+      </c>
+      <c r="T89" t="s">
+        <v>44</v>
+      </c>
+      <c r="U89" t="s">
+        <v>32</v>
+      </c>
+      <c r="V89" t="s">
+        <v>33</v>
+      </c>
+      <c r="W89">
+        <v>1250000</v>
+      </c>
+      <c r="X89" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>324</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>358</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90">
+        <v>9289313681</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" t="s">
+        <v>58</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K90" t="s">
+        <v>17</v>
+      </c>
+      <c r="L90" t="s">
+        <v>41</v>
+      </c>
+      <c r="S90">
+        <v>2021</v>
+      </c>
+      <c r="T90" t="s">
+        <v>44</v>
+      </c>
+      <c r="U90" t="s">
+        <v>32</v>
+      </c>
+      <c r="V90" t="s">
+        <v>33</v>
+      </c>
+      <c r="W90">
+        <v>1250000</v>
+      </c>
+      <c r="X90" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F91">
+        <v>9289313681</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" t="s">
+        <v>58</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K91" t="s">
+        <v>17</v>
+      </c>
+      <c r="L91" t="s">
+        <v>41</v>
+      </c>
+      <c r="S91">
+        <v>2021</v>
+      </c>
+      <c r="T91" t="s">
+        <v>44</v>
+      </c>
+      <c r="U91" t="s">
+        <v>32</v>
+      </c>
+      <c r="V91" t="s">
+        <v>33</v>
+      </c>
+      <c r="W91">
+        <v>1250000</v>
+      </c>
+      <c r="X91" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92" t="s">
+        <v>22</v>
+      </c>
+      <c r="F92">
+        <v>9289313681</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" t="s">
+        <v>58</v>
+      </c>
+      <c r="J92" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AA35" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="R36" s="1"/>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
-      <c r="R37" s="1"/>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
-      <c r="R38" s="1"/>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="R39" s="1"/>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="R40" s="1"/>
+      <c r="K92" t="s">
+        <v>17</v>
+      </c>
+      <c r="L92" t="s">
+        <v>41</v>
+      </c>
+      <c r="S92">
+        <v>2021</v>
+      </c>
+      <c r="T92" t="s">
+        <v>44</v>
+      </c>
+      <c r="U92" t="s">
+        <v>32</v>
+      </c>
+      <c r="V92" t="s">
+        <v>33</v>
+      </c>
+      <c r="W92">
+        <v>1250000</v>
+      </c>
+      <c r="X92" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" t="s">
+        <v>22</v>
+      </c>
+      <c r="F93">
+        <v>9289313681</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" t="s">
+        <v>58</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K93" t="s">
+        <v>17</v>
+      </c>
+      <c r="L93" t="s">
+        <v>41</v>
+      </c>
+      <c r="S93">
+        <v>2021</v>
+      </c>
+      <c r="T93" t="s">
+        <v>44</v>
+      </c>
+      <c r="U93" t="s">
+        <v>32</v>
+      </c>
+      <c r="V93" t="s">
+        <v>33</v>
+      </c>
+      <c r="W93">
+        <v>1250000</v>
+      </c>
+      <c r="X93" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>328</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" t="s">
+        <v>22</v>
+      </c>
+      <c r="F94">
+        <v>9289313681</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" t="s">
+        <v>58</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K94" t="s">
+        <v>17</v>
+      </c>
+      <c r="L94" t="s">
+        <v>41</v>
+      </c>
+      <c r="S94">
+        <v>2021</v>
+      </c>
+      <c r="T94" t="s">
+        <v>44</v>
+      </c>
+      <c r="U94" t="s">
+        <v>32</v>
+      </c>
+      <c r="V94" t="s">
+        <v>33</v>
+      </c>
+      <c r="W94">
+        <v>1250000</v>
+      </c>
+      <c r="X94" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" t="s">
+        <v>22</v>
+      </c>
+      <c r="F95">
+        <v>9289313681</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" t="s">
+        <v>58</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K95" t="s">
+        <v>17</v>
+      </c>
+      <c r="L95" t="s">
+        <v>41</v>
+      </c>
+      <c r="S95">
+        <v>2021</v>
+      </c>
+      <c r="T95" t="s">
+        <v>44</v>
+      </c>
+      <c r="U95" t="s">
+        <v>32</v>
+      </c>
+      <c r="V95" t="s">
+        <v>33</v>
+      </c>
+      <c r="W95">
+        <v>1250000</v>
+      </c>
+      <c r="X95" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>330</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>364</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96">
+        <v>9289313681</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" t="s">
+        <v>46</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K96" t="s">
+        <v>17</v>
+      </c>
+      <c r="L96" t="s">
+        <v>41</v>
+      </c>
+      <c r="S96">
+        <v>2021</v>
+      </c>
+      <c r="T96" t="s">
+        <v>44</v>
+      </c>
+      <c r="U96" t="s">
+        <v>32</v>
+      </c>
+      <c r="V96" t="s">
+        <v>33</v>
+      </c>
+      <c r="W96">
+        <v>1250000</v>
+      </c>
+      <c r="X96" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97">
+        <v>9289313681</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" t="s">
+        <v>46</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K97" t="s">
+        <v>17</v>
+      </c>
+      <c r="L97" t="s">
+        <v>41</v>
+      </c>
+      <c r="S97">
+        <v>2021</v>
+      </c>
+      <c r="T97" t="s">
+        <v>44</v>
+      </c>
+      <c r="U97" t="s">
+        <v>32</v>
+      </c>
+      <c r="V97" t="s">
+        <v>33</v>
+      </c>
+      <c r="W97">
+        <v>1250000</v>
+      </c>
+      <c r="X97" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>332</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" t="s">
+        <v>22</v>
+      </c>
+      <c r="F98">
+        <v>9289313681</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" t="s">
+        <v>62</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K98" t="s">
+        <v>17</v>
+      </c>
+      <c r="L98" t="s">
+        <v>41</v>
+      </c>
+      <c r="S98">
+        <v>2021</v>
+      </c>
+      <c r="T98" t="s">
+        <v>44</v>
+      </c>
+      <c r="U98" t="s">
+        <v>32</v>
+      </c>
+      <c r="V98" t="s">
+        <v>33</v>
+      </c>
+      <c r="W98">
+        <v>1250000</v>
+      </c>
+      <c r="X98" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>333</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99">
+        <v>9289313681</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" t="s">
+        <v>62</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K99" t="s">
+        <v>17</v>
+      </c>
+      <c r="L99" t="s">
+        <v>41</v>
+      </c>
+      <c r="S99">
+        <v>2021</v>
+      </c>
+      <c r="T99" t="s">
+        <v>44</v>
+      </c>
+      <c r="U99" t="s">
+        <v>32</v>
+      </c>
+      <c r="V99" t="s">
+        <v>33</v>
+      </c>
+      <c r="W99">
+        <v>1250000</v>
+      </c>
+      <c r="X99" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" t="s">
+        <v>22</v>
+      </c>
+      <c r="F100">
+        <v>9289313681</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" t="s">
+        <v>54</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K100" t="s">
+        <v>17</v>
+      </c>
+      <c r="L100" t="s">
+        <v>41</v>
+      </c>
+      <c r="S100">
+        <v>2021</v>
+      </c>
+      <c r="T100" t="s">
+        <v>44</v>
+      </c>
+      <c r="U100" t="s">
+        <v>32</v>
+      </c>
+      <c r="V100" t="s">
+        <v>33</v>
+      </c>
+      <c r="W100">
+        <v>1250000</v>
+      </c>
+      <c r="X100" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" t="s">
+        <v>22</v>
+      </c>
+      <c r="F101">
+        <v>9289313681</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" t="s">
+        <v>54</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K101" t="s">
+        <v>17</v>
+      </c>
+      <c r="L101" t="s">
+        <v>41</v>
+      </c>
+      <c r="S101">
+        <v>2021</v>
+      </c>
+      <c r="T101" t="s">
+        <v>44</v>
+      </c>
+      <c r="U101" t="s">
+        <v>32</v>
+      </c>
+      <c r="V101" t="s">
+        <v>33</v>
+      </c>
+      <c r="W101">
+        <v>1250000</v>
+      </c>
+      <c r="X101" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" t="s">
+        <v>22</v>
+      </c>
+      <c r="F102">
+        <v>9289313681</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" t="s">
+        <v>58</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K102" t="s">
+        <v>17</v>
+      </c>
+      <c r="L102" t="s">
+        <v>41</v>
+      </c>
+      <c r="S102">
+        <v>2021</v>
+      </c>
+      <c r="T102" t="s">
+        <v>44</v>
+      </c>
+      <c r="U102" t="s">
+        <v>32</v>
+      </c>
+      <c r="V102" t="s">
+        <v>33</v>
+      </c>
+      <c r="W102">
+        <v>1250000</v>
+      </c>
+      <c r="X102" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103" t="s">
+        <v>22</v>
+      </c>
+      <c r="F103">
+        <v>9289313681</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
+      <c r="H103" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" t="s">
+        <v>58</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K103" t="s">
+        <v>17</v>
+      </c>
+      <c r="L103" t="s">
+        <v>41</v>
+      </c>
+      <c r="S103">
+        <v>2021</v>
+      </c>
+      <c r="T103" t="s">
+        <v>44</v>
+      </c>
+      <c r="U103" t="s">
+        <v>32</v>
+      </c>
+      <c r="V103" t="s">
+        <v>33</v>
+      </c>
+      <c r="W103">
+        <v>1250000</v>
+      </c>
+      <c r="X103" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>372</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC103" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{C73021F9-7358-4A0E-80BE-BDAB1CCB9072}"/>
-    <hyperlink ref="C25" r:id="rId2" xr:uid="{0C8E5FD6-078E-4F26-8574-C24C75780411}"/>
-    <hyperlink ref="C26" r:id="rId3" xr:uid="{235B6DBA-EC42-4794-B876-39E9626BB09E}"/>
-    <hyperlink ref="C27" r:id="rId4" xr:uid="{144CCD30-2AFD-4ADA-8FBA-09D23EF3CC51}"/>
-    <hyperlink ref="C28" r:id="rId5" xr:uid="{38C4BF4C-A4BD-4F7A-A52B-2035BB7F24B8}"/>
-    <hyperlink ref="C3" r:id="rId6" xr:uid="{2B981653-69B8-4E65-8F61-F23171023C69}"/>
-    <hyperlink ref="C4" r:id="rId7" xr:uid="{12EB8465-664D-4F53-ACBE-C3B822ACA4C2}"/>
-    <hyperlink ref="C5" r:id="rId8" xr:uid="{9C791242-DB13-4101-A9E7-5F0D3D279F1E}"/>
-    <hyperlink ref="C6" r:id="rId9" xr:uid="{11976BF5-A7FC-4C5E-98A1-CF0AF4871D40}"/>
-    <hyperlink ref="C7" r:id="rId10" xr:uid="{AEFCE6F2-CD07-4B4B-B11D-448F3C7A4627}"/>
-    <hyperlink ref="C8" r:id="rId11" xr:uid="{CF380FB1-1B77-4AE3-971C-04DA0459A8E4}"/>
-    <hyperlink ref="C9" r:id="rId12" xr:uid="{FBC37877-640F-40F4-9ECA-3448F74A5DDB}"/>
-    <hyperlink ref="C10" r:id="rId13" xr:uid="{8D9933E8-BCDB-4DE6-90FB-0E887E6973B6}"/>
-    <hyperlink ref="C11" r:id="rId14" xr:uid="{97FBB0E0-E0C8-4267-9AC3-AC1D05DEDB44}"/>
-    <hyperlink ref="C12" r:id="rId15" xr:uid="{42C07C2E-2881-4A5E-8F18-719CDF014CE5}"/>
-    <hyperlink ref="C13" r:id="rId16" xr:uid="{16DDD1D0-F94F-43AF-B72B-EF85322DDE6D}"/>
-    <hyperlink ref="C14" r:id="rId17" xr:uid="{B4330326-E8D0-4F1E-9A71-1176CB288E29}"/>
-    <hyperlink ref="C15" r:id="rId18" xr:uid="{3A6C930C-C825-4C3B-AD8E-6472D5C551E7}"/>
-    <hyperlink ref="C16" r:id="rId19" xr:uid="{F55CC217-ECEA-44A6-A79B-4367B34E3422}"/>
-    <hyperlink ref="C17" r:id="rId20" xr:uid="{59E1BE12-CDA6-4D0C-B79D-66B7CC34DC2C}"/>
-    <hyperlink ref="C18" r:id="rId21" xr:uid="{0C41532C-FEAC-4FED-912E-0DAA288DBB8B}"/>
-    <hyperlink ref="C19" r:id="rId22" xr:uid="{AA467CDD-0454-4540-98DA-CF1A938CC6CC}"/>
-    <hyperlink ref="C20" r:id="rId23" xr:uid="{A2287B7E-7CE7-48C3-AED1-E5C0FBA927A4}"/>
-    <hyperlink ref="C21" r:id="rId24" xr:uid="{EFCAB529-D1F7-41AA-9798-B6E8DF0C22D5}"/>
-    <hyperlink ref="C29" r:id="rId25" xr:uid="{9D5969C1-13A4-485A-ACD7-FD0CB525B2A1}"/>
-    <hyperlink ref="C30" r:id="rId26" xr:uid="{A3EEFF11-2223-4835-8752-B6F9C551B641}"/>
-    <hyperlink ref="C31" r:id="rId27" xr:uid="{87F032C5-A205-4C55-B41A-3C0E29A03757}"/>
-    <hyperlink ref="C32" r:id="rId28" xr:uid="{CA9EB07A-76A9-454E-81C7-021ACE195553}"/>
-    <hyperlink ref="C33" r:id="rId29" xr:uid="{22A4EB02-1241-4A6F-AD9D-FDB71C64CAB0}"/>
-    <hyperlink ref="C34" r:id="rId30" xr:uid="{DE2D0F78-D67F-4EF8-A5C0-DDA6F31A0EE4}"/>
-    <hyperlink ref="C35" r:id="rId31" xr:uid="{A3282EFA-FC64-4C22-A3FC-361890D1556F}"/>
-    <hyperlink ref="C22" r:id="rId32" xr:uid="{7E671510-FB0D-46EC-872C-3094B648DD96}"/>
-    <hyperlink ref="C23" r:id="rId33" xr:uid="{36C741D7-6E51-4239-8B0A-348CBF1DCC9B}"/>
-    <hyperlink ref="C24" r:id="rId34" xr:uid="{1B63EC53-291D-4B05-AC07-24E55BD69F51}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{2B981653-69B8-4E65-8F61-F23171023C69}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{12EB8465-664D-4F53-ACBE-C3B822ACA4C2}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{9C791242-DB13-4101-A9E7-5F0D3D279F1E}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{11976BF5-A7FC-4C5E-98A1-CF0AF4871D40}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{AEFCE6F2-CD07-4B4B-B11D-448F3C7A4627}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{CF380FB1-1B77-4AE3-971C-04DA0459A8E4}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{FBC37877-640F-40F4-9ECA-3448F74A5DDB}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{8D9933E8-BCDB-4DE6-90FB-0E887E6973B6}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{97FBB0E0-E0C8-4267-9AC3-AC1D05DEDB44}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{42C07C2E-2881-4A5E-8F18-719CDF014CE5}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{16DDD1D0-F94F-43AF-B72B-EF85322DDE6D}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{B4330326-E8D0-4F1E-9A71-1176CB288E29}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{3A6C930C-C825-4C3B-AD8E-6472D5C551E7}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{F55CC217-ECEA-44A6-A79B-4367B34E3422}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{59E1BE12-CDA6-4D0C-B79D-66B7CC34DC2C}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{0C41532C-FEAC-4FED-912E-0DAA288DBB8B}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{AA467CDD-0454-4540-98DA-CF1A938CC6CC}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{A2287B7E-7CE7-48C3-AED1-E5C0FBA927A4}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{EFCAB529-D1F7-41AA-9798-B6E8DF0C22D5}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{7E671510-FB0D-46EC-872C-3094B648DD96}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{36C741D7-6E51-4239-8B0A-348CBF1DCC9B}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{1B63EC53-291D-4B05-AC07-24E55BD69F51}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{746A80A8-3AF2-4357-A8B6-FD0B5CF61C9D}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{B86AECE9-A392-42DC-9AFC-67FD6B6B7A26}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{5289294C-3781-4102-A765-81002DA1E92E}"/>
+    <hyperlink ref="C28" r:id="rId27" xr:uid="{792BCD51-C680-4458-B55E-1A844389D12A}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{317A5253-1531-40BE-B396-38C23E4945C3}"/>
+    <hyperlink ref="C30" r:id="rId29" xr:uid="{97A1D72D-4E25-498F-A062-6EAB957CB28C}"/>
+    <hyperlink ref="C31" r:id="rId30" xr:uid="{00EE4294-6CB8-4791-B6AC-FDC8F5288DDF}"/>
+    <hyperlink ref="C32" r:id="rId31" xr:uid="{A57A1284-2497-465E-BC73-BC761515A12A}"/>
+    <hyperlink ref="C33" r:id="rId32" xr:uid="{8D8DC524-A7E1-4FFD-ADBD-8D5E3B85D365}"/>
+    <hyperlink ref="C34" r:id="rId33" xr:uid="{1780C47B-8C6E-44AE-9387-478C5B87C1D1}"/>
+    <hyperlink ref="C35" r:id="rId34" xr:uid="{C2CA399E-ABD4-412F-87F3-06E502442A13}"/>
+    <hyperlink ref="C36" r:id="rId35" xr:uid="{832AD4E8-3FB5-4FAA-A25B-E56CFA2F9C60}"/>
+    <hyperlink ref="C37" r:id="rId36" xr:uid="{D92C0784-D245-4A6B-B908-857A5A7C1C07}"/>
+    <hyperlink ref="C38" r:id="rId37" xr:uid="{F26895AE-13AF-49A1-9CB9-3E1365C0C063}"/>
+    <hyperlink ref="C39" r:id="rId38" xr:uid="{1D9E70DD-52A4-41C8-8669-CB0BB53FBCF4}"/>
+    <hyperlink ref="C40" r:id="rId39" xr:uid="{70B39764-5E10-4971-B820-923299F92A6D}"/>
+    <hyperlink ref="C41" r:id="rId40" xr:uid="{DC6E2599-508D-4BA5-AEF5-FD3B1A624CB8}"/>
+    <hyperlink ref="C42" r:id="rId41" xr:uid="{BBD5E533-3777-45E5-9C4A-F421DD9D4CBE}"/>
+    <hyperlink ref="C43" r:id="rId42" xr:uid="{4AD9711D-BA67-409A-B283-CDF60D3BDBB5}"/>
+    <hyperlink ref="C44" r:id="rId43" xr:uid="{BE0AA28B-F772-431E-812F-731BDD36608A}"/>
+    <hyperlink ref="C45" r:id="rId44" xr:uid="{CFA7CE0D-2A4A-4891-9FCC-2E7F40465950}"/>
+    <hyperlink ref="C46" r:id="rId45" xr:uid="{0945C09D-E3DC-4528-86A3-C70C1B793E58}"/>
+    <hyperlink ref="C47" r:id="rId46" xr:uid="{0A20CCEF-0731-4EBD-AB4E-954D8572DDF8}"/>
+    <hyperlink ref="C48" r:id="rId47" xr:uid="{AF5BB6BF-DBE8-4EA2-8DF3-6F286F8D81A9}"/>
+    <hyperlink ref="C49" r:id="rId48" xr:uid="{92798BA9-7ED2-4D67-BF4E-87394447D25F}"/>
+    <hyperlink ref="C50" r:id="rId49" xr:uid="{DAB67FB7-D63B-4C61-A3B2-D58DD9A5A571}"/>
+    <hyperlink ref="C51" r:id="rId50" xr:uid="{D8AEEF8B-A90D-4526-98C3-10AE6E499AB6}"/>
+    <hyperlink ref="C52" r:id="rId51" xr:uid="{39CDA2EF-F655-49E8-98BC-CBC0A6C77AC0}"/>
+    <hyperlink ref="C53" r:id="rId52" xr:uid="{91E855B7-E544-4325-A662-93D5BE3B7371}"/>
+    <hyperlink ref="C54" r:id="rId53" xr:uid="{DD558830-6658-4233-B7CB-8AE71498051A}"/>
+    <hyperlink ref="C55" r:id="rId54" xr:uid="{EFDE75F0-242E-4241-B074-04096F6CB5E6}"/>
+    <hyperlink ref="C56" r:id="rId55" xr:uid="{AF7E794B-9E13-487D-8115-62A2C8E1C364}"/>
+    <hyperlink ref="C57" r:id="rId56" xr:uid="{03DF46BD-F8A2-4613-A00A-9662C283DA8F}"/>
+    <hyperlink ref="C58" r:id="rId57" xr:uid="{847B9214-4829-447C-9FC6-A55E2F64966A}"/>
+    <hyperlink ref="C59" r:id="rId58" xr:uid="{78070916-1E68-46C8-BBB3-95727EEB4F17}"/>
+    <hyperlink ref="C60" r:id="rId59" xr:uid="{34C839DF-FAEE-4614-8A96-C06AC143A0AA}"/>
+    <hyperlink ref="C61" r:id="rId60" xr:uid="{48539117-5C8F-46FD-A6DA-9F5336AFD94F}"/>
+    <hyperlink ref="C62" r:id="rId61" xr:uid="{0365D3C5-AFE4-4241-ACE0-5E46B3557A8F}"/>
+    <hyperlink ref="C63" r:id="rId62" xr:uid="{5032BCD2-A530-41A1-92DB-51A6308065D6}"/>
+    <hyperlink ref="C64" r:id="rId63" xr:uid="{B2F36BF2-E1FB-46BD-A391-6CF0724BCE1F}"/>
+    <hyperlink ref="C65" r:id="rId64" xr:uid="{3FA84E09-0EED-416D-9578-941F513EA614}"/>
+    <hyperlink ref="C66" r:id="rId65" xr:uid="{BD39A191-021F-4D13-9743-0E1A4A92EA96}"/>
+    <hyperlink ref="C67" r:id="rId66" xr:uid="{49906F68-AC57-443E-BC8A-195F4A22818C}"/>
+    <hyperlink ref="C68" r:id="rId67" xr:uid="{4339E5BC-A700-4EDA-AB14-F898468C4601}"/>
+    <hyperlink ref="C69" r:id="rId68" xr:uid="{D595CE00-DC32-407E-92A2-2D9428631BE3}"/>
+    <hyperlink ref="C70" r:id="rId69" xr:uid="{943B530F-9703-4AEC-A8A5-8594C117995B}"/>
+    <hyperlink ref="C71" r:id="rId70" xr:uid="{7FA875E0-3FA0-4259-A8DF-923D67009447}"/>
+    <hyperlink ref="C72" r:id="rId71" xr:uid="{590E4EF3-22EA-4979-9944-B5CAD6234A52}"/>
+    <hyperlink ref="C73" r:id="rId72" xr:uid="{1DAB8E45-0FA8-4204-9777-3781179E7FB6}"/>
+    <hyperlink ref="C74" r:id="rId73" xr:uid="{51FF858A-4068-448C-8D8D-CCA304B53EDE}"/>
+    <hyperlink ref="C75" r:id="rId74" xr:uid="{43FEC1BB-D5D8-4077-9F40-4FF0FD745936}"/>
+    <hyperlink ref="C76" r:id="rId75" xr:uid="{5D7DB7D4-966A-4E57-8166-43D177199886}"/>
+    <hyperlink ref="C77" r:id="rId76" xr:uid="{52C3EED5-5F0A-40A5-924D-519730BE95DC}"/>
+    <hyperlink ref="C78" r:id="rId77" xr:uid="{753CD5E0-EC52-43BF-BDF3-C00215E13211}"/>
+    <hyperlink ref="C79" r:id="rId78" xr:uid="{86491965-1529-4A36-B0DD-B259B017CAC5}"/>
+    <hyperlink ref="C80" r:id="rId79" xr:uid="{184D8758-8DFB-4AE9-8EC5-FAADE4B0FF1E}"/>
+    <hyperlink ref="C81" r:id="rId80" xr:uid="{0DB08444-B4B8-4B74-922C-DB911C8095C2}"/>
+    <hyperlink ref="C82" r:id="rId81" xr:uid="{4A9C3DCB-A5D2-4577-92BB-4A3D2A20FCD7}"/>
+    <hyperlink ref="C83" r:id="rId82" xr:uid="{28E0E258-6B5B-4C98-BA97-7FE06833CE4E}"/>
+    <hyperlink ref="C84" r:id="rId83" xr:uid="{1AA73371-A901-4895-AE8E-1B533588B9D6}"/>
+    <hyperlink ref="C85" r:id="rId84" xr:uid="{4BAF68B8-2AFE-46D3-9CB6-5456B9D7693D}"/>
+    <hyperlink ref="C86" r:id="rId85" xr:uid="{0609A618-84B9-4C77-B9D9-1AFB8848E0FF}"/>
+    <hyperlink ref="C87" r:id="rId86" xr:uid="{FAA2B6B4-E910-43BC-BC68-1F96FCBFF27F}"/>
+    <hyperlink ref="C88" r:id="rId87" xr:uid="{697C7DFD-B5E9-4DB2-8F23-10FDDF0F80DF}"/>
+    <hyperlink ref="C89" r:id="rId88" xr:uid="{EE66C2B6-FCD8-4D23-9AF7-8B9527315DD7}"/>
+    <hyperlink ref="C90" r:id="rId89" xr:uid="{46AF6CDA-AB93-4DFC-B599-CC5D8461B7C3}"/>
+    <hyperlink ref="C91" r:id="rId90" xr:uid="{44AF7841-602D-4918-8BCD-E157257813ED}"/>
+    <hyperlink ref="C92" r:id="rId91" xr:uid="{30A19BA2-522A-48D9-B2DB-BE56E6FE5DFB}"/>
+    <hyperlink ref="C93" r:id="rId92" xr:uid="{B4C2BE7D-0C62-4ED8-810E-3D5E94DAD924}"/>
+    <hyperlink ref="C94" r:id="rId93" xr:uid="{79E2966A-A8B1-4574-9A30-A13C47982F8B}"/>
+    <hyperlink ref="C95" r:id="rId94" xr:uid="{373FCFCC-5708-4E01-B132-28272CA7EAAC}"/>
+    <hyperlink ref="C96" r:id="rId95" xr:uid="{0310F74B-D8F2-4025-AC7E-5BB7238E3677}"/>
+    <hyperlink ref="C97" r:id="rId96" xr:uid="{DF47C0FA-83C9-4BD2-9B12-D0017B295CA3}"/>
+    <hyperlink ref="C98" r:id="rId97" xr:uid="{059BC3D4-9695-40A8-8321-BFBDFC6F08ED}"/>
+    <hyperlink ref="C99" r:id="rId98" xr:uid="{E69B7DD1-1743-4193-A8C4-1EB37DA48415}"/>
+    <hyperlink ref="C100" r:id="rId99" xr:uid="{DCCE6644-219F-4D2E-97A5-801CCE8FAD65}"/>
+    <hyperlink ref="C101" r:id="rId100" xr:uid="{1AB86E80-EC2B-4148-AB07-7410195F3928}"/>
+    <hyperlink ref="C102" r:id="rId101" xr:uid="{ACD89D22-C187-4200-A328-0B53392D5C0B}"/>
+    <hyperlink ref="C103" r:id="rId102" xr:uid="{8E4C37D7-0811-4DB2-AB02-B43F8B26E7B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId35"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId103"/>
 </worksheet>
 </file>
--- a/Sura/DataSource - Emision Motor.xlsx
+++ b/Sura/DataSource - Emision Motor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0719CED8-E40C-4C7D-AE85-25739BE2AEAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B652A1-265F-4631-9115-DA30B289DD93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
   <dimension ref="A1:AC103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3:W103"/>
+      <selection activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sura/DataSource - Emision Motor.xlsx
+++ b/Sura/DataSource - Emision Motor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE21B70D-364D-4FCC-A3B8-2266F12C13DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0B1AAB-6212-4AFF-834D-470C415A8AC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sura/DataSource - Emision Motor.xlsx
+++ b/Sura/DataSource - Emision Motor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B652A1-265F-4631-9115-DA30B289DD93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271D7FAF-C20D-4D12-A1C1-5A251D11EC14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="374">
   <si>
     <t>Usuario</t>
   </si>
@@ -176,9 +176,6 @@
     <t>3 meses</t>
   </si>
   <si>
-    <t>1 Mes</t>
-  </si>
-  <si>
     <t>02/12/2020</t>
   </si>
   <si>
@@ -200,9 +197,6 @@
     <t>02/02/2021</t>
   </si>
   <si>
-    <t>4 Meses</t>
-  </si>
-  <si>
     <t>05/11/2020</t>
   </si>
   <si>
@@ -212,9 +206,6 @@
     <t>07/11/2020</t>
   </si>
   <si>
-    <t>6 Messes</t>
-  </si>
-  <si>
     <t>07/09/2020</t>
   </si>
   <si>
@@ -224,9 +215,6 @@
     <t>09/09/2020</t>
   </si>
   <si>
-    <t>3 Meses</t>
-  </si>
-  <si>
     <t>17/01/2021</t>
   </si>
   <si>
@@ -1155,6 +1143,21 @@
   </si>
   <si>
     <t>ZAZ123SRFA136</t>
+  </si>
+  <si>
+    <t>Débito Bancario</t>
+  </si>
+  <si>
+    <t>1 mes</t>
+  </si>
+  <si>
+    <t>4 meses</t>
+  </si>
+  <si>
+    <t>6 messes</t>
+  </si>
+  <si>
+    <t>6 meses</t>
   </si>
 </sst>
 </file>
@@ -1190,12 +1193,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1211,12 +1220,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1525,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I102" sqref="I102"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I102" sqref="I102:I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1674,7 +1688,7 @@
         <v>45</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -1695,19 +1709,19 @@
         <v>33</v>
       </c>
       <c r="W2">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X2" t="s">
         <v>40</v>
       </c>
       <c r="Y2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Z2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AA2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AB2" t="s">
         <v>18</v>
@@ -1746,7 +1760,7 @@
         <v>45</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
@@ -1767,19 +1781,19 @@
         <v>33</v>
       </c>
       <c r="W3">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X3" t="s">
         <v>40</v>
       </c>
       <c r="Y3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Z3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AA3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AB3" t="s">
         <v>18</v>
@@ -1818,7 +1832,7 @@
         <v>45</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
         <v>17</v>
@@ -1839,19 +1853,19 @@
         <v>33</v>
       </c>
       <c r="W4">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X4" t="s">
         <v>40</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Z4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AA4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AB4" t="s">
         <v>18</v>
@@ -1890,7 +1904,7 @@
         <v>45</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
         <v>17</v>
@@ -1911,19 +1925,19 @@
         <v>33</v>
       </c>
       <c r="W5">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X5" t="s">
         <v>40</v>
       </c>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Z5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="AA5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AB5" t="s">
         <v>18</v>
@@ -1962,7 +1976,7 @@
         <v>45</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" t="s">
         <v>17</v>
@@ -1983,19 +1997,19 @@
         <v>33</v>
       </c>
       <c r="W6">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X6" t="s">
         <v>40</v>
       </c>
       <c r="Y6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Z6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AA6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AB6" t="s">
         <v>18</v>
@@ -2034,7 +2048,7 @@
         <v>45</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" t="s">
         <v>17</v>
@@ -2055,600 +2069,648 @@
         <v>33</v>
       </c>
       <c r="W7">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X7" t="s">
         <v>40</v>
       </c>
       <c r="Y7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="9">
+        <v>5712176326</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="9">
+        <v>5712176326</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W9" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="9">
+        <v>5712176326</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W10" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="9">
+        <v>5712176326</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W11" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="Z11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AA11" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AB7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="AB11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="9">
         <v>5712176326</v>
       </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" t="s">
-        <v>41</v>
-      </c>
-      <c r="S8">
-        <v>2021</v>
-      </c>
-      <c r="T8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U8" t="s">
-        <v>32</v>
-      </c>
-      <c r="V8" t="s">
-        <v>33</v>
-      </c>
-      <c r="W8">
-        <v>1250000</v>
-      </c>
-      <c r="X8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y8" t="s">
+      <c r="G12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W12" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y12" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="Z12" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AA12" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="AB8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="AB12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC12" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="9">
         <v>5712176326</v>
       </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" t="s">
-        <v>41</v>
-      </c>
-      <c r="S9">
-        <v>2021</v>
-      </c>
-      <c r="T9" t="s">
-        <v>44</v>
-      </c>
-      <c r="U9" t="s">
-        <v>32</v>
-      </c>
-      <c r="V9" t="s">
-        <v>33</v>
-      </c>
-      <c r="W9">
-        <v>1250000</v>
-      </c>
-      <c r="X9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y9" t="s">
+      <c r="G13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W13" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Z13" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AA13" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AB9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="AB13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="9">
         <v>5712176326</v>
       </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" t="s">
-        <v>41</v>
-      </c>
-      <c r="S10">
-        <v>2021</v>
-      </c>
-      <c r="T10" t="s">
-        <v>44</v>
-      </c>
-      <c r="U10" t="s">
-        <v>32</v>
-      </c>
-      <c r="V10" t="s">
-        <v>33</v>
-      </c>
-      <c r="W10">
-        <v>1250000</v>
-      </c>
-      <c r="X10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y10" t="s">
+      <c r="G14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W14" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Z14" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AA14" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="AB10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="AB14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="9">
         <v>5712176326</v>
       </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" t="s">
-        <v>41</v>
-      </c>
-      <c r="S11">
-        <v>2021</v>
-      </c>
-      <c r="T11" t="s">
-        <v>44</v>
-      </c>
-      <c r="U11" t="s">
-        <v>32</v>
-      </c>
-      <c r="V11" t="s">
-        <v>33</v>
-      </c>
-      <c r="W11">
-        <v>1250000</v>
-      </c>
-      <c r="X11" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y11" t="s">
+      <c r="G15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W15" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Z15" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AA15" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="AB11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="3">
-        <v>5712176326</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" t="s">
-        <v>41</v>
-      </c>
-      <c r="S12">
-        <v>2021</v>
-      </c>
-      <c r="T12" t="s">
-        <v>44</v>
-      </c>
-      <c r="U12" t="s">
-        <v>32</v>
-      </c>
-      <c r="V12" t="s">
-        <v>33</v>
-      </c>
-      <c r="W12">
-        <v>1250000</v>
-      </c>
-      <c r="X12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="3">
-        <v>5712176326</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" t="s">
-        <v>41</v>
-      </c>
-      <c r="S13">
-        <v>2021</v>
-      </c>
-      <c r="T13" t="s">
-        <v>44</v>
-      </c>
-      <c r="U13" t="s">
-        <v>32</v>
-      </c>
-      <c r="V13" t="s">
-        <v>33</v>
-      </c>
-      <c r="W13">
-        <v>1250000</v>
-      </c>
-      <c r="X13" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="3">
-        <v>5712176326</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" t="s">
-        <v>41</v>
-      </c>
-      <c r="S14">
-        <v>2021</v>
-      </c>
-      <c r="T14" t="s">
-        <v>44</v>
-      </c>
-      <c r="U14" t="s">
-        <v>32</v>
-      </c>
-      <c r="V14" t="s">
-        <v>33</v>
-      </c>
-      <c r="W14">
-        <v>1250000</v>
-      </c>
-      <c r="X14" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="3">
-        <v>5712176326</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" t="s">
-        <v>41</v>
-      </c>
-      <c r="S15">
-        <v>2021</v>
-      </c>
-      <c r="T15" t="s">
-        <v>44</v>
-      </c>
-      <c r="U15" t="s">
-        <v>32</v>
-      </c>
-      <c r="V15" t="s">
-        <v>33</v>
-      </c>
-      <c r="W15">
-        <v>1250000</v>
-      </c>
-      <c r="X15" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC15" t="s">
+      <c r="AB15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC15" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2679,10 +2741,10 @@
         <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>371</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K16" t="s">
         <v>17</v>
@@ -2703,19 +2765,19 @@
         <v>33</v>
       </c>
       <c r="W16">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X16" t="s">
         <v>40</v>
       </c>
       <c r="Y16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Z16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AA16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AB16" t="s">
         <v>18</v>
@@ -2751,10 +2813,10 @@
         <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>54</v>
+        <v>371</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K17" t="s">
         <v>17</v>
@@ -2775,19 +2837,19 @@
         <v>33</v>
       </c>
       <c r="W17">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X17" t="s">
         <v>40</v>
       </c>
       <c r="Y17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AA17" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AB17" t="s">
         <v>18</v>
@@ -2823,10 +2885,10 @@
         <v>16</v>
       </c>
       <c r="I18" t="s">
+        <v>371</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="K18" t="s">
         <v>17</v>
@@ -2847,19 +2909,19 @@
         <v>33</v>
       </c>
       <c r="W18">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X18" t="s">
         <v>40</v>
       </c>
       <c r="Y18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Z18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AA18" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AB18" t="s">
         <v>18</v>
@@ -2895,10 +2957,10 @@
         <v>16</v>
       </c>
       <c r="I19" t="s">
+        <v>371</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="K19" t="s">
         <v>17</v>
@@ -2919,19 +2981,19 @@
         <v>33</v>
       </c>
       <c r="W19">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X19" t="s">
         <v>40</v>
       </c>
       <c r="Y19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Z19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AA19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AB19" t="s">
         <v>18</v>
@@ -2967,10 +3029,10 @@
         <v>16</v>
       </c>
       <c r="I20" t="s">
-        <v>54</v>
+        <v>371</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K20" t="s">
         <v>17</v>
@@ -2991,19 +3053,19 @@
         <v>33</v>
       </c>
       <c r="W20">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X20" t="s">
         <v>40</v>
       </c>
       <c r="Y20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Z20" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AA20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AB20" t="s">
         <v>18</v>
@@ -3039,10 +3101,10 @@
         <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>54</v>
+        <v>371</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K21" t="s">
         <v>17</v>
@@ -3063,19 +3125,19 @@
         <v>33</v>
       </c>
       <c r="W21">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X21" t="s">
         <v>40</v>
       </c>
       <c r="Y21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Z21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AA21" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AB21" t="s">
         <v>18</v>
@@ -3111,10 +3173,10 @@
         <v>16</v>
       </c>
       <c r="I22" t="s">
-        <v>58</v>
+        <v>372</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K22" t="s">
         <v>17</v>
@@ -3144,19 +3206,19 @@
         <v>33</v>
       </c>
       <c r="W22">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X22" t="s">
         <v>40</v>
       </c>
       <c r="Y22" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Z22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AA22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AB22" t="s">
         <v>18</v>
@@ -3192,10 +3254,10 @@
         <v>16</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>372</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K23" t="s">
         <v>17</v>
@@ -3222,19 +3284,19 @@
         <v>33</v>
       </c>
       <c r="W23">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X23" t="s">
         <v>40</v>
       </c>
       <c r="Y23" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Z23" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AA23" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AB23" t="s">
         <v>18</v>
@@ -3270,10 +3332,10 @@
         <v>16</v>
       </c>
       <c r="I24" t="s">
-        <v>58</v>
+        <v>372</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K24" t="s">
         <v>17</v>
@@ -3300,19 +3362,19 @@
         <v>33</v>
       </c>
       <c r="W24">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X24" t="s">
         <v>40</v>
       </c>
       <c r="Y24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z24" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AA24" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AB24" t="s">
         <v>18</v>
@@ -3348,10 +3410,10 @@
         <v>16</v>
       </c>
       <c r="I25" t="s">
-        <v>58</v>
+        <v>372</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K25" t="s">
         <v>17</v>
@@ -3372,19 +3434,19 @@
         <v>33</v>
       </c>
       <c r="W25">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X25" t="s">
         <v>40</v>
       </c>
       <c r="Y25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Z25" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AA25" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AB25" t="s">
         <v>18</v>
@@ -3420,10 +3482,10 @@
         <v>16</v>
       </c>
       <c r="I26" t="s">
+        <v>372</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="K26" t="s">
         <v>17</v>
@@ -3446,19 +3508,19 @@
         <v>33</v>
       </c>
       <c r="W26">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X26" t="s">
         <v>40</v>
       </c>
       <c r="Y26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Z26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AA26" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AB26" t="s">
         <v>18</v>
@@ -3494,10 +3556,10 @@
         <v>16</v>
       </c>
       <c r="I27" t="s">
+        <v>372</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="K27" t="s">
         <v>17</v>
@@ -3519,19 +3581,19 @@
         <v>33</v>
       </c>
       <c r="W27">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X27" t="s">
         <v>40</v>
       </c>
       <c r="Y27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Z27" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AA27" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AB27" t="s">
         <v>18</v>
@@ -3540,147 +3602,159 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="B28" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="9">
         <v>5712176326</v>
       </c>
-      <c r="G28" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" t="s">
-        <v>46</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K28" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" t="s">
-        <v>41</v>
-      </c>
-      <c r="S28">
-        <v>2021</v>
-      </c>
-      <c r="T28" t="s">
-        <v>44</v>
-      </c>
-      <c r="U28" t="s">
-        <v>32</v>
-      </c>
-      <c r="V28" t="s">
-        <v>33</v>
-      </c>
-      <c r="W28">
-        <v>1250000</v>
-      </c>
-      <c r="X28" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="G28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S28" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W28" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y28" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z28" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA28" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC28" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="B29" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="9">
         <v>5712176326</v>
       </c>
-      <c r="G29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" t="s">
-        <v>46</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K29" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" t="s">
-        <v>41</v>
-      </c>
-      <c r="S29">
-        <v>2021</v>
-      </c>
-      <c r="T29" t="s">
-        <v>44</v>
-      </c>
-      <c r="U29" t="s">
-        <v>32</v>
-      </c>
-      <c r="V29" t="s">
-        <v>33</v>
-      </c>
-      <c r="W29">
-        <v>1250000</v>
-      </c>
-      <c r="X29" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC29" t="s">
+      <c r="G29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S29" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W29" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y29" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z29" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA29" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC29" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3711,10 +3785,10 @@
         <v>16</v>
       </c>
       <c r="I30" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K30" t="s">
         <v>17</v>
@@ -3735,19 +3809,19 @@
         <v>33</v>
       </c>
       <c r="W30">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X30" t="s">
         <v>40</v>
       </c>
       <c r="Y30" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Z30" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AA30" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AB30" t="s">
         <v>18</v>
@@ -3783,10 +3857,10 @@
         <v>16</v>
       </c>
       <c r="I31" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K31" t="s">
         <v>17</v>
@@ -3807,19 +3881,19 @@
         <v>33</v>
       </c>
       <c r="W31">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X31" t="s">
         <v>40</v>
       </c>
       <c r="Y31" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Z31" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AA31" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AB31" t="s">
         <v>18</v>
@@ -3855,10 +3929,10 @@
         <v>16</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
+        <v>371</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K32" t="s">
         <v>17</v>
@@ -3879,19 +3953,19 @@
         <v>33</v>
       </c>
       <c r="W32">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X32" t="s">
         <v>40</v>
       </c>
       <c r="Y32" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Z32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AA32" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AB32" t="s">
         <v>18</v>
@@ -3927,10 +4001,10 @@
         <v>16</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
+        <v>371</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K33" t="s">
         <v>17</v>
@@ -3951,19 +4025,19 @@
         <v>33</v>
       </c>
       <c r="W33">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X33" t="s">
         <v>40</v>
       </c>
       <c r="Y33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Z33" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AA33" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AB33" t="s">
         <v>18</v>
@@ -3999,10 +4073,10 @@
         <v>16</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
+        <v>372</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K34" t="s">
         <v>17</v>
@@ -4023,19 +4097,19 @@
         <v>33</v>
       </c>
       <c r="W34">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X34" t="s">
         <v>40</v>
       </c>
       <c r="Y34" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Z34" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AA34" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AB34" t="s">
         <v>18</v>
@@ -4071,10 +4145,10 @@
         <v>16</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
+        <v>372</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K35" t="s">
         <v>17</v>
@@ -4095,19 +4169,19 @@
         <v>33</v>
       </c>
       <c r="W35">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X35" t="s">
         <v>40</v>
       </c>
       <c r="Y35" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Z35" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AA35" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AB35" t="s">
         <v>18</v>
@@ -4146,7 +4220,7 @@
         <v>45</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K36" t="s">
         <v>17</v>
@@ -4167,19 +4241,19 @@
         <v>33</v>
       </c>
       <c r="W36">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X36" t="s">
         <v>40</v>
       </c>
       <c r="Y36" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Z36" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AA36" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AB36" t="s">
         <v>18</v>
@@ -4218,7 +4292,7 @@
         <v>45</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K37" t="s">
         <v>17</v>
@@ -4239,19 +4313,19 @@
         <v>33</v>
       </c>
       <c r="W37">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X37" t="s">
         <v>40</v>
       </c>
       <c r="Y37" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Z37" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AA37" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AB37" t="s">
         <v>18</v>
@@ -4290,7 +4364,7 @@
         <v>45</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K38" t="s">
         <v>17</v>
@@ -4311,19 +4385,19 @@
         <v>33</v>
       </c>
       <c r="W38">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X38" t="s">
         <v>40</v>
       </c>
       <c r="Y38" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Z38" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AA38" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AB38" t="s">
         <v>18</v>
@@ -4362,7 +4436,7 @@
         <v>45</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K39" t="s">
         <v>17</v>
@@ -4383,19 +4457,19 @@
         <v>33</v>
       </c>
       <c r="W39">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X39" t="s">
         <v>40</v>
       </c>
       <c r="Y39" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Z39" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AA39" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AB39" t="s">
         <v>18</v>
@@ -4434,7 +4508,7 @@
         <v>45</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K40" t="s">
         <v>17</v>
@@ -4455,19 +4529,19 @@
         <v>33</v>
       </c>
       <c r="W40">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X40" t="s">
         <v>40</v>
       </c>
       <c r="Y40" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Z40" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AA40" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AB40" t="s">
         <v>18</v>
@@ -4506,7 +4580,7 @@
         <v>45</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K41" t="s">
         <v>17</v>
@@ -4527,600 +4601,648 @@
         <v>33</v>
       </c>
       <c r="W41">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X41" t="s">
         <v>40</v>
       </c>
       <c r="Y41" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="5">
+        <v>6805355158</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S42" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W42" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y42" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z42" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA42" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="AB42" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC42" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="5">
+        <v>6805355158</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S43" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W43" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X43" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y43" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z43" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA43" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC43" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="5">
+        <v>6805355158</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R44" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S44" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W44" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X44" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y44" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z44" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA44" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB44" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC44" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="5">
+        <v>6805355158</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S45" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T45" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W45" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X45" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y45" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Z45" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AA45" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="AB41" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42">
+      <c r="AB45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC45" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="5">
         <v>6805355158</v>
       </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="G46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R46" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S46" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T46" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U46" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V46" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W46" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X46" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y46" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z46" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA46" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC46" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="J42" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K42" t="s">
-        <v>17</v>
-      </c>
-      <c r="L42" t="s">
-        <v>41</v>
-      </c>
-      <c r="S42">
-        <v>2021</v>
-      </c>
-      <c r="T42" t="s">
-        <v>44</v>
-      </c>
-      <c r="U42" t="s">
-        <v>32</v>
-      </c>
-      <c r="V42" t="s">
-        <v>33</v>
-      </c>
-      <c r="W42">
-        <v>1250000</v>
-      </c>
-      <c r="X42" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43">
+      <c r="B47" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="5">
         <v>6805355158</v>
       </c>
-      <c r="G43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" t="s">
-        <v>46</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K43" t="s">
-        <v>17</v>
-      </c>
-      <c r="L43" t="s">
-        <v>41</v>
-      </c>
-      <c r="S43">
-        <v>2021</v>
-      </c>
-      <c r="T43" t="s">
-        <v>44</v>
-      </c>
-      <c r="U43" t="s">
-        <v>32</v>
-      </c>
-      <c r="V43" t="s">
-        <v>33</v>
-      </c>
-      <c r="W43">
-        <v>1250000</v>
-      </c>
-      <c r="X43" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y43" t="s">
+      <c r="G47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R47" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S47" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T47" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U47" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V47" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W47" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X47" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y47" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Z47" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AA47" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="AB43" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44">
+      <c r="AB47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC47" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="5">
         <v>6805355158</v>
       </c>
-      <c r="G44" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" t="s">
-        <v>46</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K44" t="s">
-        <v>17</v>
-      </c>
-      <c r="L44" t="s">
-        <v>41</v>
-      </c>
-      <c r="S44">
-        <v>2021</v>
-      </c>
-      <c r="T44" t="s">
-        <v>44</v>
-      </c>
-      <c r="U44" t="s">
-        <v>32</v>
-      </c>
-      <c r="V44" t="s">
-        <v>33</v>
-      </c>
-      <c r="W44">
-        <v>1250000</v>
-      </c>
-      <c r="X44" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y44" t="s">
+      <c r="G48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S48" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V48" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W48" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X48" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y48" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Z48" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AA48" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="AB44" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F45">
+      <c r="AB48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC48" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="5">
         <v>6805355158</v>
       </c>
-      <c r="G45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" t="s">
-        <v>46</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K45" t="s">
-        <v>17</v>
-      </c>
-      <c r="L45" t="s">
-        <v>41</v>
-      </c>
-      <c r="S45">
-        <v>2021</v>
-      </c>
-      <c r="T45" t="s">
-        <v>44</v>
-      </c>
-      <c r="U45" t="s">
-        <v>32</v>
-      </c>
-      <c r="V45" t="s">
-        <v>33</v>
-      </c>
-      <c r="W45">
-        <v>1250000</v>
-      </c>
-      <c r="X45" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y45" t="s">
+      <c r="G49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R49" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S49" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U49" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V49" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W49" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y49" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Z49" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AA49" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="AB45" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46">
-        <v>6805355158</v>
-      </c>
-      <c r="G46" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" t="s">
-        <v>46</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K46" t="s">
-        <v>17</v>
-      </c>
-      <c r="L46" t="s">
-        <v>41</v>
-      </c>
-      <c r="S46">
-        <v>2021</v>
-      </c>
-      <c r="T46" t="s">
-        <v>44</v>
-      </c>
-      <c r="U46" t="s">
-        <v>32</v>
-      </c>
-      <c r="V46" t="s">
-        <v>33</v>
-      </c>
-      <c r="W46">
-        <v>1250000</v>
-      </c>
-      <c r="X46" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47">
-        <v>6805355158</v>
-      </c>
-      <c r="G47" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" t="s">
-        <v>46</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K47" t="s">
-        <v>17</v>
-      </c>
-      <c r="L47" t="s">
-        <v>41</v>
-      </c>
-      <c r="S47">
-        <v>2021</v>
-      </c>
-      <c r="T47" t="s">
-        <v>44</v>
-      </c>
-      <c r="U47" t="s">
-        <v>32</v>
-      </c>
-      <c r="V47" t="s">
-        <v>33</v>
-      </c>
-      <c r="W47">
-        <v>1250000</v>
-      </c>
-      <c r="X47" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D48" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48">
-        <v>6805355158</v>
-      </c>
-      <c r="G48" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" t="s">
-        <v>46</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K48" t="s">
-        <v>17</v>
-      </c>
-      <c r="L48" t="s">
-        <v>41</v>
-      </c>
-      <c r="S48">
-        <v>2021</v>
-      </c>
-      <c r="T48" t="s">
-        <v>44</v>
-      </c>
-      <c r="U48" t="s">
-        <v>32</v>
-      </c>
-      <c r="V48" t="s">
-        <v>33</v>
-      </c>
-      <c r="W48">
-        <v>1250000</v>
-      </c>
-      <c r="X48" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>249</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49">
-        <v>6805355158</v>
-      </c>
-      <c r="G49" t="s">
-        <v>13</v>
-      </c>
-      <c r="H49" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" t="s">
-        <v>46</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K49" t="s">
-        <v>17</v>
-      </c>
-      <c r="L49" t="s">
-        <v>41</v>
-      </c>
-      <c r="S49">
-        <v>2021</v>
-      </c>
-      <c r="T49" t="s">
-        <v>44</v>
-      </c>
-      <c r="U49" t="s">
-        <v>32</v>
-      </c>
-      <c r="V49" t="s">
-        <v>33</v>
-      </c>
-      <c r="W49">
-        <v>1250000</v>
-      </c>
-      <c r="X49" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC49" t="s">
+      <c r="AB49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC49" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5151,10 +5273,10 @@
         <v>16</v>
       </c>
       <c r="I50" t="s">
-        <v>54</v>
+        <v>371</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K50" t="s">
         <v>17</v>
@@ -5175,19 +5297,19 @@
         <v>33</v>
       </c>
       <c r="W50">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X50" t="s">
         <v>40</v>
       </c>
       <c r="Y50" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Z50" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AA50" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AB50" t="s">
         <v>18</v>
@@ -5223,10 +5345,10 @@
         <v>16</v>
       </c>
       <c r="I51" t="s">
-        <v>54</v>
+        <v>371</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K51" t="s">
         <v>17</v>
@@ -5247,19 +5369,19 @@
         <v>33</v>
       </c>
       <c r="W51">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X51" t="s">
         <v>40</v>
       </c>
       <c r="Y51" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Z51" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AA51" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AB51" t="s">
         <v>18</v>
@@ -5295,10 +5417,10 @@
         <v>16</v>
       </c>
       <c r="I52" t="s">
+        <v>371</v>
+      </c>
+      <c r="J52" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="K52" t="s">
         <v>17</v>
@@ -5319,19 +5441,19 @@
         <v>33</v>
       </c>
       <c r="W52">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X52" t="s">
         <v>40</v>
       </c>
       <c r="Y52" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Z52" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AA52" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AB52" t="s">
         <v>18</v>
@@ -5367,10 +5489,10 @@
         <v>16</v>
       </c>
       <c r="I53" t="s">
+        <v>371</v>
+      </c>
+      <c r="J53" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="K53" t="s">
         <v>17</v>
@@ -5391,19 +5513,19 @@
         <v>33</v>
       </c>
       <c r="W53">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X53" t="s">
         <v>40</v>
       </c>
       <c r="Y53" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Z53" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AA53" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AB53" t="s">
         <v>18</v>
@@ -5439,10 +5561,10 @@
         <v>16</v>
       </c>
       <c r="I54" t="s">
-        <v>54</v>
+        <v>371</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K54" t="s">
         <v>17</v>
@@ -5463,19 +5585,19 @@
         <v>33</v>
       </c>
       <c r="W54">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X54" t="s">
         <v>40</v>
       </c>
       <c r="Y54" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Z54" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AA54" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AB54" t="s">
         <v>18</v>
@@ -5511,10 +5633,10 @@
         <v>16</v>
       </c>
       <c r="I55" t="s">
-        <v>54</v>
+        <v>371</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K55" t="s">
         <v>17</v>
@@ -5535,19 +5657,19 @@
         <v>33</v>
       </c>
       <c r="W55">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X55" t="s">
         <v>40</v>
       </c>
       <c r="Y55" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Z55" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AA55" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AB55" t="s">
         <v>18</v>
@@ -5583,10 +5705,10 @@
         <v>16</v>
       </c>
       <c r="I56" t="s">
-        <v>58</v>
+        <v>373</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K56" t="s">
         <v>17</v>
@@ -5607,19 +5729,19 @@
         <v>33</v>
       </c>
       <c r="W56">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X56" t="s">
         <v>40</v>
       </c>
       <c r="Y56" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Z56" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AA56" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AB56" t="s">
         <v>18</v>
@@ -5655,10 +5777,10 @@
         <v>16</v>
       </c>
       <c r="I57" t="s">
-        <v>58</v>
+        <v>373</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K57" t="s">
         <v>17</v>
@@ -5679,19 +5801,19 @@
         <v>33</v>
       </c>
       <c r="W57">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X57" t="s">
         <v>40</v>
       </c>
       <c r="Y57" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Z57" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AA57" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AB57" t="s">
         <v>18</v>
@@ -5727,10 +5849,10 @@
         <v>16</v>
       </c>
       <c r="I58" t="s">
-        <v>58</v>
+        <v>373</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K58" t="s">
         <v>17</v>
@@ -5751,19 +5873,19 @@
         <v>33</v>
       </c>
       <c r="W58">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X58" t="s">
         <v>40</v>
       </c>
       <c r="Y58" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Z58" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AA58" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AB58" t="s">
         <v>18</v>
@@ -5799,10 +5921,10 @@
         <v>16</v>
       </c>
       <c r="I59" t="s">
-        <v>58</v>
+        <v>373</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K59" t="s">
         <v>17</v>
@@ -5823,19 +5945,19 @@
         <v>33</v>
       </c>
       <c r="W59">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X59" t="s">
         <v>40</v>
       </c>
       <c r="Y59" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Z59" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AA59" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AB59" t="s">
         <v>18</v>
@@ -5871,10 +5993,10 @@
         <v>16</v>
       </c>
       <c r="I60" t="s">
+        <v>373</v>
+      </c>
+      <c r="J60" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="K60" t="s">
         <v>17</v>
@@ -5895,19 +6017,19 @@
         <v>33</v>
       </c>
       <c r="W60">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X60" t="s">
         <v>40</v>
       </c>
       <c r="Y60" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Z60" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AA60" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AB60" t="s">
         <v>18</v>
@@ -5943,10 +6065,10 @@
         <v>16</v>
       </c>
       <c r="I61" t="s">
+        <v>373</v>
+      </c>
+      <c r="J61" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="K61" t="s">
         <v>17</v>
@@ -5967,19 +6089,19 @@
         <v>33</v>
       </c>
       <c r="W61">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X61" t="s">
         <v>40</v>
       </c>
       <c r="Y61" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Z61" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AA61" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AB61" t="s">
         <v>18</v>
@@ -5988,147 +6110,159 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D62" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62">
+      <c r="B62" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="5">
         <v>6805355158</v>
       </c>
-      <c r="G62" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" t="s">
-        <v>16</v>
-      </c>
-      <c r="I62" t="s">
-        <v>46</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K62" t="s">
-        <v>17</v>
-      </c>
-      <c r="L62" t="s">
-        <v>41</v>
-      </c>
-      <c r="S62">
-        <v>2021</v>
-      </c>
-      <c r="T62" t="s">
-        <v>44</v>
-      </c>
-      <c r="U62" t="s">
-        <v>32</v>
-      </c>
-      <c r="V62" t="s">
-        <v>33</v>
-      </c>
-      <c r="W62">
-        <v>1250000</v>
-      </c>
-      <c r="X62" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>263</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC62" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="G62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q62" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R62" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S62" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T62" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U62" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V62" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W62" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X62" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y62" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z62" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA62" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC62" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D63" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" t="s">
-        <v>22</v>
-      </c>
-      <c r="F63">
+      <c r="B63" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" s="5">
         <v>6805355158</v>
       </c>
-      <c r="G63" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" t="s">
-        <v>16</v>
-      </c>
-      <c r="I63" t="s">
-        <v>46</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K63" t="s">
-        <v>17</v>
-      </c>
-      <c r="L63" t="s">
-        <v>41</v>
-      </c>
-      <c r="S63">
-        <v>2021</v>
-      </c>
-      <c r="T63" t="s">
-        <v>44</v>
-      </c>
-      <c r="U63" t="s">
-        <v>32</v>
-      </c>
-      <c r="V63" t="s">
-        <v>33</v>
-      </c>
-      <c r="W63">
-        <v>1250000</v>
-      </c>
-      <c r="X63" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>264</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC63" t="s">
+      <c r="G63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q63" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R63" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S63" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T63" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U63" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V63" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W63" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X63" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y63" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z63" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA63" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB63" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC63" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6159,10 +6293,10 @@
         <v>16</v>
       </c>
       <c r="I64" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K64" t="s">
         <v>17</v>
@@ -6183,19 +6317,19 @@
         <v>33</v>
       </c>
       <c r="W64">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X64" t="s">
         <v>40</v>
       </c>
       <c r="Y64" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Z64" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AA64" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AB64" t="s">
         <v>18</v>
@@ -6231,10 +6365,10 @@
         <v>16</v>
       </c>
       <c r="I65" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K65" t="s">
         <v>17</v>
@@ -6255,19 +6389,19 @@
         <v>33</v>
       </c>
       <c r="W65">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X65" t="s">
         <v>40</v>
       </c>
       <c r="Y65" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Z65" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AA65" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="AB65" t="s">
         <v>18</v>
@@ -6303,10 +6437,10 @@
         <v>16</v>
       </c>
       <c r="I66" t="s">
-        <v>54</v>
+        <v>371</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K66" t="s">
         <v>17</v>
@@ -6327,19 +6461,19 @@
         <v>33</v>
       </c>
       <c r="W66">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X66" t="s">
         <v>40</v>
       </c>
       <c r="Y66" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Z66" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AA66" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AB66" t="s">
         <v>18</v>
@@ -6375,10 +6509,10 @@
         <v>16</v>
       </c>
       <c r="I67" t="s">
-        <v>54</v>
+        <v>371</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K67" t="s">
         <v>17</v>
@@ -6399,19 +6533,19 @@
         <v>33</v>
       </c>
       <c r="W67">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X67" t="s">
         <v>40</v>
       </c>
       <c r="Y67" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Z67" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AA67" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AB67" t="s">
         <v>18</v>
@@ -6447,10 +6581,10 @@
         <v>16</v>
       </c>
       <c r="I68" t="s">
-        <v>58</v>
+        <v>373</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K68" t="s">
         <v>17</v>
@@ -6471,19 +6605,19 @@
         <v>33</v>
       </c>
       <c r="W68">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X68" t="s">
         <v>40</v>
       </c>
       <c r="Y68" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Z68" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AA68" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AB68" t="s">
         <v>18</v>
@@ -6519,10 +6653,10 @@
         <v>16</v>
       </c>
       <c r="I69" t="s">
-        <v>58</v>
+        <v>373</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K69" t="s">
         <v>17</v>
@@ -6543,19 +6677,19 @@
         <v>33</v>
       </c>
       <c r="W69">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X69" t="s">
         <v>40</v>
       </c>
       <c r="Y69" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Z69" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AA69" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AB69" t="s">
         <v>18</v>
@@ -6594,7 +6728,7 @@
         <v>45</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K70" t="s">
         <v>17</v>
@@ -6615,19 +6749,19 @@
         <v>33</v>
       </c>
       <c r="W70">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X70" t="s">
         <v>40</v>
       </c>
       <c r="Y70" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Z70" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AA70" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AB70" t="s">
         <v>18</v>
@@ -6666,7 +6800,7 @@
         <v>45</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K71" t="s">
         <v>17</v>
@@ -6687,19 +6821,19 @@
         <v>33</v>
       </c>
       <c r="W71">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X71" t="s">
         <v>40</v>
       </c>
       <c r="Y71" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Z71" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AA71" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AB71" t="s">
         <v>18</v>
@@ -6738,7 +6872,7 @@
         <v>45</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K72" t="s">
         <v>17</v>
@@ -6759,19 +6893,19 @@
         <v>33</v>
       </c>
       <c r="W72">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X72" t="s">
         <v>40</v>
       </c>
       <c r="Y72" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Z72" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AA72" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AB72" t="s">
         <v>18</v>
@@ -6810,7 +6944,7 @@
         <v>45</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K73" t="s">
         <v>17</v>
@@ -6831,19 +6965,19 @@
         <v>33</v>
       </c>
       <c r="W73">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X73" t="s">
         <v>40</v>
       </c>
       <c r="Y73" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Z73" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AA73" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AB73" t="s">
         <v>18</v>
@@ -6882,7 +7016,7 @@
         <v>45</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K74" t="s">
         <v>17</v>
@@ -6903,19 +7037,19 @@
         <v>33</v>
       </c>
       <c r="W74">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X74" t="s">
         <v>40</v>
       </c>
       <c r="Y74" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Z74" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AA74" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AB74" t="s">
         <v>18</v>
@@ -6954,7 +7088,7 @@
         <v>45</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K75" t="s">
         <v>17</v>
@@ -6975,600 +7109,648 @@
         <v>33</v>
       </c>
       <c r="W75">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X75" t="s">
         <v>40</v>
       </c>
       <c r="Y75" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>306</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="B76" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" s="5">
+        <v>9289313681</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q76" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R76" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S76" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T76" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U76" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V76" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W76" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X76" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y76" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z76" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA76" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB76" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC76" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>76</v>
+      </c>
+      <c r="B77" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="5">
+        <v>9289313681</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q77" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R77" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S77" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T77" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U77" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V77" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W77" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X77" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y77" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z77" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA77" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB77" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC77" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>77</v>
+      </c>
+      <c r="B78" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="5">
+        <v>9289313681</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q78" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R78" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S78" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T78" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U78" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V78" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W78" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X78" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y78" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z78" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA78" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="AB78" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC78" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>78</v>
+      </c>
+      <c r="B79" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="5">
+        <v>9289313681</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q79" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R79" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S79" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T79" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U79" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V79" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W79" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X79" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y79" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Z79" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AA79" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="AB75" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC75" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D76" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F76">
+      <c r="AB79" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC79" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>79</v>
+      </c>
+      <c r="B80" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" s="5">
         <v>9289313681</v>
       </c>
-      <c r="G76" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" t="s">
-        <v>16</v>
-      </c>
-      <c r="I76" t="s">
-        <v>46</v>
-      </c>
-      <c r="J76" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K76" t="s">
-        <v>17</v>
-      </c>
-      <c r="L76" t="s">
-        <v>41</v>
-      </c>
-      <c r="S76">
-        <v>2021</v>
-      </c>
-      <c r="T76" t="s">
-        <v>44</v>
-      </c>
-      <c r="U76" t="s">
-        <v>32</v>
-      </c>
-      <c r="V76" t="s">
-        <v>33</v>
-      </c>
-      <c r="W76">
-        <v>1250000</v>
-      </c>
-      <c r="X76" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y76" t="s">
+      <c r="G80" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q80" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R80" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S80" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T80" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U80" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V80" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W80" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X80" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y80" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Z80" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AA80" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="AB76" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC76" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D77" t="s">
-        <v>19</v>
-      </c>
-      <c r="E77" t="s">
-        <v>22</v>
-      </c>
-      <c r="F77">
+      <c r="AB80" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC80" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>80</v>
+      </c>
+      <c r="B81" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="5">
         <v>9289313681</v>
       </c>
-      <c r="G77" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" t="s">
-        <v>16</v>
-      </c>
-      <c r="I77" t="s">
-        <v>46</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K77" t="s">
-        <v>17</v>
-      </c>
-      <c r="L77" t="s">
-        <v>41</v>
-      </c>
-      <c r="S77">
-        <v>2021</v>
-      </c>
-      <c r="T77" t="s">
-        <v>44</v>
-      </c>
-      <c r="U77" t="s">
-        <v>32</v>
-      </c>
-      <c r="V77" t="s">
-        <v>33</v>
-      </c>
-      <c r="W77">
-        <v>1250000</v>
-      </c>
-      <c r="X77" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y77" t="s">
+      <c r="G81" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L81" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q81" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R81" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S81" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T81" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U81" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V81" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W81" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X81" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y81" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Z81" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AA81" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="AB77" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC77" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D78" t="s">
-        <v>19</v>
-      </c>
-      <c r="E78" t="s">
-        <v>22</v>
-      </c>
-      <c r="F78">
+      <c r="AB81" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC81" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>81</v>
+      </c>
+      <c r="B82" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82" s="5">
         <v>9289313681</v>
       </c>
-      <c r="G78" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" t="s">
-        <v>16</v>
-      </c>
-      <c r="I78" t="s">
-        <v>46</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K78" t="s">
-        <v>17</v>
-      </c>
-      <c r="L78" t="s">
-        <v>41</v>
-      </c>
-      <c r="S78">
-        <v>2021</v>
-      </c>
-      <c r="T78" t="s">
-        <v>44</v>
-      </c>
-      <c r="U78" t="s">
-        <v>32</v>
-      </c>
-      <c r="V78" t="s">
-        <v>33</v>
-      </c>
-      <c r="W78">
-        <v>1250000</v>
-      </c>
-      <c r="X78" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y78" t="s">
+      <c r="G82" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J82" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q82" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R82" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S82" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T82" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U82" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V82" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W82" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X82" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y82" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Z82" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AA82" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="AB78" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC78" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D79" t="s">
-        <v>19</v>
-      </c>
-      <c r="E79" t="s">
-        <v>22</v>
-      </c>
-      <c r="F79">
+      <c r="AB82" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC82" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>82</v>
+      </c>
+      <c r="B83" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" s="5">
         <v>9289313681</v>
       </c>
-      <c r="G79" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" t="s">
-        <v>16</v>
-      </c>
-      <c r="I79" t="s">
-        <v>46</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K79" t="s">
-        <v>17</v>
-      </c>
-      <c r="L79" t="s">
-        <v>41</v>
-      </c>
-      <c r="S79">
-        <v>2021</v>
-      </c>
-      <c r="T79" t="s">
-        <v>44</v>
-      </c>
-      <c r="U79" t="s">
-        <v>32</v>
-      </c>
-      <c r="V79" t="s">
-        <v>33</v>
-      </c>
-      <c r="W79">
-        <v>1250000</v>
-      </c>
-      <c r="X79" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y79" t="s">
+      <c r="G83" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q83" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R83" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S83" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T83" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U83" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V83" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W83" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X83" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y83" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Z83" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="AA79" t="s">
+      <c r="AA83" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="AB79" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC79" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D80" t="s">
-        <v>19</v>
-      </c>
-      <c r="E80" t="s">
-        <v>22</v>
-      </c>
-      <c r="F80">
-        <v>9289313681</v>
-      </c>
-      <c r="G80" t="s">
-        <v>13</v>
-      </c>
-      <c r="H80" t="s">
-        <v>16</v>
-      </c>
-      <c r="I80" t="s">
-        <v>46</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K80" t="s">
-        <v>17</v>
-      </c>
-      <c r="L80" t="s">
-        <v>41</v>
-      </c>
-      <c r="S80">
-        <v>2021</v>
-      </c>
-      <c r="T80" t="s">
-        <v>44</v>
-      </c>
-      <c r="U80" t="s">
-        <v>32</v>
-      </c>
-      <c r="V80" t="s">
-        <v>33</v>
-      </c>
-      <c r="W80">
-        <v>1250000</v>
-      </c>
-      <c r="X80" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>349</v>
-      </c>
-      <c r="AB80" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC80" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D81" t="s">
-        <v>19</v>
-      </c>
-      <c r="E81" t="s">
-        <v>22</v>
-      </c>
-      <c r="F81">
-        <v>9289313681</v>
-      </c>
-      <c r="G81" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" t="s">
-        <v>16</v>
-      </c>
-      <c r="I81" t="s">
-        <v>46</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K81" t="s">
-        <v>17</v>
-      </c>
-      <c r="L81" t="s">
-        <v>41</v>
-      </c>
-      <c r="S81">
-        <v>2021</v>
-      </c>
-      <c r="T81" t="s">
-        <v>44</v>
-      </c>
-      <c r="U81" t="s">
-        <v>32</v>
-      </c>
-      <c r="V81" t="s">
-        <v>33</v>
-      </c>
-      <c r="W81">
-        <v>1250000</v>
-      </c>
-      <c r="X81" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z81" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA81" t="s">
-        <v>350</v>
-      </c>
-      <c r="AB81" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC81" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D82" t="s">
-        <v>19</v>
-      </c>
-      <c r="E82" t="s">
-        <v>22</v>
-      </c>
-      <c r="F82">
-        <v>9289313681</v>
-      </c>
-      <c r="G82" t="s">
-        <v>13</v>
-      </c>
-      <c r="H82" t="s">
-        <v>16</v>
-      </c>
-      <c r="I82" t="s">
-        <v>46</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K82" t="s">
-        <v>17</v>
-      </c>
-      <c r="L82" t="s">
-        <v>41</v>
-      </c>
-      <c r="S82">
-        <v>2021</v>
-      </c>
-      <c r="T82" t="s">
-        <v>44</v>
-      </c>
-      <c r="U82" t="s">
-        <v>32</v>
-      </c>
-      <c r="V82" t="s">
-        <v>33</v>
-      </c>
-      <c r="W82">
-        <v>1250000</v>
-      </c>
-      <c r="X82" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y82" t="s">
-        <v>283</v>
-      </c>
-      <c r="Z82" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA82" t="s">
-        <v>351</v>
-      </c>
-      <c r="AB82" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC82" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D83" t="s">
-        <v>19</v>
-      </c>
-      <c r="E83" t="s">
-        <v>22</v>
-      </c>
-      <c r="F83">
-        <v>9289313681</v>
-      </c>
-      <c r="G83" t="s">
-        <v>13</v>
-      </c>
-      <c r="H83" t="s">
-        <v>16</v>
-      </c>
-      <c r="I83" t="s">
-        <v>46</v>
-      </c>
-      <c r="J83" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K83" t="s">
-        <v>17</v>
-      </c>
-      <c r="L83" t="s">
-        <v>41</v>
-      </c>
-      <c r="S83">
-        <v>2021</v>
-      </c>
-      <c r="T83" t="s">
-        <v>44</v>
-      </c>
-      <c r="U83" t="s">
-        <v>32</v>
-      </c>
-      <c r="V83" t="s">
-        <v>33</v>
-      </c>
-      <c r="W83">
-        <v>1250000</v>
-      </c>
-      <c r="X83" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z83" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA83" t="s">
-        <v>352</v>
-      </c>
-      <c r="AB83" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC83" t="s">
+      <c r="AB83" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC83" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7599,10 +7781,10 @@
         <v>16</v>
       </c>
       <c r="I84" t="s">
-        <v>54</v>
+        <v>371</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K84" t="s">
         <v>17</v>
@@ -7623,19 +7805,19 @@
         <v>33</v>
       </c>
       <c r="W84">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X84" t="s">
         <v>40</v>
       </c>
       <c r="Y84" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Z84" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AA84" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AB84" t="s">
         <v>18</v>
@@ -7671,10 +7853,10 @@
         <v>16</v>
       </c>
       <c r="I85" t="s">
-        <v>54</v>
+        <v>371</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K85" t="s">
         <v>17</v>
@@ -7695,19 +7877,19 @@
         <v>33</v>
       </c>
       <c r="W85">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X85" t="s">
         <v>40</v>
       </c>
       <c r="Y85" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Z85" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AA85" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AB85" t="s">
         <v>18</v>
@@ -7743,10 +7925,10 @@
         <v>16</v>
       </c>
       <c r="I86" t="s">
+        <v>371</v>
+      </c>
+      <c r="J86" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="K86" t="s">
         <v>17</v>
@@ -7767,19 +7949,19 @@
         <v>33</v>
       </c>
       <c r="W86">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X86" t="s">
         <v>40</v>
       </c>
       <c r="Y86" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Z86" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AA86" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AB86" t="s">
         <v>18</v>
@@ -7815,10 +7997,10 @@
         <v>16</v>
       </c>
       <c r="I87" t="s">
+        <v>371</v>
+      </c>
+      <c r="J87" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="K87" t="s">
         <v>17</v>
@@ -7839,19 +8021,19 @@
         <v>33</v>
       </c>
       <c r="W87">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X87" t="s">
         <v>40</v>
       </c>
       <c r="Y87" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Z87" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AA87" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="AB87" t="s">
         <v>18</v>
@@ -7887,10 +8069,10 @@
         <v>16</v>
       </c>
       <c r="I88" t="s">
-        <v>54</v>
+        <v>371</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K88" t="s">
         <v>17</v>
@@ -7911,19 +8093,19 @@
         <v>33</v>
       </c>
       <c r="W88">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X88" t="s">
         <v>40</v>
       </c>
       <c r="Y88" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Z88" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AA88" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AB88" t="s">
         <v>18</v>
@@ -7959,10 +8141,10 @@
         <v>16</v>
       </c>
       <c r="I89" t="s">
-        <v>54</v>
+        <v>371</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K89" t="s">
         <v>17</v>
@@ -7983,19 +8165,19 @@
         <v>33</v>
       </c>
       <c r="W89">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X89" t="s">
         <v>40</v>
       </c>
       <c r="Y89" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Z89" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AA89" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AB89" t="s">
         <v>18</v>
@@ -8031,10 +8213,10 @@
         <v>16</v>
       </c>
       <c r="I90" t="s">
-        <v>58</v>
+        <v>373</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K90" t="s">
         <v>17</v>
@@ -8055,19 +8237,19 @@
         <v>33</v>
       </c>
       <c r="W90">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X90" t="s">
         <v>40</v>
       </c>
       <c r="Y90" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Z90" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AA90" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AB90" t="s">
         <v>18</v>
@@ -8103,10 +8285,10 @@
         <v>16</v>
       </c>
       <c r="I91" t="s">
-        <v>58</v>
+        <v>373</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K91" t="s">
         <v>17</v>
@@ -8127,19 +8309,19 @@
         <v>33</v>
       </c>
       <c r="W91">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X91" t="s">
         <v>40</v>
       </c>
       <c r="Y91" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Z91" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AA91" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AB91" t="s">
         <v>18</v>
@@ -8175,10 +8357,10 @@
         <v>16</v>
       </c>
       <c r="I92" t="s">
-        <v>58</v>
+        <v>373</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K92" t="s">
         <v>17</v>
@@ -8199,19 +8381,19 @@
         <v>33</v>
       </c>
       <c r="W92">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X92" t="s">
         <v>40</v>
       </c>
       <c r="Y92" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Z92" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AA92" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AB92" t="s">
         <v>18</v>
@@ -8247,10 +8429,10 @@
         <v>16</v>
       </c>
       <c r="I93" t="s">
-        <v>58</v>
+        <v>373</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K93" t="s">
         <v>17</v>
@@ -8271,19 +8453,19 @@
         <v>33</v>
       </c>
       <c r="W93">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X93" t="s">
         <v>40</v>
       </c>
       <c r="Y93" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Z93" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AA93" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AB93" t="s">
         <v>18</v>
@@ -8319,10 +8501,10 @@
         <v>16</v>
       </c>
       <c r="I94" t="s">
+        <v>373</v>
+      </c>
+      <c r="J94" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="K94" t="s">
         <v>17</v>
@@ -8343,19 +8525,19 @@
         <v>33</v>
       </c>
       <c r="W94">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X94" t="s">
         <v>40</v>
       </c>
       <c r="Y94" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Z94" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AA94" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AB94" t="s">
         <v>18</v>
@@ -8391,10 +8573,10 @@
         <v>16</v>
       </c>
       <c r="I95" t="s">
+        <v>373</v>
+      </c>
+      <c r="J95" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="K95" t="s">
         <v>17</v>
@@ -8415,19 +8597,19 @@
         <v>33</v>
       </c>
       <c r="W95">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X95" t="s">
         <v>40</v>
       </c>
       <c r="Y95" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="Z95" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AA95" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AB95" t="s">
         <v>18</v>
@@ -8436,147 +8618,159 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="96" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="5">
         <v>95</v>
       </c>
-      <c r="B96" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D96" t="s">
-        <v>19</v>
-      </c>
-      <c r="E96" t="s">
-        <v>22</v>
-      </c>
-      <c r="F96">
+      <c r="B96" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96" s="5">
         <v>9289313681</v>
       </c>
-      <c r="G96" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" t="s">
-        <v>16</v>
-      </c>
-      <c r="I96" t="s">
-        <v>46</v>
-      </c>
-      <c r="J96" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K96" t="s">
-        <v>17</v>
-      </c>
-      <c r="L96" t="s">
-        <v>41</v>
-      </c>
-      <c r="S96">
-        <v>2021</v>
-      </c>
-      <c r="T96" t="s">
-        <v>44</v>
-      </c>
-      <c r="U96" t="s">
-        <v>32</v>
-      </c>
-      <c r="V96" t="s">
-        <v>33</v>
-      </c>
-      <c r="W96">
-        <v>1250000</v>
-      </c>
-      <c r="X96" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y96" t="s">
-        <v>297</v>
-      </c>
-      <c r="Z96" t="s">
-        <v>331</v>
-      </c>
-      <c r="AA96" t="s">
-        <v>365</v>
-      </c>
-      <c r="AB96" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC96" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="G96" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J96" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q96" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R96" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S96" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T96" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U96" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V96" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W96" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X96" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y96" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z96" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA96" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB96" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC96" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="5">
         <v>96</v>
       </c>
-      <c r="B97" s="1" t="str">
-        <f>[1]Emisión_Motor!$A$2</f>
-        <v>i-preproducciongestion.segurossura.com.ar</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D97" t="s">
-        <v>19</v>
-      </c>
-      <c r="E97" t="s">
-        <v>22</v>
-      </c>
-      <c r="F97">
+      <c r="B97" s="6" t="str">
+        <f>[1]Emisión_Motor!$A$2</f>
+        <v>i-preproducciongestion.segurossura.com.ar</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F97" s="5">
         <v>9289313681</v>
       </c>
-      <c r="G97" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" t="s">
-        <v>16</v>
-      </c>
-      <c r="I97" t="s">
-        <v>46</v>
-      </c>
-      <c r="J97" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K97" t="s">
-        <v>17</v>
-      </c>
-      <c r="L97" t="s">
-        <v>41</v>
-      </c>
-      <c r="S97">
-        <v>2021</v>
-      </c>
-      <c r="T97" t="s">
-        <v>44</v>
-      </c>
-      <c r="U97" t="s">
-        <v>32</v>
-      </c>
-      <c r="V97" t="s">
-        <v>33</v>
-      </c>
-      <c r="W97">
-        <v>1250000</v>
-      </c>
-      <c r="X97" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y97" t="s">
-        <v>298</v>
-      </c>
-      <c r="Z97" t="s">
-        <v>332</v>
-      </c>
-      <c r="AA97" t="s">
-        <v>366</v>
-      </c>
-      <c r="AB97" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC97" t="s">
+      <c r="G97" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J97" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="L97" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q97" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R97" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S97" s="5">
+        <v>2021</v>
+      </c>
+      <c r="T97" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="U97" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V97" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W97" s="5">
+        <v>1400000</v>
+      </c>
+      <c r="X97" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y97" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z97" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="AA97" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB97" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC97" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -8607,10 +8801,10 @@
         <v>16</v>
       </c>
       <c r="I98" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K98" t="s">
         <v>17</v>
@@ -8631,19 +8825,19 @@
         <v>33</v>
       </c>
       <c r="W98">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X98" t="s">
         <v>40</v>
       </c>
       <c r="Y98" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Z98" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AA98" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AB98" t="s">
         <v>18</v>
@@ -8679,10 +8873,10 @@
         <v>16</v>
       </c>
       <c r="I99" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K99" t="s">
         <v>17</v>
@@ -8703,19 +8897,19 @@
         <v>33</v>
       </c>
       <c r="W99">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X99" t="s">
         <v>40</v>
       </c>
       <c r="Y99" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Z99" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AA99" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AB99" t="s">
         <v>18</v>
@@ -8751,10 +8945,10 @@
         <v>16</v>
       </c>
       <c r="I100" t="s">
-        <v>54</v>
+        <v>371</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K100" t="s">
         <v>17</v>
@@ -8775,19 +8969,19 @@
         <v>33</v>
       </c>
       <c r="W100">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X100" t="s">
         <v>40</v>
       </c>
       <c r="Y100" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Z100" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AA100" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AB100" t="s">
         <v>18</v>
@@ -8823,10 +9017,10 @@
         <v>16</v>
       </c>
       <c r="I101" t="s">
-        <v>54</v>
+        <v>371</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K101" t="s">
         <v>17</v>
@@ -8847,19 +9041,19 @@
         <v>33</v>
       </c>
       <c r="W101">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X101" t="s">
         <v>40</v>
       </c>
       <c r="Y101" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Z101" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AA101" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AB101" t="s">
         <v>18</v>
@@ -8895,10 +9089,10 @@
         <v>16</v>
       </c>
       <c r="I102" t="s">
-        <v>58</v>
+        <v>373</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K102" t="s">
         <v>17</v>
@@ -8919,19 +9113,19 @@
         <v>33</v>
       </c>
       <c r="W102">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X102" t="s">
         <v>40</v>
       </c>
       <c r="Y102" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Z102" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AA102" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AB102" t="s">
         <v>18</v>
@@ -8967,10 +9161,10 @@
         <v>16</v>
       </c>
       <c r="I103" t="s">
-        <v>58</v>
+        <v>373</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K103" t="s">
         <v>17</v>
@@ -8991,19 +9185,19 @@
         <v>33</v>
       </c>
       <c r="W103">
-        <v>1250000</v>
+        <v>1400000</v>
       </c>
       <c r="X103" t="s">
         <v>40</v>
       </c>
       <c r="Y103" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Z103" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AA103" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AB103" t="s">
         <v>18</v>

--- a/Sura/DataSource - Emision Motor.xlsx
+++ b/Sura/DataSource - Emision Motor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271D7FAF-C20D-4D12-A1C1-5A251D11EC14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89B7032-54F6-4E8F-A59E-C6BAD8CB9E1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="376">
   <si>
     <t>Usuario</t>
   </si>
@@ -227,18 +227,6 @@
     <t>18/09/2020</t>
   </si>
   <si>
-    <t>RFA035</t>
-  </si>
-  <si>
-    <t>ABC12SRFA035</t>
-  </si>
-  <si>
-    <t>ZAZ123SRFA035</t>
-  </si>
-  <si>
-    <t>RFA036</t>
-  </si>
-  <si>
     <t>RFA037</t>
   </si>
   <si>
@@ -335,9 +323,6 @@
     <t>RFA068</t>
   </si>
   <si>
-    <t>ABC12SRFA036</t>
-  </si>
-  <si>
     <t>ABC12SRFA037</t>
   </si>
   <si>
@@ -434,9 +419,6 @@
     <t>ABC12SRFA068</t>
   </si>
   <si>
-    <t>ZAZ123SRFA036</t>
-  </si>
-  <si>
     <t>ZAZ123SRFA037</t>
   </si>
   <si>
@@ -1158,6 +1140,30 @@
   </si>
   <si>
     <t>6 meses</t>
+  </si>
+  <si>
+    <t>REN021</t>
+  </si>
+  <si>
+    <t>REN022</t>
+  </si>
+  <si>
+    <t>ABC12SREN021</t>
+  </si>
+  <si>
+    <t>ABC12SREN022</t>
+  </si>
+  <si>
+    <t>ZAZ123SREN021</t>
+  </si>
+  <si>
+    <t>ZAZ123SREN022</t>
+  </si>
+  <si>
+    <t>10/03/2020</t>
+  </si>
+  <si>
+    <t>Anual</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1231,6 +1237,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1539,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I102" sqref="I102:I103"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1675,8 +1684,8 @@
       <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="3">
-        <v>5712176326</v>
+      <c r="F2" s="10">
+        <v>2768688947</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -1685,10 +1694,10 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>375</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>46</v>
+        <v>374</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -1697,7 +1706,7 @@
         <v>41</v>
       </c>
       <c r="S2">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="T2" t="s">
         <v>44</v>
@@ -1715,13 +1724,13 @@
         <v>40</v>
       </c>
       <c r="Y2" t="s">
-        <v>63</v>
+        <v>368</v>
       </c>
       <c r="Z2" t="s">
-        <v>64</v>
+        <v>370</v>
       </c>
       <c r="AA2" t="s">
-        <v>65</v>
+        <v>372</v>
       </c>
       <c r="AB2" t="s">
         <v>18</v>
@@ -1747,8 +1756,8 @@
       <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="3">
-        <v>5712176326</v>
+      <c r="F3" s="10">
+        <v>2768688947</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -1757,10 +1766,10 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>375</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>46</v>
+        <v>374</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
@@ -1769,7 +1778,7 @@
         <v>41</v>
       </c>
       <c r="S3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="T3" t="s">
         <v>44</v>
@@ -1787,13 +1796,13 @@
         <v>40</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>369</v>
       </c>
       <c r="Z3" t="s">
-        <v>99</v>
+        <v>371</v>
       </c>
       <c r="AA3" t="s">
-        <v>132</v>
+        <v>373</v>
       </c>
       <c r="AB3" t="s">
         <v>18</v>
@@ -1859,13 +1868,13 @@
         <v>40</v>
       </c>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Z4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AA4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AB4" t="s">
         <v>18</v>
@@ -1931,13 +1940,13 @@
         <v>40</v>
       </c>
       <c r="Y5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Z5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="AA5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AB5" t="s">
         <v>18</v>
@@ -2003,13 +2012,13 @@
         <v>40</v>
       </c>
       <c r="Y6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Z6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AA6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AB6" t="s">
         <v>18</v>
@@ -2075,13 +2084,13 @@
         <v>40</v>
       </c>
       <c r="Y7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Z7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AA7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AB7" t="s">
         <v>18</v>
@@ -2117,13 +2126,13 @@
         <v>16</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>49</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>41</v>
@@ -2153,13 +2162,13 @@
         <v>40</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="AB8" s="5" t="s">
         <v>18</v>
@@ -2195,13 +2204,13 @@
         <v>16</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>49</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>41</v>
@@ -2231,13 +2240,13 @@
         <v>40</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AB9" s="5" t="s">
         <v>18</v>
@@ -2273,13 +2282,13 @@
         <v>16</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>50</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>41</v>
@@ -2309,13 +2318,13 @@
         <v>40</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AB10" s="5" t="s">
         <v>18</v>
@@ -2351,13 +2360,13 @@
         <v>16</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>50</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>41</v>
@@ -2387,13 +2396,13 @@
         <v>40</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AB11" s="5" t="s">
         <v>18</v>
@@ -2429,13 +2438,13 @@
         <v>16</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>51</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>41</v>
@@ -2465,13 +2474,13 @@
         <v>40</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AB12" s="5" t="s">
         <v>18</v>
@@ -2507,13 +2516,13 @@
         <v>16</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>51</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>41</v>
@@ -2543,13 +2552,13 @@
         <v>40</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AB13" s="5" t="s">
         <v>18</v>
@@ -2585,13 +2594,13 @@
         <v>16</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>52</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>41</v>
@@ -2621,13 +2630,13 @@
         <v>40</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="AB14" s="5" t="s">
         <v>18</v>
@@ -2663,13 +2672,13 @@
         <v>16</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J15" s="8" t="s">
         <v>52</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>41</v>
@@ -2699,13 +2708,13 @@
         <v>40</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AB15" s="5" t="s">
         <v>18</v>
@@ -2741,7 +2750,7 @@
         <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>53</v>
@@ -2771,13 +2780,13 @@
         <v>40</v>
       </c>
       <c r="Y16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AA16" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AB16" t="s">
         <v>18</v>
@@ -2813,7 +2822,7 @@
         <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>53</v>
@@ -2843,13 +2852,13 @@
         <v>40</v>
       </c>
       <c r="Y17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Z17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AA17" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AB17" t="s">
         <v>18</v>
@@ -2885,7 +2894,7 @@
         <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>54</v>
@@ -2915,13 +2924,13 @@
         <v>40</v>
       </c>
       <c r="Y18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AA18" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="AB18" t="s">
         <v>18</v>
@@ -2957,7 +2966,7 @@
         <v>16</v>
       </c>
       <c r="I19" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>54</v>
@@ -2987,13 +2996,13 @@
         <v>40</v>
       </c>
       <c r="Y19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AA19" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="AB19" t="s">
         <v>18</v>
@@ -3029,7 +3038,7 @@
         <v>16</v>
       </c>
       <c r="I20" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>55</v>
@@ -3059,13 +3068,13 @@
         <v>40</v>
       </c>
       <c r="Y20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Z20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="AA20" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="AB20" t="s">
         <v>18</v>
@@ -3101,7 +3110,7 @@
         <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>55</v>
@@ -3131,13 +3140,13 @@
         <v>40</v>
       </c>
       <c r="Y21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="AA21" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AB21" t="s">
         <v>18</v>
@@ -3173,7 +3182,7 @@
         <v>16</v>
       </c>
       <c r="I22" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>56</v>
@@ -3212,13 +3221,13 @@
         <v>40</v>
       </c>
       <c r="Y22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Z22" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="AA22" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="AB22" t="s">
         <v>18</v>
@@ -3254,7 +3263,7 @@
         <v>16</v>
       </c>
       <c r="I23" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>56</v>
@@ -3290,13 +3299,13 @@
         <v>40</v>
       </c>
       <c r="Y23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Z23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AA23" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="AB23" t="s">
         <v>18</v>
@@ -3332,7 +3341,7 @@
         <v>16</v>
       </c>
       <c r="I24" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>57</v>
@@ -3368,13 +3377,13 @@
         <v>40</v>
       </c>
       <c r="Y24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Z24" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AA24" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AB24" t="s">
         <v>18</v>
@@ -3410,7 +3419,7 @@
         <v>16</v>
       </c>
       <c r="I25" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>57</v>
@@ -3440,13 +3449,13 @@
         <v>40</v>
       </c>
       <c r="Y25" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Z25" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="AA25" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="AB25" t="s">
         <v>18</v>
@@ -3482,7 +3491,7 @@
         <v>16</v>
       </c>
       <c r="I26" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>58</v>
@@ -3514,13 +3523,13 @@
         <v>40</v>
       </c>
       <c r="Y26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Z26" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AA26" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AB26" t="s">
         <v>18</v>
@@ -3556,7 +3565,7 @@
         <v>16</v>
       </c>
       <c r="I27" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>58</v>
@@ -3587,13 +3596,13 @@
         <v>40</v>
       </c>
       <c r="Y27" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Z27" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AA27" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AB27" t="s">
         <v>18</v>
@@ -3629,13 +3638,13 @@
         <v>16</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>59</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>41</v>
@@ -3665,13 +3674,13 @@
         <v>40</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AB28" s="5" t="s">
         <v>18</v>
@@ -3707,13 +3716,13 @@
         <v>16</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>59</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>41</v>
@@ -3743,13 +3752,13 @@
         <v>40</v>
       </c>
       <c r="Y29" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Z29" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AA29" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AB29" s="5" t="s">
         <v>18</v>
@@ -3815,13 +3824,13 @@
         <v>40</v>
       </c>
       <c r="Y30" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Z30" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AA30" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AB30" t="s">
         <v>18</v>
@@ -3887,13 +3896,13 @@
         <v>40</v>
       </c>
       <c r="Y31" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Z31" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AA31" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="AB31" t="s">
         <v>18</v>
@@ -3929,7 +3938,7 @@
         <v>16</v>
       </c>
       <c r="I32" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>61</v>
@@ -3959,13 +3968,13 @@
         <v>40</v>
       </c>
       <c r="Y32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Z32" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AA32" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="AB32" t="s">
         <v>18</v>
@@ -4001,7 +4010,7 @@
         <v>16</v>
       </c>
       <c r="I33" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>61</v>
@@ -4031,13 +4040,13 @@
         <v>40</v>
       </c>
       <c r="Y33" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Z33" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AA33" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="AB33" t="s">
         <v>18</v>
@@ -4073,7 +4082,7 @@
         <v>16</v>
       </c>
       <c r="I34" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>62</v>
@@ -4103,13 +4112,13 @@
         <v>40</v>
       </c>
       <c r="Y34" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Z34" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AA34" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AB34" t="s">
         <v>18</v>
@@ -4145,7 +4154,7 @@
         <v>16</v>
       </c>
       <c r="I35" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>62</v>
@@ -4175,13 +4184,13 @@
         <v>40</v>
       </c>
       <c r="Y35" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Z35" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="AA35" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="AB35" t="s">
         <v>18</v>
@@ -4247,13 +4256,13 @@
         <v>40</v>
       </c>
       <c r="Y36" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Z36" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AA36" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="AB36" t="s">
         <v>18</v>
@@ -4319,13 +4328,13 @@
         <v>40</v>
       </c>
       <c r="Y37" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="Z37" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="AA37" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="AB37" t="s">
         <v>18</v>
@@ -4391,13 +4400,13 @@
         <v>40</v>
       </c>
       <c r="Y38" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Z38" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AA38" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AB38" t="s">
         <v>18</v>
@@ -4463,13 +4472,13 @@
         <v>40</v>
       </c>
       <c r="Y39" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Z39" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="AA39" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AB39" t="s">
         <v>18</v>
@@ -4535,13 +4544,13 @@
         <v>40</v>
       </c>
       <c r="Y40" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Z40" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AA40" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AB40" t="s">
         <v>18</v>
@@ -4607,13 +4616,13 @@
         <v>40</v>
       </c>
       <c r="Y41" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="Z41" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AA41" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AB41" t="s">
         <v>18</v>
@@ -4649,13 +4658,13 @@
         <v>16</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>49</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>41</v>
@@ -4685,13 +4694,13 @@
         <v>40</v>
       </c>
       <c r="Y42" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="Z42" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AA42" s="5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="AB42" s="5" t="s">
         <v>18</v>
@@ -4727,13 +4736,13 @@
         <v>16</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J43" s="8" t="s">
         <v>49</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L43" s="5" t="s">
         <v>41</v>
@@ -4763,13 +4772,13 @@
         <v>40</v>
       </c>
       <c r="Y43" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="Z43" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AA43" s="5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="AB43" s="5" t="s">
         <v>18</v>
@@ -4805,13 +4814,13 @@
         <v>16</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>50</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>41</v>
@@ -4841,13 +4850,13 @@
         <v>40</v>
       </c>
       <c r="Y44" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Z44" s="5" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AA44" s="5" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AB44" s="5" t="s">
         <v>18</v>
@@ -4883,13 +4892,13 @@
         <v>16</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>50</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L45" s="5" t="s">
         <v>41</v>
@@ -4919,13 +4928,13 @@
         <v>40</v>
       </c>
       <c r="Y45" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="Z45" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="AA45" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AB45" s="5" t="s">
         <v>18</v>
@@ -4961,13 +4970,13 @@
         <v>16</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J46" s="8" t="s">
         <v>51</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>41</v>
@@ -4997,13 +5006,13 @@
         <v>40</v>
       </c>
       <c r="Y46" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="Z46" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="AA46" s="5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="AB46" s="5" t="s">
         <v>18</v>
@@ -5039,13 +5048,13 @@
         <v>16</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J47" s="8" t="s">
         <v>51</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>41</v>
@@ -5075,13 +5084,13 @@
         <v>40</v>
       </c>
       <c r="Y47" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="Z47" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AA47" s="5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AB47" s="5" t="s">
         <v>18</v>
@@ -5117,13 +5126,13 @@
         <v>16</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>52</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>41</v>
@@ -5153,13 +5162,13 @@
         <v>40</v>
       </c>
       <c r="Y48" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="Z48" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AA48" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AB48" s="5" t="s">
         <v>18</v>
@@ -5195,13 +5204,13 @@
         <v>16</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>52</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>41</v>
@@ -5231,13 +5240,13 @@
         <v>40</v>
       </c>
       <c r="Y49" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="Z49" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AA49" s="5" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AB49" s="5" t="s">
         <v>18</v>
@@ -5273,7 +5282,7 @@
         <v>16</v>
       </c>
       <c r="I50" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>53</v>
@@ -5303,13 +5312,13 @@
         <v>40</v>
       </c>
       <c r="Y50" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="Z50" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="AA50" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AB50" t="s">
         <v>18</v>
@@ -5345,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="I51" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>53</v>
@@ -5375,13 +5384,13 @@
         <v>40</v>
       </c>
       <c r="Y51" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Z51" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AA51" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AB51" t="s">
         <v>18</v>
@@ -5417,7 +5426,7 @@
         <v>16</v>
       </c>
       <c r="I52" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>54</v>
@@ -5447,13 +5456,13 @@
         <v>40</v>
       </c>
       <c r="Y52" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="Z52" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AA52" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AB52" t="s">
         <v>18</v>
@@ -5489,7 +5498,7 @@
         <v>16</v>
       </c>
       <c r="I53" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>54</v>
@@ -5519,13 +5528,13 @@
         <v>40</v>
       </c>
       <c r="Y53" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Z53" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AA53" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="AB53" t="s">
         <v>18</v>
@@ -5561,7 +5570,7 @@
         <v>16</v>
       </c>
       <c r="I54" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>55</v>
@@ -5591,13 +5600,13 @@
         <v>40</v>
       </c>
       <c r="Y54" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Z54" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AA54" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AB54" t="s">
         <v>18</v>
@@ -5633,7 +5642,7 @@
         <v>16</v>
       </c>
       <c r="I55" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>55</v>
@@ -5663,13 +5672,13 @@
         <v>40</v>
       </c>
       <c r="Y55" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Z55" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AA55" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AB55" t="s">
         <v>18</v>
@@ -5705,7 +5714,7 @@
         <v>16</v>
       </c>
       <c r="I56" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>56</v>
@@ -5735,13 +5744,13 @@
         <v>40</v>
       </c>
       <c r="Y56" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="Z56" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="AA56" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AB56" t="s">
         <v>18</v>
@@ -5777,7 +5786,7 @@
         <v>16</v>
       </c>
       <c r="I57" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>56</v>
@@ -5807,13 +5816,13 @@
         <v>40</v>
       </c>
       <c r="Y57" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="Z57" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AA57" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AB57" t="s">
         <v>18</v>
@@ -5849,7 +5858,7 @@
         <v>16</v>
       </c>
       <c r="I58" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>57</v>
@@ -5879,13 +5888,13 @@
         <v>40</v>
       </c>
       <c r="Y58" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Z58" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AA58" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AB58" t="s">
         <v>18</v>
@@ -5921,7 +5930,7 @@
         <v>16</v>
       </c>
       <c r="I59" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>57</v>
@@ -5951,13 +5960,13 @@
         <v>40</v>
       </c>
       <c r="Y59" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="Z59" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AA59" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AB59" t="s">
         <v>18</v>
@@ -5993,7 +6002,7 @@
         <v>16</v>
       </c>
       <c r="I60" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>58</v>
@@ -6023,13 +6032,13 @@
         <v>40</v>
       </c>
       <c r="Y60" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="Z60" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="AA60" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AB60" t="s">
         <v>18</v>
@@ -6065,7 +6074,7 @@
         <v>16</v>
       </c>
       <c r="I61" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>58</v>
@@ -6095,13 +6104,13 @@
         <v>40</v>
       </c>
       <c r="Y61" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="Z61" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AA61" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AB61" t="s">
         <v>18</v>
@@ -6137,13 +6146,13 @@
         <v>16</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J62" s="8" t="s">
         <v>59</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>41</v>
@@ -6173,13 +6182,13 @@
         <v>40</v>
       </c>
       <c r="Y62" s="5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Z62" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AA62" s="5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AB62" s="5" t="s">
         <v>18</v>
@@ -6215,13 +6224,13 @@
         <v>16</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J63" s="8" t="s">
         <v>59</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L63" s="5" t="s">
         <v>41</v>
@@ -6251,13 +6260,13 @@
         <v>40</v>
       </c>
       <c r="Y63" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Z63" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AA63" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="AB63" s="5" t="s">
         <v>18</v>
@@ -6323,13 +6332,13 @@
         <v>40</v>
       </c>
       <c r="Y64" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Z64" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AA64" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AB64" t="s">
         <v>18</v>
@@ -6395,13 +6404,13 @@
         <v>40</v>
       </c>
       <c r="Y65" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Z65" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AA65" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AB65" t="s">
         <v>18</v>
@@ -6437,7 +6446,7 @@
         <v>16</v>
       </c>
       <c r="I66" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>61</v>
@@ -6467,13 +6476,13 @@
         <v>40</v>
       </c>
       <c r="Y66" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Z66" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AA66" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AB66" t="s">
         <v>18</v>
@@ -6509,7 +6518,7 @@
         <v>16</v>
       </c>
       <c r="I67" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>61</v>
@@ -6539,13 +6548,13 @@
         <v>40</v>
       </c>
       <c r="Y67" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Z67" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AA67" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AB67" t="s">
         <v>18</v>
@@ -6581,7 +6590,7 @@
         <v>16</v>
       </c>
       <c r="I68" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>62</v>
@@ -6611,13 +6620,13 @@
         <v>40</v>
       </c>
       <c r="Y68" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z68" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="AA68" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AB68" t="s">
         <v>18</v>
@@ -6653,7 +6662,7 @@
         <v>16</v>
       </c>
       <c r="I69" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>62</v>
@@ -6683,13 +6692,13 @@
         <v>40</v>
       </c>
       <c r="Y69" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Z69" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AA69" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AB69" t="s">
         <v>18</v>
@@ -6755,13 +6764,13 @@
         <v>40</v>
       </c>
       <c r="Y70" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Z70" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AA70" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AB70" t="s">
         <v>18</v>
@@ -6827,13 +6836,13 @@
         <v>40</v>
       </c>
       <c r="Y71" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Z71" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AA71" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AB71" t="s">
         <v>18</v>
@@ -6899,13 +6908,13 @@
         <v>40</v>
       </c>
       <c r="Y72" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Z72" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AA72" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AB72" t="s">
         <v>18</v>
@@ -6971,13 +6980,13 @@
         <v>40</v>
       </c>
       <c r="Y73" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Z73" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="AA73" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="AB73" t="s">
         <v>18</v>
@@ -7043,13 +7052,13 @@
         <v>40</v>
       </c>
       <c r="Y74" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="Z74" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AA74" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AB74" t="s">
         <v>18</v>
@@ -7115,13 +7124,13 @@
         <v>40</v>
       </c>
       <c r="Y75" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="Z75" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AA75" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AB75" t="s">
         <v>18</v>
@@ -7157,13 +7166,13 @@
         <v>16</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J76" s="8" t="s">
         <v>49</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L76" s="5" t="s">
         <v>41</v>
@@ -7193,13 +7202,13 @@
         <v>40</v>
       </c>
       <c r="Y76" s="5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="Z76" s="5" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AA76" s="5" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AB76" s="5" t="s">
         <v>18</v>
@@ -7235,13 +7244,13 @@
         <v>16</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J77" s="8" t="s">
         <v>49</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L77" s="5" t="s">
         <v>41</v>
@@ -7271,13 +7280,13 @@
         <v>40</v>
       </c>
       <c r="Y77" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Z77" s="5" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="AA77" s="5" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="AB77" s="5" t="s">
         <v>18</v>
@@ -7313,13 +7322,13 @@
         <v>16</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J78" s="8" t="s">
         <v>50</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L78" s="5" t="s">
         <v>41</v>
@@ -7349,13 +7358,13 @@
         <v>40</v>
       </c>
       <c r="Y78" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Z78" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AA78" s="5" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="AB78" s="5" t="s">
         <v>18</v>
@@ -7391,13 +7400,13 @@
         <v>16</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J79" s="8" t="s">
         <v>50</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L79" s="5" t="s">
         <v>41</v>
@@ -7427,13 +7436,13 @@
         <v>40</v>
       </c>
       <c r="Y79" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="Z79" s="5" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AA79" s="5" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="AB79" s="5" t="s">
         <v>18</v>
@@ -7469,13 +7478,13 @@
         <v>16</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J80" s="8" t="s">
         <v>51</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L80" s="5" t="s">
         <v>41</v>
@@ -7505,13 +7514,13 @@
         <v>40</v>
       </c>
       <c r="Y80" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="Z80" s="5" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AA80" s="5" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="AB80" s="5" t="s">
         <v>18</v>
@@ -7547,13 +7556,13 @@
         <v>16</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J81" s="8" t="s">
         <v>51</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L81" s="5" t="s">
         <v>41</v>
@@ -7583,13 +7592,13 @@
         <v>40</v>
       </c>
       <c r="Y81" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="Z81" s="5" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="AA81" s="5" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="AB81" s="5" t="s">
         <v>18</v>
@@ -7625,13 +7634,13 @@
         <v>16</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J82" s="8" t="s">
         <v>52</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L82" s="5" t="s">
         <v>41</v>
@@ -7661,13 +7670,13 @@
         <v>40</v>
       </c>
       <c r="Y82" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Z82" s="5" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="AA82" s="5" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AB82" s="5" t="s">
         <v>18</v>
@@ -7703,13 +7712,13 @@
         <v>16</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J83" s="8" t="s">
         <v>52</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L83" s="5" t="s">
         <v>41</v>
@@ -7739,13 +7748,13 @@
         <v>40</v>
       </c>
       <c r="Y83" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Z83" s="5" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="AA83" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="AB83" s="5" t="s">
         <v>18</v>
@@ -7781,7 +7790,7 @@
         <v>16</v>
       </c>
       <c r="I84" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>53</v>
@@ -7811,13 +7820,13 @@
         <v>40</v>
       </c>
       <c r="Y84" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="Z84" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="AA84" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="AB84" t="s">
         <v>18</v>
@@ -7853,7 +7862,7 @@
         <v>16</v>
       </c>
       <c r="I85" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>53</v>
@@ -7883,13 +7892,13 @@
         <v>40</v>
       </c>
       <c r="Y85" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Z85" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="AA85" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AB85" t="s">
         <v>18</v>
@@ -7925,7 +7934,7 @@
         <v>16</v>
       </c>
       <c r="I86" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J86" s="4" t="s">
         <v>54</v>
@@ -7955,13 +7964,13 @@
         <v>40</v>
       </c>
       <c r="Y86" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Z86" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AA86" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="AB86" t="s">
         <v>18</v>
@@ -7997,7 +8006,7 @@
         <v>16</v>
       </c>
       <c r="I87" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J87" s="4" t="s">
         <v>54</v>
@@ -8027,13 +8036,13 @@
         <v>40</v>
       </c>
       <c r="Y87" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Z87" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="AA87" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="AB87" t="s">
         <v>18</v>
@@ -8069,7 +8078,7 @@
         <v>16</v>
       </c>
       <c r="I88" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>55</v>
@@ -8099,13 +8108,13 @@
         <v>40</v>
       </c>
       <c r="Y88" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Z88" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="AA88" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AB88" t="s">
         <v>18</v>
@@ -8141,7 +8150,7 @@
         <v>16</v>
       </c>
       <c r="I89" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>55</v>
@@ -8171,13 +8180,13 @@
         <v>40</v>
       </c>
       <c r="Y89" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="Z89" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="AA89" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="AB89" t="s">
         <v>18</v>
@@ -8213,7 +8222,7 @@
         <v>16</v>
       </c>
       <c r="I90" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="J90" s="4" t="s">
         <v>56</v>
@@ -8243,13 +8252,13 @@
         <v>40</v>
       </c>
       <c r="Y90" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Z90" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="AA90" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="AB90" t="s">
         <v>18</v>
@@ -8285,7 +8294,7 @@
         <v>16</v>
       </c>
       <c r="I91" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="J91" s="4" t="s">
         <v>56</v>
@@ -8315,13 +8324,13 @@
         <v>40</v>
       </c>
       <c r="Y91" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Z91" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AA91" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="AB91" t="s">
         <v>18</v>
@@ -8357,7 +8366,7 @@
         <v>16</v>
       </c>
       <c r="I92" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="J92" s="4" t="s">
         <v>57</v>
@@ -8387,13 +8396,13 @@
         <v>40</v>
       </c>
       <c r="Y92" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="Z92" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AA92" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="AB92" t="s">
         <v>18</v>
@@ -8429,7 +8438,7 @@
         <v>16</v>
       </c>
       <c r="I93" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>57</v>
@@ -8459,13 +8468,13 @@
         <v>40</v>
       </c>
       <c r="Y93" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="Z93" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="AA93" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AB93" t="s">
         <v>18</v>
@@ -8501,7 +8510,7 @@
         <v>16</v>
       </c>
       <c r="I94" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>58</v>
@@ -8531,13 +8540,13 @@
         <v>40</v>
       </c>
       <c r="Y94" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="Z94" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="AA94" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AB94" t="s">
         <v>18</v>
@@ -8573,7 +8582,7 @@
         <v>16</v>
       </c>
       <c r="I95" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="J95" s="4" t="s">
         <v>58</v>
@@ -8603,13 +8612,13 @@
         <v>40</v>
       </c>
       <c r="Y95" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="Z95" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AA95" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="AB95" t="s">
         <v>18</v>
@@ -8645,13 +8654,13 @@
         <v>16</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J96" s="8" t="s">
         <v>59</v>
       </c>
       <c r="K96" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L96" s="5" t="s">
         <v>41</v>
@@ -8681,13 +8690,13 @@
         <v>40</v>
       </c>
       <c r="Y96" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Z96" s="5" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AA96" s="5" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AB96" s="5" t="s">
         <v>18</v>
@@ -8723,13 +8732,13 @@
         <v>16</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="J97" s="8" t="s">
         <v>59</v>
       </c>
       <c r="K97" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L97" s="5" t="s">
         <v>41</v>
@@ -8759,13 +8768,13 @@
         <v>40</v>
       </c>
       <c r="Y97" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Z97" s="5" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="AA97" s="5" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AB97" s="5" t="s">
         <v>18</v>
@@ -8831,13 +8840,13 @@
         <v>40</v>
       </c>
       <c r="Y98" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="Z98" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="AA98" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="AB98" t="s">
         <v>18</v>
@@ -8903,13 +8912,13 @@
         <v>40</v>
       </c>
       <c r="Y99" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="Z99" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="AA99" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="AB99" t="s">
         <v>18</v>
@@ -8945,7 +8954,7 @@
         <v>16</v>
       </c>
       <c r="I100" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J100" s="4" t="s">
         <v>61</v>
@@ -8975,13 +8984,13 @@
         <v>40</v>
       </c>
       <c r="Y100" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="Z100" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="AA100" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AB100" t="s">
         <v>18</v>
@@ -9017,7 +9026,7 @@
         <v>16</v>
       </c>
       <c r="I101" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="J101" s="4" t="s">
         <v>61</v>
@@ -9047,13 +9056,13 @@
         <v>40</v>
       </c>
       <c r="Y101" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="Z101" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AA101" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="AB101" t="s">
         <v>18</v>
@@ -9089,7 +9098,7 @@
         <v>16</v>
       </c>
       <c r="I102" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="J102" s="4" t="s">
         <v>62</v>
@@ -9119,13 +9128,13 @@
         <v>40</v>
       </c>
       <c r="Y102" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="Z102" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AA102" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AB102" t="s">
         <v>18</v>
@@ -9161,7 +9170,7 @@
         <v>16</v>
       </c>
       <c r="I103" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="J103" s="4" t="s">
         <v>62</v>
@@ -9191,13 +9200,13 @@
         <v>40</v>
       </c>
       <c r="Y103" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Z103" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="AA103" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="AB103" t="s">
         <v>18</v>

--- a/Sura/DataSource - Emision Motor.xlsx
+++ b/Sura/DataSource - Emision Motor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89B7032-54F6-4E8F-A59E-C6BAD8CB9E1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55272AB9-4D62-4690-AE33-8FDEC84B6394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1142,28 +1142,28 @@
     <t>6 meses</t>
   </si>
   <si>
-    <t>REN021</t>
-  </si>
-  <si>
-    <t>REN022</t>
-  </si>
-  <si>
-    <t>ABC12SREN021</t>
-  </si>
-  <si>
-    <t>ABC12SREN022</t>
-  </si>
-  <si>
-    <t>ZAZ123SREN021</t>
-  </si>
-  <si>
-    <t>ZAZ123SREN022</t>
-  </si>
-  <si>
-    <t>10/03/2020</t>
-  </si>
-  <si>
     <t>Anual</t>
+  </si>
+  <si>
+    <t>05/03/2020</t>
+  </si>
+  <si>
+    <t>REN023</t>
+  </si>
+  <si>
+    <t>ABC12SREN023</t>
+  </si>
+  <si>
+    <t>ZAZ123SREN023</t>
+  </si>
+  <si>
+    <t>REN024</t>
+  </si>
+  <si>
+    <t>ABC12SREN024</t>
+  </si>
+  <si>
+    <t>ZAZ123SREN024</t>
   </si>
 </sst>
 </file>
@@ -1549,7 +1549,7 @@
   <dimension ref="A1:AC103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="AA2" sqref="AA2:AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1694,10 +1694,10 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -1724,10 +1724,10 @@
         <v>40</v>
       </c>
       <c r="Y2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Z2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AA2" t="s">
         <v>372</v>
@@ -1766,10 +1766,10 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
@@ -1796,13 +1796,13 @@
         <v>40</v>
       </c>
       <c r="Y3" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Z3" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AA3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AB3" t="s">
         <v>18</v>

--- a/Sura/DataSource - Emision Motor.xlsx
+++ b/Sura/DataSource - Emision Motor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF661D6-0148-43FA-A305-6C4A7D6BB18F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A54BDF2-18A2-416C-91D9-3A0EB4820825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
   <si>
     <t>Usuario</t>
   </si>
@@ -152,18 +152,6 @@
     <t>Anual</t>
   </si>
   <si>
-    <t>25/02/2021</t>
-  </si>
-  <si>
-    <t>POR001</t>
-  </si>
-  <si>
-    <t>ABC12SPOR001</t>
-  </si>
-  <si>
-    <t>ZAZ123SPOR001</t>
-  </si>
-  <si>
     <t>https://preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
   </si>
   <si>
@@ -171,6 +159,57 @@
   </si>
   <si>
     <t>silverarrow</t>
+  </si>
+  <si>
+    <t>10/03/2021</t>
+  </si>
+  <si>
+    <t>Tarjeta de Crédito</t>
+  </si>
+  <si>
+    <t>Débito Bancario</t>
+  </si>
+  <si>
+    <t>Naranja</t>
+  </si>
+  <si>
+    <t>5895627074474000</t>
+  </si>
+  <si>
+    <t>03/2025</t>
+  </si>
+  <si>
+    <t>SNP</t>
+  </si>
+  <si>
+    <t>0340010400044915199004</t>
+  </si>
+  <si>
+    <t>RPM001</t>
+  </si>
+  <si>
+    <t>ABC12SRPM001</t>
+  </si>
+  <si>
+    <t>ZAZ123SRPM001</t>
+  </si>
+  <si>
+    <t>RPM002</t>
+  </si>
+  <si>
+    <t>RPM003</t>
+  </si>
+  <si>
+    <t>ABC12SRPM002</t>
+  </si>
+  <si>
+    <t>ABC12SRPM003</t>
+  </si>
+  <si>
+    <t>ZAZ123SRPM002</t>
+  </si>
+  <si>
+    <t>ZAZ123SRPM003</t>
   </si>
 </sst>
 </file>
@@ -514,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,19 +679,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F2" s="4">
-        <v>8642866642</v>
+        <v>2617100594</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -664,7 +703,7 @@
         <v>38</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -685,24 +724,181 @@
         <v>31</v>
       </c>
       <c r="W2">
-        <v>1400000</v>
+        <v>1380000</v>
       </c>
       <c r="X2" t="s">
         <v>33</v>
       </c>
       <c r="Y2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Z2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AB2" t="s">
         <v>18</v>
       </c>
       <c r="AC2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2617100594</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S3">
+        <v>2021</v>
+      </c>
+      <c r="T3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3">
+        <v>1380000</v>
+      </c>
+      <c r="X3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2617100594</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4">
+        <v>2021</v>
+      </c>
+      <c r="T4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" t="s">
+        <v>31</v>
+      </c>
+      <c r="W4">
+        <v>1380000</v>
+      </c>
+      <c r="X4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC4" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Sura/DataSource - Emision Motor.xlsx
+++ b/Sura/DataSource - Emision Motor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A54BDF2-18A2-416C-91D9-3A0EB4820825}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CC0C18-0F06-436E-A176-BC1C6FADEC70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="82">
   <si>
     <t>Usuario</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Sin Actividad</t>
   </si>
   <si>
-    <t>su</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
@@ -158,18 +155,6 @@
     <t>preproducciongestion.segurossura.com.ar</t>
   </si>
   <si>
-    <t>silverarrow</t>
-  </si>
-  <si>
-    <t>10/03/2021</t>
-  </si>
-  <si>
-    <t>Tarjeta de Crédito</t>
-  </si>
-  <si>
-    <t>Débito Bancario</t>
-  </si>
-  <si>
     <t>Naranja</t>
   </si>
   <si>
@@ -185,31 +170,115 @@
     <t>0340010400044915199004</t>
   </si>
   <si>
-    <t>RPM001</t>
-  </si>
-  <si>
-    <t>ABC12SRPM001</t>
-  </si>
-  <si>
-    <t>ZAZ123SRPM001</t>
-  </si>
-  <si>
-    <t>RPM002</t>
-  </si>
-  <si>
-    <t>RPM003</t>
-  </si>
-  <si>
-    <t>ABC12SRPM002</t>
-  </si>
-  <si>
-    <t>ABC12SRPM003</t>
-  </si>
-  <si>
-    <t>ZAZ123SRPM002</t>
-  </si>
-  <si>
-    <t>ZAZ123SRPM003</t>
+    <t>garcianico</t>
+  </si>
+  <si>
+    <t>gw</t>
+  </si>
+  <si>
+    <t>22/03/2021</t>
+  </si>
+  <si>
+    <t>PRP001</t>
+  </si>
+  <si>
+    <t>PRP002</t>
+  </si>
+  <si>
+    <t>PRP003</t>
+  </si>
+  <si>
+    <t>ABC12SPRP001</t>
+  </si>
+  <si>
+    <t>ZAZ123SPRP001</t>
+  </si>
+  <si>
+    <t>ABC12SPRP002</t>
+  </si>
+  <si>
+    <t>ABC12SPRP003</t>
+  </si>
+  <si>
+    <t>ZAZ123SPRP002</t>
+  </si>
+  <si>
+    <t>ZAZ123SPRP003</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>RENAULT</t>
+  </si>
+  <si>
+    <t>LOGAN II 1.6 8V EXPRESSION</t>
+  </si>
+  <si>
+    <t>B - Resp. Civil-Robo/Incendio Total Daños Totales por Accidente</t>
+  </si>
+  <si>
+    <t>PRP004</t>
+  </si>
+  <si>
+    <t>PRP005</t>
+  </si>
+  <si>
+    <t>PRP006</t>
+  </si>
+  <si>
+    <t>PRP007</t>
+  </si>
+  <si>
+    <t>PRP008</t>
+  </si>
+  <si>
+    <t>PRP009</t>
+  </si>
+  <si>
+    <t>PRP010</t>
+  </si>
+  <si>
+    <t>ABC12SPRP004</t>
+  </si>
+  <si>
+    <t>ABC12SPRP005</t>
+  </si>
+  <si>
+    <t>ABC12SPRP006</t>
+  </si>
+  <si>
+    <t>ABC12SPRP007</t>
+  </si>
+  <si>
+    <t>ABC12SPRP008</t>
+  </si>
+  <si>
+    <t>ABC12SPRP009</t>
+  </si>
+  <si>
+    <t>ABC12SPRP010</t>
+  </si>
+  <si>
+    <t>ZAZ123SPRP004</t>
+  </si>
+  <si>
+    <t>ZAZ123SPRP005</t>
+  </si>
+  <si>
+    <t>ZAZ123SPRP006</t>
+  </si>
+  <si>
+    <t>ZAZ123SPRP007</t>
+  </si>
+  <si>
+    <t>ZAZ123SPRP008</t>
+  </si>
+  <si>
+    <t>ZAZ123SPRP009</t>
+  </si>
+  <si>
+    <t>ZAZ123SPRP010</t>
   </si>
 </sst>
 </file>
@@ -553,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6:AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +633,7 @@
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.28515625" customWidth="1"/>
     <col min="3" max="3" width="68.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
@@ -587,13 +656,13 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -611,10 +680,10 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
         <v>23</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
@@ -623,28 +692,28 @@
         <v>6</v>
       </c>
       <c r="M1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>28</v>
-      </c>
-      <c r="R1" t="s">
-        <v>29</v>
       </c>
       <c r="S1" t="s">
         <v>7</v>
       </c>
       <c r="T1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U1" t="s">
         <v>8</v>
@@ -671,7 +740,7 @@
         <v>15</v>
       </c>
       <c r="AC1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -679,19 +748,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F2" s="4">
-        <v>2617100594</v>
+        <v>1865378806</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -700,37 +769,37 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S2">
         <v>2021</v>
       </c>
       <c r="T2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" t="s">
         <v>30</v>
-      </c>
-      <c r="V2" t="s">
-        <v>31</v>
       </c>
       <c r="W2">
         <v>1380000</v>
       </c>
       <c r="X2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Z2" t="s">
         <v>51</v>
@@ -742,7 +811,7 @@
         <v>18</v>
       </c>
       <c r="AC2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -750,19 +819,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F3" s="4">
-        <v>2617100594</v>
+        <v>1865378806</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -771,58 +840,58 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="K3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="S3">
         <v>2021</v>
       </c>
       <c r="T3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" t="s">
         <v>30</v>
-      </c>
-      <c r="V3" t="s">
-        <v>31</v>
       </c>
       <c r="W3">
         <v>1380000</v>
       </c>
       <c r="X3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z3" t="s">
         <v>53</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>55</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>57</v>
       </c>
       <c r="AB3" t="s">
         <v>18</v>
       </c>
       <c r="AC3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -830,19 +899,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F4" s="4">
-        <v>2617100594</v>
+        <v>1865378806</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -851,55 +920,564 @@
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="S4">
         <v>2021</v>
       </c>
       <c r="T4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" t="s">
         <v>30</v>
-      </c>
-      <c r="V4" t="s">
-        <v>31</v>
       </c>
       <c r="W4">
         <v>1380000</v>
       </c>
       <c r="X4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z4" t="s">
         <v>54</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>56</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>58</v>
       </c>
       <c r="AB4" t="s">
         <v>18</v>
       </c>
       <c r="AC4" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1865378806</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5">
+        <v>2021</v>
+      </c>
+      <c r="T5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5">
+        <v>1380000</v>
+      </c>
+      <c r="X5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1865378806</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6">
+        <v>2021</v>
+      </c>
+      <c r="T6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V6" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6">
+        <v>1380000</v>
+      </c>
+      <c r="X6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="4">
+        <v>6404770682</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="S7">
+        <v>2018</v>
+      </c>
+      <c r="T7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V7" t="s">
+        <v>59</v>
+      </c>
+      <c r="W7">
+        <v>1200000</v>
+      </c>
+      <c r="X7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="4">
+        <v>6404770682</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S8">
+        <v>2018</v>
+      </c>
+      <c r="T8" t="s">
+        <v>57</v>
+      </c>
+      <c r="U8" t="s">
+        <v>58</v>
+      </c>
+      <c r="V8" t="s">
+        <v>59</v>
+      </c>
+      <c r="W8">
+        <v>1200000</v>
+      </c>
+      <c r="X8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="4">
+        <v>6404770682</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9">
+        <v>2018</v>
+      </c>
+      <c r="T9" t="s">
+        <v>57</v>
+      </c>
+      <c r="U9" t="s">
+        <v>58</v>
+      </c>
+      <c r="V9" t="s">
+        <v>59</v>
+      </c>
+      <c r="W9">
+        <v>1200000</v>
+      </c>
+      <c r="X9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="4">
+        <v>6404770682</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10">
+        <v>2018</v>
+      </c>
+      <c r="T10" t="s">
+        <v>57</v>
+      </c>
+      <c r="U10" t="s">
+        <v>58</v>
+      </c>
+      <c r="V10" t="s">
+        <v>59</v>
+      </c>
+      <c r="W10">
+        <v>1200000</v>
+      </c>
+      <c r="X10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="4">
+        <v>6404770682</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11">
+        <v>2018</v>
+      </c>
+      <c r="T11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U11" t="s">
+        <v>58</v>
+      </c>
+      <c r="V11" t="s">
+        <v>59</v>
+      </c>
+      <c r="W11">
+        <v>1200000</v>
+      </c>
+      <c r="X11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Sura/DataSource - Emision Motor.xlsx
+++ b/Sura/DataSource - Emision Motor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CC0C18-0F06-436E-A176-BC1C6FADEC70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB971E73-0A1D-41A9-ABA9-62C824CB6563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,6 +155,9 @@
     <t>preproducciongestion.segurossura.com.ar</t>
   </si>
   <si>
+    <t>silverarrow</t>
+  </si>
+  <si>
     <t>Naranja</t>
   </si>
   <si>
@@ -171,9 +174,6 @@
   </si>
   <si>
     <t>garcianico</t>
-  </si>
-  <si>
-    <t>gw</t>
   </si>
   <si>
     <t>22/03/2021</t>
@@ -625,7 +625,7 @@
   <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6:AC11"/>
+      <selection activeCell="E3" sqref="E3:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,10 +754,10 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F2" s="4">
         <v>1865378806</v>
@@ -825,10 +825,10 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F3" s="4">
         <v>1865378806</v>
@@ -852,13 +852,13 @@
         <v>33</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S3">
         <v>2021</v>
@@ -905,10 +905,10 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F4" s="4">
         <v>1865378806</v>
@@ -932,10 +932,10 @@
         <v>33</v>
       </c>
       <c r="Q4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S4">
         <v>2021</v>
@@ -982,10 +982,10 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F5" s="4">
         <v>1865378806</v>
@@ -1009,10 +1009,10 @@
         <v>33</v>
       </c>
       <c r="Q5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S5">
         <v>2021</v>
@@ -1059,10 +1059,10 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F6" s="4">
         <v>1865378806</v>
@@ -1086,10 +1086,10 @@
         <v>33</v>
       </c>
       <c r="Q6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S6">
         <v>2021</v>
@@ -1136,10 +1136,10 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F7" s="4">
         <v>6404770682</v>
@@ -1207,10 +1207,10 @@
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F8" s="4">
         <v>6404770682</v>
@@ -1278,10 +1278,10 @@
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F9" s="4">
         <v>6404770682</v>
@@ -1349,10 +1349,10 @@
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F10" s="4">
         <v>6404770682</v>
@@ -1420,10 +1420,10 @@
         <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F11" s="4">
         <v>6404770682</v>

--- a/Sura/DataSource - Emision Motor.xlsx
+++ b/Sura/DataSource - Emision Motor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB971E73-0A1D-41A9-ABA9-62C824CB6563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893F185A-3AB0-45AF-AEC3-68F4CC00BC1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="89">
   <si>
     <t>Usuario</t>
   </si>
@@ -179,33 +179,6 @@
     <t>22/03/2021</t>
   </si>
   <si>
-    <t>PRP001</t>
-  </si>
-  <si>
-    <t>PRP002</t>
-  </si>
-  <si>
-    <t>PRP003</t>
-  </si>
-  <si>
-    <t>ABC12SPRP001</t>
-  </si>
-  <si>
-    <t>ZAZ123SPRP001</t>
-  </si>
-  <si>
-    <t>ABC12SPRP002</t>
-  </si>
-  <si>
-    <t>ABC12SPRP003</t>
-  </si>
-  <si>
-    <t>ZAZ123SPRP002</t>
-  </si>
-  <si>
-    <t>ZAZ123SPRP003</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -279,6 +252,54 @@
   </si>
   <si>
     <t>ZAZ123SPRP010</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>07/04/2021</t>
+  </si>
+  <si>
+    <t>Tarjeta de Crédito</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>6 Cuotas - ARS</t>
+  </si>
+  <si>
+    <t>Débito Bancario</t>
+  </si>
+  <si>
+    <t>TR - Todo Riesgo Franquicia Fija</t>
+  </si>
+  <si>
+    <t>RGA001</t>
+  </si>
+  <si>
+    <t>ABC12SRGA001</t>
+  </si>
+  <si>
+    <t>ZAZ123SRGA001</t>
+  </si>
+  <si>
+    <t>RGA002</t>
+  </si>
+  <si>
+    <t>ABC12SRGA002</t>
+  </si>
+  <si>
+    <t>ZAZ123SRGA002</t>
+  </si>
+  <si>
+    <t>RGA003</t>
+  </si>
+  <si>
+    <t>ABC12SRGA003</t>
+  </si>
+  <si>
+    <t>ZAZ123SRGA003</t>
   </si>
 </sst>
 </file>
@@ -625,7 +646,7 @@
   <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E11"/>
+      <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,13 +775,13 @@
         <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="4">
-        <v>1865378806</v>
+        <v>2240451788</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -772,7 +793,7 @@
         <v>37</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -796,22 +817,22 @@
         <v>1380000</v>
       </c>
       <c r="X2" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="Y2" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="Z2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AA2" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="AB2" t="s">
         <v>18</v>
       </c>
       <c r="AC2" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -825,13 +846,13 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
       </c>
       <c r="F3" s="4">
-        <v>1865378806</v>
+        <v>7821451462</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -843,13 +864,16 @@
         <v>37</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>76</v>
+      </c>
+      <c r="M3" t="s">
+        <v>77</v>
       </c>
       <c r="N3" t="s">
         <v>41</v>
@@ -876,16 +900,16 @@
         <v>1380000</v>
       </c>
       <c r="X3" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="Y3" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="Z3" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="AA3" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AB3" t="s">
         <v>18</v>
@@ -905,13 +929,13 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="4">
-        <v>1865378806</v>
+        <v>6759658789</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -923,10 +947,10 @@
         <v>37</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="L4" t="s">
         <v>33</v>
@@ -953,16 +977,16 @@
         <v>1380000</v>
       </c>
       <c r="X4" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="Y4" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="Z4" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="AA4" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="AB4" t="s">
         <v>18</v>
@@ -1033,13 +1057,13 @@
         <v>32</v>
       </c>
       <c r="Y5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="Z5" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AA5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="AB5" t="s">
         <v>18</v>
@@ -1110,13 +1134,13 @@
         <v>32</v>
       </c>
       <c r="Y6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="Z6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AA6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="AB6" t="s">
         <v>18</v>
@@ -1166,28 +1190,28 @@
         <v>2018</v>
       </c>
       <c r="T7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="U7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="V7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="W7">
         <v>1200000</v>
       </c>
       <c r="X7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="Y7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="Z7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="AA7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="AB7" t="s">
         <v>18</v>
@@ -1237,28 +1261,28 @@
         <v>2018</v>
       </c>
       <c r="T8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="U8" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="V8" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="W8">
         <v>1200000</v>
       </c>
       <c r="X8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="Y8" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="Z8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AA8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="AB8" t="s">
         <v>18</v>
@@ -1308,28 +1332,28 @@
         <v>2018</v>
       </c>
       <c r="T9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="U9" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="V9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="W9">
         <v>1200000</v>
       </c>
       <c r="X9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="Y9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="Z9" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="AA9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="AB9" t="s">
         <v>18</v>
@@ -1379,28 +1403,28 @@
         <v>2018</v>
       </c>
       <c r="T10" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="U10" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="V10" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="W10">
         <v>1200000</v>
       </c>
       <c r="X10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="Y10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="Z10" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="AA10" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AB10" t="s">
         <v>18</v>
@@ -1450,28 +1474,28 @@
         <v>2018</v>
       </c>
       <c r="T11" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="U11" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="V11" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="W11">
         <v>1200000</v>
       </c>
       <c r="X11" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="Y11" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="Z11" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="AA11" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="AB11" t="s">
         <v>18</v>

--- a/Sura/DataSource - Emision Motor.xlsx
+++ b/Sura/DataSource - Emision Motor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893F185A-3AB0-45AF-AEC3-68F4CC00BC1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19B08C5-E7EC-47F0-9331-2E33FDCE49C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="91">
   <si>
     <t>Usuario</t>
   </si>
@@ -257,9 +257,6 @@
     <t>su</t>
   </si>
   <si>
-    <t>07/04/2021</t>
-  </si>
-  <si>
     <t>Tarjeta de Crédito</t>
   </si>
   <si>
@@ -275,31 +272,40 @@
     <t>TR - Todo Riesgo Franquicia Fija</t>
   </si>
   <si>
-    <t>RGA001</t>
-  </si>
-  <si>
-    <t>ABC12SRGA001</t>
-  </si>
-  <si>
-    <t>ZAZ123SRGA001</t>
-  </si>
-  <si>
-    <t>RGA002</t>
-  </si>
-  <si>
-    <t>ABC12SRGA002</t>
-  </si>
-  <si>
-    <t>ZAZ123SRGA002</t>
-  </si>
-  <si>
-    <t>RGA003</t>
-  </si>
-  <si>
-    <t>ABC12SRGA003</t>
-  </si>
-  <si>
-    <t>ZAZ123SRGA003</t>
+    <t>i-preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>03/05/2021</t>
+  </si>
+  <si>
+    <t>RGM001</t>
+  </si>
+  <si>
+    <t>ABC12SRGM001</t>
+  </si>
+  <si>
+    <t>ZAZ123SRGM001</t>
+  </si>
+  <si>
+    <t>RGM002</t>
+  </si>
+  <si>
+    <t>ABC12SRGM002</t>
+  </si>
+  <si>
+    <t>ZAZ123SRGM002</t>
+  </si>
+  <si>
+    <t>RGM003</t>
+  </si>
+  <si>
+    <t>ABC12SRGM003</t>
+  </si>
+  <si>
+    <t>ZAZ123SRGM003</t>
   </si>
 </sst>
 </file>
@@ -646,7 +652,7 @@
   <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,10 +775,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
         <v>73</v>
@@ -793,7 +799,7 @@
         <v>37</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -814,25 +820,25 @@
         <v>30</v>
       </c>
       <c r="W2">
-        <v>1380000</v>
+        <v>1487000</v>
       </c>
       <c r="X2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AA2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AB2" t="s">
         <v>18</v>
       </c>
       <c r="AC2" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -840,10 +846,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
         <v>73</v>
@@ -852,7 +858,7 @@
         <v>40</v>
       </c>
       <c r="F3" s="4">
-        <v>7821451462</v>
+        <v>2240451788</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -864,16 +870,16 @@
         <v>37</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" t="s">
         <v>74</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>75</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>76</v>
-      </c>
-      <c r="M3" t="s">
-        <v>77</v>
       </c>
       <c r="N3" t="s">
         <v>41</v>
@@ -897,19 +903,19 @@
         <v>30</v>
       </c>
       <c r="W3">
-        <v>1380000</v>
+        <v>1487000</v>
       </c>
       <c r="X3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AA3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AB3" t="s">
         <v>18</v>
@@ -923,10 +929,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
         <v>73</v>
@@ -935,7 +941,7 @@
         <v>40</v>
       </c>
       <c r="F4" s="4">
-        <v>6759658789</v>
+        <v>2240451788</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -947,10 +953,10 @@
         <v>37</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L4" t="s">
         <v>33</v>
@@ -974,25 +980,25 @@
         <v>30</v>
       </c>
       <c r="W4">
-        <v>1380000</v>
+        <v>1487000</v>
       </c>
       <c r="X4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AB4" t="s">
         <v>18</v>
       </c>
       <c r="AC4" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -1506,7 +1512,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{93432FE9-70CF-4543-BE93-98B789F29FA9}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{045D1AA9-37B7-4A0F-AF7B-416A090A2FDF}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{AA4D7AA4-4CCF-49BA-A310-E708E1E51AD2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Sura/DataSource - Emision Motor.xlsx
+++ b/Sura/DataSource - Emision Motor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19B08C5-E7EC-47F0-9331-2E33FDCE49C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262F280D-F9F5-4A7E-8E0B-5B99B4454076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="113">
   <si>
     <t>Usuario</t>
   </si>
@@ -306,6 +306,72 @@
   </si>
   <si>
     <t>ZAZ123SRGM003</t>
+  </si>
+  <si>
+    <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
+  </si>
+  <si>
+    <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>gw</t>
+  </si>
+  <si>
+    <t>14/09/2020</t>
+  </si>
+  <si>
+    <t>PQM042</t>
+  </si>
+  <si>
+    <t>ABC12PQM042</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM042</t>
+  </si>
+  <si>
+    <t>PQM043</t>
+  </si>
+  <si>
+    <t>ABC12PQM043</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM043</t>
+  </si>
+  <si>
+    <t>PQM044</t>
+  </si>
+  <si>
+    <t>ABC12PQM044</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM044</t>
+  </si>
+  <si>
+    <t>PQM045</t>
+  </si>
+  <si>
+    <t>ABC12PQM045</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM045</t>
+  </si>
+  <si>
+    <t>PQM046</t>
+  </si>
+  <si>
+    <t>ABC12PQM046</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM046</t>
+  </si>
+  <si>
+    <t>PQM047</t>
+  </si>
+  <si>
+    <t>ABC12PQM047</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM047</t>
   </si>
 </sst>
 </file>
@@ -362,12 +428,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -649,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AC17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="AB12" sqref="AB12:AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,14 +1577,428 @@
         <v>33</v>
       </c>
     </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12">
+        <v>7166033480</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12">
+        <v>2021</v>
+      </c>
+      <c r="T12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" t="s">
+        <v>29</v>
+      </c>
+      <c r="V12" t="s">
+        <v>30</v>
+      </c>
+      <c r="W12">
+        <v>1487000</v>
+      </c>
+      <c r="X12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13">
+        <v>7166033480</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" t="s">
+        <v>33</v>
+      </c>
+      <c r="S13">
+        <v>2021</v>
+      </c>
+      <c r="T13" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" t="s">
+        <v>29</v>
+      </c>
+      <c r="V13" t="s">
+        <v>30</v>
+      </c>
+      <c r="W13">
+        <v>1487000</v>
+      </c>
+      <c r="X13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14">
+        <v>7166033480</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" t="s">
+        <v>33</v>
+      </c>
+      <c r="S14">
+        <v>2021</v>
+      </c>
+      <c r="T14" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" t="s">
+        <v>29</v>
+      </c>
+      <c r="V14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W14">
+        <v>1487000</v>
+      </c>
+      <c r="X14" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15">
+        <v>1571314844</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" t="s">
+        <v>33</v>
+      </c>
+      <c r="S15">
+        <v>2021</v>
+      </c>
+      <c r="T15" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" t="s">
+        <v>29</v>
+      </c>
+      <c r="V15" t="s">
+        <v>30</v>
+      </c>
+      <c r="W15">
+        <v>1487000</v>
+      </c>
+      <c r="X15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16">
+        <v>1571314844</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" t="s">
+        <v>33</v>
+      </c>
+      <c r="S16">
+        <v>2021</v>
+      </c>
+      <c r="T16" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" t="s">
+        <v>29</v>
+      </c>
+      <c r="V16" t="s">
+        <v>30</v>
+      </c>
+      <c r="W16">
+        <v>1487000</v>
+      </c>
+      <c r="X16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17">
+        <v>1571314844</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17">
+        <v>2021</v>
+      </c>
+      <c r="T17" t="s">
+        <v>36</v>
+      </c>
+      <c r="U17" t="s">
+        <v>29</v>
+      </c>
+      <c r="V17" t="s">
+        <v>30</v>
+      </c>
+      <c r="W17">
+        <v>1487000</v>
+      </c>
+      <c r="X17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{93432FE9-70CF-4543-BE93-98B789F29FA9}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{045D1AA9-37B7-4A0F-AF7B-416A090A2FDF}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{AA4D7AA4-4CCF-49BA-A310-E708E1E51AD2}"/>
+    <hyperlink ref="C12" r:id="rId4" xr:uid="{8C86046F-4E48-4F0B-A2C0-48B1B54DC825}"/>
+    <hyperlink ref="C13" r:id="rId5" xr:uid="{7EDA7168-241D-4DCE-8F65-FF92AAA59BB1}"/>
+    <hyperlink ref="C14" r:id="rId6" xr:uid="{9EFE14DD-E566-416F-BD6E-820CCE60EA19}"/>
+    <hyperlink ref="C15" r:id="rId7" xr:uid="{F4F4C9E1-E2FF-4EBD-81F0-1AC180BE51C6}"/>
+    <hyperlink ref="C16" r:id="rId8" xr:uid="{1765E689-490C-4102-BE9C-DCA808BB4AD0}"/>
+    <hyperlink ref="C17" r:id="rId9" xr:uid="{DA56CD5F-3788-4AAD-ADB1-4B52EA371DCA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Sura/DataSource - Emision Motor.xlsx
+++ b/Sura/DataSource - Emision Motor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262F280D-F9F5-4A7E-8E0B-5B99B4454076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E692DF-A3B9-4946-A7F0-F66B581C73EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="114">
   <si>
     <t>Usuario</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>ZAZ123PQM047</t>
+  </si>
+  <si>
+    <t>06/05/2021</t>
   </si>
 </sst>
 </file>
@@ -718,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12:AC17"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,7 +940,7 @@
         <v>37</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="K3" t="s">
         <v>74</v>
@@ -1020,7 +1023,7 @@
         <v>37</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="K4" t="s">
         <v>77</v>

--- a/Sura/DataSource - Emision Motor.xlsx
+++ b/Sura/DataSource - Emision Motor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E692DF-A3B9-4946-A7F0-F66B581C73EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBCA763-3653-435D-A5ED-E02C93EDD5BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="118">
   <si>
     <t>Usuario</t>
   </si>
@@ -191,9 +191,6 @@
     <t>B - Resp. Civil-Robo/Incendio Total Daños Totales por Accidente</t>
   </si>
   <si>
-    <t>PRP004</t>
-  </si>
-  <si>
     <t>PRP005</t>
   </si>
   <si>
@@ -212,9 +209,6 @@
     <t>PRP010</t>
   </si>
   <si>
-    <t>ABC12SPRP004</t>
-  </si>
-  <si>
     <t>ABC12SPRP005</t>
   </si>
   <si>
@@ -233,9 +227,6 @@
     <t>ABC12SPRP010</t>
   </si>
   <si>
-    <t>ZAZ123SPRP004</t>
-  </si>
-  <si>
     <t>ZAZ123SPRP005</t>
   </si>
   <si>
@@ -375,6 +366,27 @@
   </si>
   <si>
     <t>06/05/2021</t>
+  </si>
+  <si>
+    <t>RGM004</t>
+  </si>
+  <si>
+    <t>ABC12SRGM004</t>
+  </si>
+  <si>
+    <t>ZAZ123SRGM004</t>
+  </si>
+  <si>
+    <t>CodigoAgente</t>
+  </si>
+  <si>
+    <t>NUM_GRUPO</t>
+  </si>
+  <si>
+    <t>Mattioli</t>
+  </si>
+  <si>
+    <t>Corporativos Directos</t>
   </si>
 </sst>
 </file>
@@ -719,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC17"/>
+  <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,26 +744,26 @@
     <col min="3" max="3" width="68.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="9" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="18" width="21.28515625" customWidth="1"/>
-    <col min="19" max="19" width="5.140625" customWidth="1"/>
-    <col min="20" max="20" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" customWidth="1"/>
-    <col min="22" max="22" width="18" customWidth="1"/>
-    <col min="23" max="23" width="11.5703125" customWidth="1"/>
-    <col min="24" max="24" width="22.42578125" customWidth="1"/>
-    <col min="25" max="25" width="21.85546875" customWidth="1"/>
-    <col min="26" max="26" width="17.140625" customWidth="1"/>
-    <col min="27" max="27" width="17.7109375" customWidth="1"/>
-    <col min="28" max="28" width="12.42578125" customWidth="1"/>
-    <col min="29" max="29" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="11" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="14" max="20" width="21.28515625" customWidth="1"/>
+    <col min="21" max="21" width="5.140625" customWidth="1"/>
+    <col min="22" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" customWidth="1"/>
+    <col min="24" max="24" width="18" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" customWidth="1"/>
+    <col min="26" max="26" width="22.42578125" customWidth="1"/>
+    <col min="27" max="27" width="21.85546875" customWidth="1"/>
+    <col min="28" max="28" width="17.140625" customWidth="1"/>
+    <col min="29" max="29" width="17.7109375" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" customWidth="1"/>
+    <col min="31" max="31" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -771,87 +783,93 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>28</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>8</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>9</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>10</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
@@ -859,70 +877,76 @@
       <c r="F2" s="4">
         <v>2240451788</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>2302</v>
+      </c>
+      <c r="H2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2">
+        <v>2021</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2">
+        <v>1487000</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC2" t="s">
         <v>81</v>
       </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2">
-        <v>2021</v>
-      </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2">
-        <v>1487000</v>
-      </c>
-      <c r="X2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>18</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
         <v>40</v>
@@ -930,82 +954,88 @@
       <c r="F3" s="4">
         <v>2240451788</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3">
+        <v>2302</v>
+      </c>
+      <c r="H3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="L3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3">
+        <v>2021</v>
+      </c>
+      <c r="V3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3">
+        <v>1487000</v>
+      </c>
+      <c r="Z3" t="s">
         <v>75</v>
       </c>
-      <c r="M3" t="s">
-        <v>76</v>
-      </c>
-      <c r="N3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3">
-        <v>2021</v>
-      </c>
-      <c r="T3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3">
-        <v>1487000</v>
-      </c>
-      <c r="X3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>86</v>
-      </c>
       <c r="AA3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AB3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD3" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
@@ -1013,142 +1043,154 @@
       <c r="F4" s="4">
         <v>2240451788</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>2302</v>
+      </c>
+      <c r="H4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="L4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" t="s">
         <v>44</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>2021</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>36</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>29</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>30</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
         <v>1487000</v>
       </c>
-      <c r="X4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>88</v>
-      </c>
       <c r="Z4" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD4" t="s">
         <v>18</v>
       </c>
-      <c r="AC4" t="s">
-        <v>75</v>
+      <c r="AE4" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
         <v>40</v>
       </c>
       <c r="F5" s="4">
-        <v>1865378806</v>
-      </c>
-      <c r="G5" t="s">
+        <v>7105947778</v>
+      </c>
+      <c r="G5" s="4">
+        <v>6965</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M5" t="s">
         <v>17</v>
       </c>
-      <c r="L5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" t="s">
         <v>44</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>2021</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>36</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
         <v>29</v>
       </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
         <v>30</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
         <v>1380000</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Z5" t="s">
         <v>32</v>
       </c>
-      <c r="Y5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>59</v>
-      </c>
       <c r="AA5" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="AB5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD5" t="s">
         <v>18</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AE5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1167,65 +1209,67 @@
       <c r="F6" s="4">
         <v>1865378806</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>17</v>
       </c>
-      <c r="L6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="N6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S6" t="s">
         <v>44</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>2021</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>36</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
         <v>29</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
         <v>30</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
         <v>1380000</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Z6" t="s">
         <v>32</v>
       </c>
-      <c r="Y6" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>60</v>
-      </c>
       <c r="AA6" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="AB6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD6" t="s">
         <v>18</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AE6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1244,59 +1288,61 @@
       <c r="F7" s="4">
         <v>6404770682</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>16</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
         <v>17</v>
       </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7">
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7">
         <v>2018</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>48</v>
       </c>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
         <v>49</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>50</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
         <v>1200000</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Z7" t="s">
         <v>51</v>
       </c>
-      <c r="Y7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>61</v>
-      </c>
       <c r="AA7" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="AB7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD7" t="s">
         <v>18</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AE7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1315,59 +1361,61 @@
       <c r="F8" s="4">
         <v>6404770682</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>16</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>17</v>
       </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8">
+      <c r="N8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8">
         <v>2018</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V8" t="s">
         <v>48</v>
       </c>
-      <c r="U8" t="s">
+      <c r="W8" t="s">
         <v>49</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
         <v>50</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
         <v>1200000</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Z8" t="s">
         <v>51</v>
       </c>
-      <c r="Y8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>62</v>
-      </c>
       <c r="AA8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="AB8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD8" t="s">
         <v>18</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AE8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1386,59 +1434,61 @@
       <c r="F9" s="4">
         <v>6404770682</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" t="s">
         <v>13</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>16</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>17</v>
       </c>
-      <c r="L9" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9">
+      <c r="N9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9">
         <v>2018</v>
       </c>
-      <c r="T9" t="s">
+      <c r="V9" t="s">
         <v>48</v>
       </c>
-      <c r="U9" t="s">
+      <c r="W9" t="s">
         <v>49</v>
       </c>
-      <c r="V9" t="s">
+      <c r="X9" t="s">
         <v>50</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
         <v>1200000</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Z9" t="s">
         <v>51</v>
       </c>
-      <c r="Y9" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>63</v>
-      </c>
       <c r="AA9" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AB9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD9" t="s">
         <v>18</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AE9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1457,59 +1507,61 @@
       <c r="F10" s="4">
         <v>6404770682</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>16</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="s">
         <v>17</v>
       </c>
-      <c r="L10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10">
+      <c r="N10" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10">
         <v>2018</v>
       </c>
-      <c r="T10" t="s">
+      <c r="V10" t="s">
         <v>48</v>
       </c>
-      <c r="U10" t="s">
+      <c r="W10" t="s">
         <v>49</v>
       </c>
-      <c r="V10" t="s">
+      <c r="X10" t="s">
         <v>50</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
         <v>1200000</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Z10" t="s">
         <v>51</v>
       </c>
-      <c r="Y10" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>64</v>
-      </c>
       <c r="AA10" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="AB10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD10" t="s">
         <v>18</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AE10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1528,463 +1580,465 @@
       <c r="F11" s="4">
         <v>6404770682</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>16</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" t="s">
-        <v>33</v>
-      </c>
-      <c r="S11">
+      <c r="N11" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11">
         <v>2018</v>
       </c>
-      <c r="T11" t="s">
+      <c r="V11" t="s">
         <v>48</v>
       </c>
-      <c r="U11" t="s">
+      <c r="W11" t="s">
         <v>49</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
         <v>50</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
         <v>1200000</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Z11" t="s">
         <v>51</v>
       </c>
-      <c r="Y11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>65</v>
-      </c>
       <c r="AA11" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="AB11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD11" t="s">
         <v>18</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AE11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F12">
         <v>7166033480</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>16</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="L12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12">
+        <v>2021</v>
+      </c>
+      <c r="V12" t="s">
+        <v>36</v>
+      </c>
+      <c r="W12" t="s">
+        <v>29</v>
+      </c>
+      <c r="X12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y12">
+        <v>1487000</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC12" t="s">
         <v>94</v>
       </c>
-      <c r="K12" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12">
-        <v>2021</v>
-      </c>
-      <c r="T12" t="s">
-        <v>36</v>
-      </c>
-      <c r="U12" t="s">
-        <v>29</v>
-      </c>
-      <c r="V12" t="s">
-        <v>30</v>
-      </c>
-      <c r="W12">
-        <v>1487000</v>
-      </c>
-      <c r="X12" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB12" t="s">
+      <c r="AD12" t="s">
         <v>18</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AE12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F13">
         <v>7166033480</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>13</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>16</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="L13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M13" t="s">
         <v>17</v>
       </c>
-      <c r="L13" t="s">
-        <v>33</v>
-      </c>
-      <c r="S13">
+      <c r="N13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13">
         <v>2021</v>
       </c>
-      <c r="T13" t="s">
+      <c r="V13" t="s">
         <v>36</v>
       </c>
-      <c r="U13" t="s">
+      <c r="W13" t="s">
         <v>29</v>
       </c>
-      <c r="V13" t="s">
+      <c r="X13" t="s">
         <v>30</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
         <v>1487000</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Z13" t="s">
         <v>51</v>
       </c>
-      <c r="Y13" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>99</v>
-      </c>
       <c r="AA13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD13" t="s">
         <v>18</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AE13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F14">
         <v>7166033480</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>13</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>16</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="L14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" t="s">
         <v>17</v>
       </c>
-      <c r="L14" t="s">
-        <v>33</v>
-      </c>
-      <c r="S14">
+      <c r="N14" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14">
         <v>2021</v>
       </c>
-      <c r="T14" t="s">
+      <c r="V14" t="s">
         <v>36</v>
       </c>
-      <c r="U14" t="s">
+      <c r="W14" t="s">
         <v>29</v>
       </c>
-      <c r="V14" t="s">
+      <c r="X14" t="s">
         <v>30</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
         <v>1487000</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Z14" t="s">
         <v>51</v>
       </c>
-      <c r="Y14" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>102</v>
-      </c>
       <c r="AA14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AB14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD14" t="s">
         <v>18</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AE14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F15">
         <v>1571314844</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>13</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>16</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="L15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M15" t="s">
         <v>17</v>
       </c>
-      <c r="L15" t="s">
-        <v>33</v>
-      </c>
-      <c r="S15">
+      <c r="N15" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15">
         <v>2021</v>
       </c>
-      <c r="T15" t="s">
+      <c r="V15" t="s">
         <v>36</v>
       </c>
-      <c r="U15" t="s">
+      <c r="W15" t="s">
         <v>29</v>
       </c>
-      <c r="V15" t="s">
+      <c r="X15" t="s">
         <v>30</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>1487000</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Z15" t="s">
         <v>51</v>
       </c>
-      <c r="Y15" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>105</v>
-      </c>
       <c r="AA15" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AB15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD15" t="s">
         <v>18</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AE15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F16">
         <v>1571314844</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>13</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>16</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="L16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" t="s">
         <v>17</v>
       </c>
-      <c r="L16" t="s">
-        <v>33</v>
-      </c>
-      <c r="S16">
+      <c r="N16" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16">
         <v>2021</v>
       </c>
-      <c r="T16" t="s">
+      <c r="V16" t="s">
         <v>36</v>
       </c>
-      <c r="U16" t="s">
+      <c r="W16" t="s">
         <v>29</v>
       </c>
-      <c r="V16" t="s">
+      <c r="X16" t="s">
         <v>30</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
         <v>1487000</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Z16" t="s">
         <v>51</v>
       </c>
-      <c r="Y16" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>108</v>
-      </c>
       <c r="AA16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AB16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD16" t="s">
         <v>18</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AE16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F17">
         <v>1571314844</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>13</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>16</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="L17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" t="s">
         <v>17</v>
       </c>
-      <c r="L17" t="s">
-        <v>33</v>
-      </c>
-      <c r="S17">
+      <c r="N17" t="s">
+        <v>33</v>
+      </c>
+      <c r="U17">
         <v>2021</v>
       </c>
-      <c r="T17" t="s">
+      <c r="V17" t="s">
         <v>36</v>
       </c>
-      <c r="U17" t="s">
+      <c r="W17" t="s">
         <v>29</v>
       </c>
-      <c r="V17" t="s">
+      <c r="X17" t="s">
         <v>30</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
         <v>1487000</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Z17" t="s">
         <v>51</v>
       </c>
-      <c r="Y17" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>111</v>
-      </c>
       <c r="AA17" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AB17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD17" t="s">
         <v>18</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AE17" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2000,8 +2054,9 @@
     <hyperlink ref="C15" r:id="rId7" xr:uid="{F4F4C9E1-E2FF-4EBD-81F0-1AC180BE51C6}"/>
     <hyperlink ref="C16" r:id="rId8" xr:uid="{1765E689-490C-4102-BE9C-DCA808BB4AD0}"/>
     <hyperlink ref="C17" r:id="rId9" xr:uid="{DA56CD5F-3788-4AAD-ADB1-4B52EA371DCA}"/>
+    <hyperlink ref="C5" r:id="rId10" xr:uid="{E3E61A2A-4EC2-490D-ABA5-C152CE97BED5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
 </worksheet>
 </file>
--- a/Sura/DataSource - Emision Motor.xlsx
+++ b/Sura/DataSource - Emision Motor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBCA763-3653-435D-A5ED-E02C93EDD5BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765A9B7E-0CB8-42D6-B4F2-83F25830ED17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -734,7 +734,7 @@
   <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,7 +875,7 @@
         <v>40</v>
       </c>
       <c r="F2" s="4">
-        <v>2240451788</v>
+        <v>7635954411</v>
       </c>
       <c r="G2">
         <v>2302</v>
@@ -952,7 +952,7 @@
         <v>40</v>
       </c>
       <c r="F3" s="4">
-        <v>2240451788</v>
+        <v>7635954411</v>
       </c>
       <c r="G3">
         <v>2302</v>
@@ -1041,7 +1041,7 @@
         <v>40</v>
       </c>
       <c r="F4" s="4">
-        <v>2240451788</v>
+        <v>7635954411</v>
       </c>
       <c r="G4">
         <v>2302</v>

--- a/Sura/DataSource - Emision Motor.xlsx
+++ b/Sura/DataSource - Emision Motor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765A9B7E-0CB8-42D6-B4F2-83F25830ED17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86142E91-BDCA-4570-8C1D-D5FF910B236F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="117">
   <si>
     <t>Usuario</t>
   </si>
@@ -368,15 +368,6 @@
     <t>06/05/2021</t>
   </si>
   <si>
-    <t>RGM004</t>
-  </si>
-  <si>
-    <t>ABC12SRGM004</t>
-  </si>
-  <si>
-    <t>ZAZ123SRGM004</t>
-  </si>
-  <si>
     <t>CodigoAgente</t>
   </si>
   <si>
@@ -386,7 +377,13 @@
     <t>Mattioli</t>
   </si>
   <si>
-    <t>Corporativos Directos</t>
+    <t>RGM104</t>
+  </si>
+  <si>
+    <t>ABC12SRGM104</t>
+  </si>
+  <si>
+    <t>ZAZ123SRGM104</t>
   </si>
 </sst>
 </file>
@@ -733,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,10 +780,10 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -881,7 +878,7 @@
         <v>2302</v>
       </c>
       <c r="H2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -958,7 +955,7 @@
         <v>2302</v>
       </c>
       <c r="H3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
@@ -1047,7 +1044,7 @@
         <v>2302</v>
       </c>
       <c r="H4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I4" t="s">
         <v>13</v>
@@ -1112,25 +1109,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
         <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F5" s="4">
-        <v>7105947778</v>
-      </c>
-      <c r="G5" s="4">
-        <v>6965</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>117</v>
+        <v>8684079401</v>
+      </c>
+      <c r="G5">
+        <v>2302</v>
+      </c>
+      <c r="H5" t="s">
+        <v>113</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -1175,13 +1172,13 @@
         <v>32</v>
       </c>
       <c r="AA5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AB5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AC5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AD5" t="s">
         <v>18</v>
@@ -2054,9 +2051,8 @@
     <hyperlink ref="C15" r:id="rId7" xr:uid="{F4F4C9E1-E2FF-4EBD-81F0-1AC180BE51C6}"/>
     <hyperlink ref="C16" r:id="rId8" xr:uid="{1765E689-490C-4102-BE9C-DCA808BB4AD0}"/>
     <hyperlink ref="C17" r:id="rId9" xr:uid="{DA56CD5F-3788-4AAD-ADB1-4B52EA371DCA}"/>
-    <hyperlink ref="C5" r:id="rId10" xr:uid="{E3E61A2A-4EC2-490D-ABA5-C152CE97BED5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Sura/DataSource - Emision Motor.xlsx
+++ b/Sura/DataSource - Emision Motor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86142E91-BDCA-4570-8C1D-D5FF910B236F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D032EB61-6F5B-4AA2-9E79-BEBB6C0F5707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="118">
   <si>
     <t>Usuario</t>
   </si>
@@ -269,9 +269,6 @@
     <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
   </si>
   <si>
-    <t>03/05/2021</t>
-  </si>
-  <si>
     <t>RGM001</t>
   </si>
   <si>
@@ -365,9 +362,6 @@
     <t>ZAZ123PQM047</t>
   </si>
   <si>
-    <t>06/05/2021</t>
-  </si>
-  <si>
     <t>CodigoAgente</t>
   </si>
   <si>
@@ -384,6 +378,15 @@
   </si>
   <si>
     <t>ZAZ123SRGM104</t>
+  </si>
+  <si>
+    <t>17/06/2021</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>Aon Risk Services Arg. S.A.</t>
   </si>
 </sst>
 </file>
@@ -419,12 +422,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -440,13 +449,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -780,10 +794,10 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -855,335 +869,335 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="4">
-        <v>7635954411</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="9">
+        <v>5069929970</v>
+      </c>
+      <c r="G2" s="6">
         <v>2302</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="6">
+        <v>2021</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>1487000</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="9">
+        <v>5069929970</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2302</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="6">
+        <v>2021</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>1487000</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="9">
+        <v>5069929970</v>
+      </c>
+      <c r="G4" s="6">
+        <v>2302</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" s="6">
+        <v>2021</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>1487000</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="9">
+        <v>7105947778</v>
+      </c>
+      <c r="G5" s="6">
+        <v>591</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" s="6">
+        <v>2021</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>1380000</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB5" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2">
-        <v>2021</v>
-      </c>
-      <c r="V2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" t="s">
-        <v>29</v>
-      </c>
-      <c r="X2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2">
-        <v>1487000</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD2" t="s">
+      <c r="AC5" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AE2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="4">
-        <v>7635954411</v>
-      </c>
-      <c r="G3">
-        <v>2302</v>
-      </c>
-      <c r="H3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="M3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" t="s">
-        <v>73</v>
-      </c>
-      <c r="P3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3">
-        <v>2021</v>
-      </c>
-      <c r="V3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W3" t="s">
-        <v>29</v>
-      </c>
-      <c r="X3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y3">
-        <v>1487000</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="4">
-        <v>7635954411</v>
-      </c>
-      <c r="G4">
-        <v>2302</v>
-      </c>
-      <c r="H4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="M4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" t="s">
-        <v>44</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U4">
-        <v>2021</v>
-      </c>
-      <c r="V4" t="s">
-        <v>36</v>
-      </c>
-      <c r="W4" t="s">
-        <v>29</v>
-      </c>
-      <c r="X4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y4">
-        <v>1487000</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="4">
-        <v>8684079401</v>
-      </c>
-      <c r="G5">
-        <v>2302</v>
-      </c>
-      <c r="H5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="M5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" t="s">
-        <v>44</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U5">
-        <v>2021</v>
-      </c>
-      <c r="V5" t="s">
-        <v>36</v>
-      </c>
-      <c r="W5" t="s">
-        <v>29</v>
-      </c>
-      <c r="X5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y5">
-        <v>1380000</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE5" t="s">
+      <c r="AE5" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1633,16 +1647,16 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="D12" t="s">
         <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12">
         <v>7166033480</v>
@@ -1657,7 +1671,7 @@
         <v>37</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M12" t="s">
         <v>17</v>
@@ -1684,13 +1698,13 @@
         <v>51</v>
       </c>
       <c r="AA12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB12" t="s">
         <v>92</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>93</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>94</v>
       </c>
       <c r="AD12" t="s">
         <v>18</v>
@@ -1701,16 +1715,16 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="D13" t="s">
         <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F13">
         <v>7166033480</v>
@@ -1725,7 +1739,7 @@
         <v>37</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M13" t="s">
         <v>17</v>
@@ -1752,13 +1766,13 @@
         <v>51</v>
       </c>
       <c r="AA13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB13" t="s">
         <v>95</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>96</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>97</v>
       </c>
       <c r="AD13" t="s">
         <v>18</v>
@@ -1769,16 +1783,16 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="D14" t="s">
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14">
         <v>7166033480</v>
@@ -1793,7 +1807,7 @@
         <v>37</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M14" t="s">
         <v>17</v>
@@ -1820,13 +1834,13 @@
         <v>51</v>
       </c>
       <c r="AA14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB14" t="s">
         <v>98</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>99</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>100</v>
       </c>
       <c r="AD14" t="s">
         <v>18</v>
@@ -1837,16 +1851,16 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="D15" t="s">
         <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15">
         <v>1571314844</v>
@@ -1861,7 +1875,7 @@
         <v>37</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M15" t="s">
         <v>17</v>
@@ -1888,13 +1902,13 @@
         <v>51</v>
       </c>
       <c r="AA15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB15" t="s">
         <v>101</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>102</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>103</v>
       </c>
       <c r="AD15" t="s">
         <v>18</v>
@@ -1905,16 +1919,16 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="D16" t="s">
         <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F16">
         <v>1571314844</v>
@@ -1929,7 +1943,7 @@
         <v>37</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M16" t="s">
         <v>17</v>
@@ -1956,13 +1970,13 @@
         <v>51</v>
       </c>
       <c r="AA16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB16" t="s">
         <v>104</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>105</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>106</v>
       </c>
       <c r="AD16" t="s">
         <v>18</v>
@@ -1973,16 +1987,16 @@
     </row>
     <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="D17" t="s">
         <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17">
         <v>1571314844</v>
@@ -1997,7 +2011,7 @@
         <v>37</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M17" t="s">
         <v>17</v>
@@ -2024,13 +2038,13 @@
         <v>51</v>
       </c>
       <c r="AA17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB17" t="s">
         <v>107</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>108</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>109</v>
       </c>
       <c r="AD17" t="s">
         <v>18</v>
@@ -2051,8 +2065,9 @@
     <hyperlink ref="C15" r:id="rId7" xr:uid="{F4F4C9E1-E2FF-4EBD-81F0-1AC180BE51C6}"/>
     <hyperlink ref="C16" r:id="rId8" xr:uid="{1765E689-490C-4102-BE9C-DCA808BB4AD0}"/>
     <hyperlink ref="C17" r:id="rId9" xr:uid="{DA56CD5F-3788-4AAD-ADB1-4B52EA371DCA}"/>
+    <hyperlink ref="C5" r:id="rId10" xr:uid="{CFF57359-DF85-4D64-9A19-FB9515C90626}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
 </worksheet>
 </file>